--- a/q24/含分组信息数据.xlsx
+++ b/q24/含分组信息数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BC131"/>
+  <dimension ref="A1:BD131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,95 +616,100 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
+          <t>发病到首次影像检查时间间隔</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
           <t>入院首次影像检查流水号</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>HM_volume</t>
+          <t>ED_volume.0</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>随访1流水号</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>HM_volume.1</t>
+          <t>ED_volume.1</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>随访2流水号</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>HM_volume.2</t>
+          <t>ED_volume.2</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>随访3流水号</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>HM_volume.3</t>
+          <t>ED_volume.3</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>随访4流水号</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>HM_volume.4</t>
+          <t>ED_volume.4</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>随访5流水号</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>HM_volume.5</t>
+          <t>ED_volume.5</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>随访6流水号</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>HM_volume.6</t>
+          <t>ED_volume.6</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>随访7流水号</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>HM_volume.7</t>
+          <t>ED_volume.7</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>随访8流水号</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>HM_volume.8</t>
+          <t>ED_volume.8</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>分组信息</t>
         </is>
@@ -822,36 +827,38 @@
         <v>1</v>
       </c>
       <c r="AK2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL2" t="n">
         <v>9000</v>
       </c>
-      <c r="AL2" t="n">
-        <v>69714</v>
-      </c>
       <c r="AM2" t="n">
+        <v>48919</v>
+      </c>
+      <c r="AN2" t="n">
         <v>29766</v>
       </c>
-      <c r="AN2" t="n">
-        <v>74902</v>
-      </c>
       <c r="AO2" t="n">
+        <v>57898</v>
+      </c>
+      <c r="AP2" t="n">
         <v>475590</v>
       </c>
-      <c r="AP2" t="n">
-        <v>70952</v>
-      </c>
       <c r="AQ2" t="n">
+        <v>81747</v>
+      </c>
+      <c r="AR2" t="n">
         <v>935055</v>
       </c>
-      <c r="AR2" t="n">
-        <v>62831</v>
-      </c>
       <c r="AS2" t="n">
+        <v>107793</v>
+      </c>
+      <c r="AT2" t="n">
         <v>1531938</v>
       </c>
-      <c r="AT2" t="n">
-        <v>44029</v>
-      </c>
-      <c r="AU2" t="inlineStr"/>
+      <c r="AU2" t="n">
+        <v>126558</v>
+      </c>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
@@ -859,7 +866,8 @@
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="n">
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -975,36 +983,38 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL3" t="n">
         <v>10800</v>
       </c>
-      <c r="AL3" t="n">
-        <v>47500</v>
-      </c>
       <c r="AM3" t="n">
+        <v>23526</v>
+      </c>
+      <c r="AN3" t="n">
         <v>53724</v>
       </c>
-      <c r="AN3" t="n">
-        <v>52271</v>
-      </c>
       <c r="AO3" t="n">
+        <v>23390</v>
+      </c>
+      <c r="AP3" t="n">
         <v>249199</v>
       </c>
-      <c r="AP3" t="n">
-        <v>47748</v>
-      </c>
       <c r="AQ3" t="n">
+        <v>28415</v>
+      </c>
+      <c r="AR3" t="n">
         <v>1612859</v>
       </c>
-      <c r="AR3" t="n">
-        <v>13055</v>
-      </c>
       <c r="AS3" t="n">
+        <v>34868</v>
+      </c>
+      <c r="AT3" t="n">
         <v>4029091</v>
       </c>
-      <c r="AT3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AU3" t="inlineStr"/>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
@@ -1012,7 +1022,8 @@
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="n">
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1128,24 +1139,26 @@
         <v>1</v>
       </c>
       <c r="AK4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL4" t="n">
         <v>7200</v>
       </c>
-      <c r="AL4" t="n">
-        <v>86396</v>
-      </c>
       <c r="AM4" t="n">
+        <v>32621</v>
+      </c>
+      <c r="AN4" t="n">
         <v>34281</v>
       </c>
-      <c r="AN4" t="n">
-        <v>106042</v>
-      </c>
       <c r="AO4" t="n">
+        <v>41292</v>
+      </c>
+      <c r="AP4" t="n">
         <v>142545</v>
       </c>
-      <c r="AP4" t="n">
-        <v>103263</v>
-      </c>
-      <c r="AQ4" t="inlineStr"/>
+      <c r="AQ4" t="n">
+        <v>49767</v>
+      </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
@@ -1157,7 +1170,8 @@
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="n">
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1273,30 +1287,32 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="n">
         <v>3600</v>
       </c>
-      <c r="AL5" t="n">
-        <v>45498</v>
-      </c>
       <c r="AM5" t="n">
+        <v>22191</v>
+      </c>
+      <c r="AN5" t="n">
         <v>61107</v>
       </c>
-      <c r="AN5" t="n">
-        <v>39877</v>
-      </c>
       <c r="AO5" t="n">
+        <v>18956</v>
+      </c>
+      <c r="AP5" t="n">
         <v>301843</v>
       </c>
-      <c r="AP5" t="n">
-        <v>16622</v>
-      </c>
       <c r="AQ5" t="n">
+        <v>9540</v>
+      </c>
+      <c r="AR5" t="n">
         <v>819004</v>
       </c>
-      <c r="AR5" t="n">
-        <v>8441</v>
-      </c>
-      <c r="AS5" t="inlineStr"/>
+      <c r="AS5" t="n">
+        <v>5204</v>
+      </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
@@ -1306,7 +1322,8 @@
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="n">
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1422,24 +1439,26 @@
         <v>1</v>
       </c>
       <c r="AK6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL6" t="n">
         <v>18000</v>
       </c>
-      <c r="AL6" t="n">
-        <v>14832</v>
-      </c>
       <c r="AM6" t="n">
+        <v>47392</v>
+      </c>
+      <c r="AN6" t="n">
         <v>95283</v>
       </c>
-      <c r="AN6" t="n">
-        <v>24472</v>
-      </c>
       <c r="AO6" t="n">
+        <v>23182</v>
+      </c>
+      <c r="AP6" t="n">
         <v>352595</v>
       </c>
-      <c r="AP6" t="n">
-        <v>25477</v>
-      </c>
-      <c r="AQ6" t="inlineStr"/>
+      <c r="AQ6" t="n">
+        <v>12898</v>
+      </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
@@ -1451,7 +1470,8 @@
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="n">
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1567,36 +1587,38 @@
         <v>1</v>
       </c>
       <c r="AK7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL7" t="n">
         <v>86400</v>
       </c>
-      <c r="AL7" t="n">
-        <v>171129</v>
-      </c>
       <c r="AM7" t="n">
+        <v>97503</v>
+      </c>
+      <c r="AN7" t="n">
         <v>172348</v>
       </c>
-      <c r="AN7" t="n">
-        <v>148092</v>
-      </c>
       <c r="AO7" t="n">
+        <v>95384</v>
+      </c>
+      <c r="AP7" t="n">
         <v>437874</v>
       </c>
-      <c r="AP7" t="n">
-        <v>74087</v>
-      </c>
       <c r="AQ7" t="n">
+        <v>81745</v>
+      </c>
+      <c r="AR7" t="n">
         <v>619877</v>
       </c>
-      <c r="AR7" t="n">
-        <v>61875</v>
-      </c>
       <c r="AS7" t="n">
+        <v>50859</v>
+      </c>
+      <c r="AT7" t="n">
         <v>1028332</v>
       </c>
-      <c r="AT7" t="n">
-        <v>18546</v>
-      </c>
-      <c r="AU7" t="inlineStr"/>
+      <c r="AU7" t="n">
+        <v>24730</v>
+      </c>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
@@ -1604,7 +1626,8 @@
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="n">
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1720,52 +1743,55 @@
         <v>1</v>
       </c>
       <c r="AK8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL8" t="n">
         <v>64800</v>
       </c>
-      <c r="AL8" t="n">
-        <v>29444</v>
-      </c>
       <c r="AM8" t="n">
+        <v>32434</v>
+      </c>
+      <c r="AN8" t="n">
         <v>158689</v>
       </c>
-      <c r="AN8" t="n">
-        <v>28715</v>
-      </c>
       <c r="AO8" t="n">
+        <v>20015</v>
+      </c>
+      <c r="AP8" t="n">
         <v>421649</v>
       </c>
-      <c r="AP8" t="n">
-        <v>27343</v>
-      </c>
       <c r="AQ8" t="n">
+        <v>31287</v>
+      </c>
+      <c r="AR8" t="n">
         <v>693701</v>
       </c>
-      <c r="AR8" t="n">
-        <v>20521</v>
-      </c>
       <c r="AS8" t="n">
+        <v>42807</v>
+      </c>
+      <c r="AT8" t="n">
         <v>1020374</v>
       </c>
-      <c r="AT8" t="n">
-        <v>366</v>
-      </c>
       <c r="AU8" t="n">
+        <v>56867</v>
+      </c>
+      <c r="AV8" t="n">
         <v>1112508</v>
       </c>
-      <c r="AV8" t="n">
-        <v>348</v>
-      </c>
       <c r="AW8" t="n">
+        <v>51531</v>
+      </c>
+      <c r="AX8" t="n">
         <v>1474233</v>
       </c>
-      <c r="AX8" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY8" t="inlineStr"/>
+      <c r="AY8" t="n">
+        <v>43794</v>
+      </c>
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="n">
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1881,30 +1907,32 @@
         <v>1</v>
       </c>
       <c r="AK9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL9" t="n">
         <v>7200</v>
       </c>
-      <c r="AL9" t="n">
-        <v>27620</v>
-      </c>
       <c r="AM9" t="n">
+        <v>14353</v>
+      </c>
+      <c r="AN9" t="n">
         <v>36884</v>
       </c>
-      <c r="AN9" t="n">
-        <v>33498</v>
-      </c>
       <c r="AO9" t="n">
+        <v>32889</v>
+      </c>
+      <c r="AP9" t="n">
         <v>353685</v>
       </c>
-      <c r="AP9" t="n">
-        <v>36859</v>
-      </c>
       <c r="AQ9" t="n">
+        <v>51887</v>
+      </c>
+      <c r="AR9" t="n">
         <v>624691</v>
       </c>
-      <c r="AR9" t="n">
-        <v>30298</v>
-      </c>
-      <c r="AS9" t="inlineStr"/>
+      <c r="AS9" t="n">
+        <v>34914</v>
+      </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
@@ -1914,7 +1942,8 @@
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="n">
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2030,24 +2059,26 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AL10" t="n">
         <v>2412</v>
       </c>
-      <c r="AL10" t="n">
-        <v>41341</v>
-      </c>
       <c r="AM10" t="n">
+        <v>18799</v>
+      </c>
+      <c r="AN10" t="n">
         <v>144202</v>
       </c>
-      <c r="AN10" t="n">
-        <v>56613</v>
-      </c>
       <c r="AO10" t="n">
+        <v>22191</v>
+      </c>
+      <c r="AP10" t="n">
         <v>238178</v>
       </c>
-      <c r="AP10" t="n">
-        <v>53913</v>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
+      <c r="AQ10" t="n">
+        <v>48539</v>
+      </c>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
@@ -2059,7 +2090,8 @@
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="n">
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2175,36 +2207,38 @@
         <v>1</v>
       </c>
       <c r="AK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="n">
         <v>3600</v>
       </c>
-      <c r="AL11" t="n">
-        <v>37072</v>
-      </c>
       <c r="AM11" t="n">
+        <v>15272</v>
+      </c>
+      <c r="AN11" t="n">
         <v>54000</v>
       </c>
-      <c r="AN11" t="n">
-        <v>28066</v>
-      </c>
       <c r="AO11" t="n">
+        <v>22355</v>
+      </c>
+      <c r="AP11" t="n">
         <v>141597</v>
       </c>
-      <c r="AP11" t="n">
-        <v>15406</v>
-      </c>
       <c r="AQ11" t="n">
+        <v>23424</v>
+      </c>
+      <c r="AR11" t="n">
         <v>761032</v>
       </c>
-      <c r="AR11" t="n">
-        <v>6806</v>
-      </c>
       <c r="AS11" t="n">
+        <v>10274</v>
+      </c>
+      <c r="AT11" t="n">
         <v>3425578</v>
       </c>
-      <c r="AT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU11" t="inlineStr"/>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
@@ -2212,7 +2246,8 @@
       <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="n">
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2328,24 +2363,26 @@
         <v>1</v>
       </c>
       <c r="AK12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="n">
         <v>3600</v>
       </c>
-      <c r="AL12" t="n">
-        <v>4460</v>
-      </c>
       <c r="AM12" t="n">
+        <v>5080</v>
+      </c>
+      <c r="AN12" t="n">
         <v>61705</v>
       </c>
-      <c r="AN12" t="n">
-        <v>4757</v>
-      </c>
       <c r="AO12" t="n">
+        <v>3642</v>
+      </c>
+      <c r="AP12" t="n">
         <v>1197272</v>
       </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="inlineStr"/>
+      <c r="AQ12" t="n">
+        <v>13</v>
+      </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr"/>
@@ -2357,7 +2394,8 @@
       <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="n">
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2473,52 +2511,55 @@
         <v>1</v>
       </c>
       <c r="AK13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL13" t="n">
         <v>7200</v>
       </c>
-      <c r="AL13" t="n">
-        <v>62922</v>
-      </c>
       <c r="AM13" t="n">
+        <v>15254</v>
+      </c>
+      <c r="AN13" t="n">
         <v>41554</v>
       </c>
-      <c r="AN13" t="n">
-        <v>68164</v>
-      </c>
       <c r="AO13" t="n">
+        <v>16723</v>
+      </c>
+      <c r="AP13" t="n">
         <v>104632</v>
       </c>
-      <c r="AP13" t="n">
-        <v>63308</v>
-      </c>
       <c r="AQ13" t="n">
+        <v>13818</v>
+      </c>
+      <c r="AR13" t="n">
         <v>257805</v>
       </c>
-      <c r="AR13" t="n">
-        <v>57747</v>
-      </c>
       <c r="AS13" t="n">
+        <v>20788</v>
+      </c>
+      <c r="AT13" t="n">
         <v>622277</v>
       </c>
-      <c r="AT13" t="n">
-        <v>59134</v>
-      </c>
       <c r="AU13" t="n">
+        <v>22086</v>
+      </c>
+      <c r="AV13" t="n">
         <v>1732597</v>
       </c>
-      <c r="AV13" t="n">
-        <v>26651</v>
-      </c>
       <c r="AW13" t="n">
+        <v>55714</v>
+      </c>
+      <c r="AX13" t="n">
         <v>4578517</v>
       </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="inlineStr"/>
+      <c r="AY13" t="n">
+        <v>1099</v>
+      </c>
       <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="n">
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2634,36 +2675,38 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL14" t="n">
         <v>10800</v>
       </c>
-      <c r="AL14" t="n">
-        <v>13419</v>
-      </c>
       <c r="AM14" t="n">
+        <v>9694</v>
+      </c>
+      <c r="AN14" t="n">
         <v>95271</v>
       </c>
-      <c r="AN14" t="n">
-        <v>14322</v>
-      </c>
       <c r="AO14" t="n">
+        <v>9249</v>
+      </c>
+      <c r="AP14" t="n">
         <v>699528</v>
       </c>
-      <c r="AP14" t="n">
-        <v>11555</v>
-      </c>
       <c r="AQ14" t="n">
+        <v>15231</v>
+      </c>
+      <c r="AR14" t="n">
         <v>1848448</v>
       </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
       <c r="AS14" t="n">
+        <v>7072</v>
+      </c>
+      <c r="AT14" t="n">
         <v>2748479</v>
       </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="inlineStr"/>
+      <c r="AU14" t="n">
+        <v>1754</v>
+      </c>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
@@ -2671,7 +2714,8 @@
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="n">
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2787,24 +2831,26 @@
         <v>1</v>
       </c>
       <c r="AK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL15" t="n">
         <v>3600</v>
       </c>
-      <c r="AL15" t="n">
-        <v>35235</v>
-      </c>
       <c r="AM15" t="n">
+        <v>12291</v>
+      </c>
+      <c r="AN15" t="n">
         <v>84216</v>
       </c>
-      <c r="AN15" t="n">
-        <v>32523</v>
-      </c>
       <c r="AO15" t="n">
+        <v>19434</v>
+      </c>
+      <c r="AP15" t="n">
         <v>861131</v>
       </c>
-      <c r="AP15" t="n">
-        <v>21894</v>
-      </c>
-      <c r="AQ15" t="inlineStr"/>
+      <c r="AQ15" t="n">
+        <v>31092</v>
+      </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
@@ -2816,7 +2862,8 @@
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
       <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="n">
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2932,30 +2979,32 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL16" t="n">
         <v>18000</v>
       </c>
-      <c r="AL16" t="n">
-        <v>33313</v>
-      </c>
       <c r="AM16" t="n">
+        <v>5759</v>
+      </c>
+      <c r="AN16" t="n">
         <v>606143</v>
       </c>
-      <c r="AN16" t="n">
-        <v>40607</v>
-      </c>
       <c r="AO16" t="n">
+        <v>17205</v>
+      </c>
+      <c r="AP16" t="n">
         <v>1207663</v>
       </c>
-      <c r="AP16" t="n">
-        <v>9338</v>
-      </c>
       <c r="AQ16" t="n">
+        <v>96502</v>
+      </c>
+      <c r="AR16" t="n">
         <v>2306126</v>
       </c>
-      <c r="AR16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS16" t="inlineStr"/>
+      <c r="AS16" t="n">
+        <v>55312</v>
+      </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
@@ -2965,7 +3014,8 @@
       <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr"/>
       <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="n">
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3081,24 +3131,26 @@
         <v>1</v>
       </c>
       <c r="AK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL17" t="n">
         <v>3600</v>
       </c>
-      <c r="AL17" t="n">
-        <v>51028</v>
-      </c>
       <c r="AM17" t="n">
+        <v>28955</v>
+      </c>
+      <c r="AN17" t="n">
         <v>48003</v>
       </c>
-      <c r="AN17" t="n">
-        <v>51143</v>
-      </c>
       <c r="AO17" t="n">
+        <v>36267</v>
+      </c>
+      <c r="AP17" t="n">
         <v>458468</v>
       </c>
-      <c r="AP17" t="n">
-        <v>114542</v>
-      </c>
-      <c r="AQ17" t="inlineStr"/>
+      <c r="AQ17" t="n">
+        <v>94642</v>
+      </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
@@ -3110,7 +3162,8 @@
       <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr"/>
       <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="n">
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3226,30 +3279,32 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL18" t="n">
         <v>7200</v>
       </c>
-      <c r="AL18" t="n">
-        <v>26284</v>
-      </c>
       <c r="AM18" t="n">
+        <v>11533</v>
+      </c>
+      <c r="AN18" t="n">
         <v>53533</v>
       </c>
-      <c r="AN18" t="n">
-        <v>35386</v>
-      </c>
       <c r="AO18" t="n">
+        <v>22075</v>
+      </c>
+      <c r="AP18" t="n">
         <v>654501</v>
       </c>
-      <c r="AP18" t="n">
-        <v>27479</v>
-      </c>
       <c r="AQ18" t="n">
+        <v>44436</v>
+      </c>
+      <c r="AR18" t="n">
         <v>1712546</v>
       </c>
-      <c r="AR18" t="n">
-        <v>6395</v>
-      </c>
-      <c r="AS18" t="inlineStr"/>
+      <c r="AS18" t="n">
+        <v>34853</v>
+      </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
@@ -3259,7 +3314,8 @@
       <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr"/>
       <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="n">
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3375,30 +3431,32 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL19" t="n">
         <v>1800</v>
       </c>
-      <c r="AL19" t="n">
-        <v>14126</v>
-      </c>
       <c r="AM19" t="n">
+        <v>23890</v>
+      </c>
+      <c r="AN19" t="n">
         <v>56056</v>
       </c>
-      <c r="AN19" t="n">
-        <v>17740</v>
-      </c>
       <c r="AO19" t="n">
+        <v>38354</v>
+      </c>
+      <c r="AP19" t="n">
         <v>138317</v>
       </c>
-      <c r="AP19" t="n">
-        <v>17228</v>
-      </c>
       <c r="AQ19" t="n">
+        <v>45387</v>
+      </c>
+      <c r="AR19" t="n">
         <v>849773</v>
       </c>
-      <c r="AR19" t="n">
-        <v>12627</v>
-      </c>
-      <c r="AS19" t="inlineStr"/>
+      <c r="AS19" t="n">
+        <v>64084</v>
+      </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
@@ -3408,7 +3466,8 @@
       <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr"/>
       <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="n">
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3524,48 +3583,51 @@
         <v>1</v>
       </c>
       <c r="AK20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL20" t="n">
         <v>32400</v>
       </c>
-      <c r="AL20" t="n">
-        <v>86620</v>
-      </c>
       <c r="AM20" t="n">
+        <v>11107</v>
+      </c>
+      <c r="AN20" t="n">
         <v>65955</v>
       </c>
-      <c r="AN20" t="n">
-        <v>87346</v>
-      </c>
       <c r="AO20" t="n">
+        <v>16594</v>
+      </c>
+      <c r="AP20" t="n">
         <v>153490</v>
       </c>
-      <c r="AP20" t="n">
-        <v>83044</v>
-      </c>
       <c r="AQ20" t="n">
+        <v>18649</v>
+      </c>
+      <c r="AR20" t="n">
         <v>1068844</v>
       </c>
-      <c r="AR20" t="n">
-        <v>46400</v>
-      </c>
       <c r="AS20" t="n">
+        <v>27745</v>
+      </c>
+      <c r="AT20" t="n">
         <v>2901171</v>
       </c>
-      <c r="AT20" t="n">
-        <v>18042</v>
-      </c>
       <c r="AU20" t="n">
+        <v>1549</v>
+      </c>
+      <c r="AV20" t="n">
         <v>6423754</v>
       </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="inlineStr"/>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
       <c r="AX20" t="inlineStr"/>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="n">
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3681,36 +3743,38 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AL21" t="n">
         <v>2412</v>
       </c>
-      <c r="AL21" t="n">
-        <v>3775</v>
-      </c>
       <c r="AM21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN21" t="n">
         <v>21956</v>
       </c>
-      <c r="AN21" t="n">
-        <v>2606</v>
-      </c>
       <c r="AO21" t="n">
+        <v>527</v>
+      </c>
+      <c r="AP21" t="n">
         <v>130705</v>
       </c>
-      <c r="AP21" t="n">
-        <v>3169</v>
-      </c>
       <c r="AQ21" t="n">
+        <v>233</v>
+      </c>
+      <c r="AR21" t="n">
         <v>2623363</v>
       </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
       <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
         <v>6005977</v>
       </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="inlineStr"/>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="inlineStr"/>
@@ -3718,7 +3782,8 @@
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
       <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="n">
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3834,30 +3899,32 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="n">
         <v>3600</v>
       </c>
-      <c r="AL22" t="n">
-        <v>45872</v>
-      </c>
       <c r="AM22" t="n">
+        <v>12852</v>
+      </c>
+      <c r="AN22" t="n">
         <v>105407</v>
       </c>
-      <c r="AN22" t="n">
-        <v>34275</v>
-      </c>
       <c r="AO22" t="n">
+        <v>19022</v>
+      </c>
+      <c r="AP22" t="n">
         <v>341940</v>
       </c>
-      <c r="AP22" t="n">
-        <v>25416</v>
-      </c>
       <c r="AQ22" t="n">
+        <v>18694</v>
+      </c>
+      <c r="AR22" t="n">
         <v>1140353</v>
       </c>
-      <c r="AR22" t="n">
-        <v>4357</v>
-      </c>
-      <c r="AS22" t="inlineStr"/>
+      <c r="AS22" t="n">
+        <v>19750</v>
+      </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
@@ -3867,7 +3934,8 @@
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="n">
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,24 +4051,26 @@
         <v>1</v>
       </c>
       <c r="AK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="n">
         <v>3600</v>
       </c>
-      <c r="AL23" t="n">
-        <v>5070</v>
-      </c>
       <c r="AM23" t="n">
+        <v>5463</v>
+      </c>
+      <c r="AN23" t="n">
         <v>77255</v>
       </c>
-      <c r="AN23" t="n">
-        <v>4690</v>
-      </c>
       <c r="AO23" t="n">
+        <v>8707</v>
+      </c>
+      <c r="AP23" t="n">
         <v>1200861</v>
       </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="inlineStr"/>
+      <c r="AQ23" t="n">
+        <v>8820</v>
+      </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="inlineStr"/>
@@ -4012,7 +4082,8 @@
       <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="n">
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4128,52 +4199,55 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL24" t="n">
         <v>7200</v>
       </c>
-      <c r="AL24" t="n">
-        <v>40940</v>
-      </c>
       <c r="AM24" t="n">
+        <v>42734</v>
+      </c>
+      <c r="AN24" t="n">
         <v>101382</v>
       </c>
-      <c r="AN24" t="n">
-        <v>42931</v>
-      </c>
       <c r="AO24" t="n">
+        <v>44699</v>
+      </c>
+      <c r="AP24" t="n">
         <v>795716</v>
       </c>
-      <c r="AP24" t="n">
-        <v>35907</v>
-      </c>
       <c r="AQ24" t="n">
+        <v>41808</v>
+      </c>
+      <c r="AR24" t="n">
         <v>1309540</v>
       </c>
-      <c r="AR24" t="n">
-        <v>18553</v>
-      </c>
       <c r="AS24" t="n">
+        <v>40009</v>
+      </c>
+      <c r="AT24" t="n">
         <v>1825075</v>
       </c>
-      <c r="AT24" t="n">
-        <v>10805</v>
-      </c>
       <c r="AU24" t="n">
+        <v>30197</v>
+      </c>
+      <c r="AV24" t="n">
         <v>2362414</v>
       </c>
-      <c r="AV24" t="n">
-        <v>3838</v>
-      </c>
       <c r="AW24" t="n">
+        <v>3868</v>
+      </c>
+      <c r="AX24" t="n">
         <v>5030518</v>
       </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="inlineStr"/>
+      <c r="AY24" t="n">
+        <v>377</v>
+      </c>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="n">
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4289,30 +4363,32 @@
         <v>1</v>
       </c>
       <c r="AK25" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL25" t="n">
         <v>18000</v>
       </c>
-      <c r="AL25" t="n">
-        <v>21698</v>
-      </c>
       <c r="AM25" t="n">
+        <v>9317</v>
+      </c>
+      <c r="AN25" t="n">
         <v>105710</v>
       </c>
-      <c r="AN25" t="n">
-        <v>16678</v>
-      </c>
       <c r="AO25" t="n">
+        <v>7296</v>
+      </c>
+      <c r="AP25" t="n">
         <v>1070021</v>
       </c>
-      <c r="AP25" t="n">
-        <v>3884</v>
-      </c>
       <c r="AQ25" t="n">
+        <v>1124</v>
+      </c>
+      <c r="AR25" t="n">
         <v>1657130</v>
       </c>
-      <c r="AR25" t="n">
-        <v>14</v>
-      </c>
-      <c r="AS25" t="inlineStr"/>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
@@ -4322,7 +4398,8 @@
       <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr"/>
       <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="n">
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4438,24 +4515,26 @@
         <v>1</v>
       </c>
       <c r="AK26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL26" t="n">
         <v>25200</v>
       </c>
-      <c r="AL26" t="n">
-        <v>35626</v>
-      </c>
       <c r="AM26" t="n">
+        <v>9073</v>
+      </c>
+      <c r="AN26" t="n">
         <v>87083</v>
       </c>
-      <c r="AN26" t="n">
-        <v>39044</v>
-      </c>
       <c r="AO26" t="n">
+        <v>17400</v>
+      </c>
+      <c r="AP26" t="n">
         <v>242892</v>
       </c>
-      <c r="AP26" t="n">
-        <v>41705</v>
-      </c>
-      <c r="AQ26" t="inlineStr"/>
+      <c r="AQ26" t="n">
+        <v>27520</v>
+      </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
@@ -4467,7 +4546,8 @@
       <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="inlineStr"/>
-      <c r="BC26" t="n">
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4583,30 +4663,32 @@
         <v>1</v>
       </c>
       <c r="AK27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="n">
         <v>3600</v>
       </c>
-      <c r="AL27" t="n">
-        <v>33087</v>
-      </c>
       <c r="AM27" t="n">
+        <v>21095</v>
+      </c>
+      <c r="AN27" t="n">
         <v>81273</v>
       </c>
-      <c r="AN27" t="n">
-        <v>34707</v>
-      </c>
       <c r="AO27" t="n">
+        <v>19888</v>
+      </c>
+      <c r="AP27" t="n">
         <v>273717</v>
       </c>
-      <c r="AP27" t="n">
-        <v>35300</v>
-      </c>
       <c r="AQ27" t="n">
+        <v>44172</v>
+      </c>
+      <c r="AR27" t="n">
         <v>1653176</v>
       </c>
-      <c r="AR27" t="n">
-        <v>10480</v>
-      </c>
-      <c r="AS27" t="inlineStr"/>
+      <c r="AS27" t="n">
+        <v>57285</v>
+      </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
@@ -4616,7 +4698,8 @@
       <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
       <c r="BB27" t="inlineStr"/>
-      <c r="BC27" t="n">
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,30 +4815,32 @@
         <v>1</v>
       </c>
       <c r="AK28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL28" t="n">
         <v>10800</v>
       </c>
-      <c r="AL28" t="n">
-        <v>31039</v>
-      </c>
       <c r="AM28" t="n">
+        <v>7286</v>
+      </c>
+      <c r="AN28" t="n">
         <v>109536</v>
       </c>
-      <c r="AN28" t="n">
-        <v>36886</v>
-      </c>
       <c r="AO28" t="n">
+        <v>40975</v>
+      </c>
+      <c r="AP28" t="n">
         <v>639703</v>
       </c>
-      <c r="AP28" t="n">
-        <v>33934</v>
-      </c>
       <c r="AQ28" t="n">
+        <v>23846</v>
+      </c>
+      <c r="AR28" t="n">
         <v>900141</v>
       </c>
-      <c r="AR28" t="n">
-        <v>29610</v>
-      </c>
-      <c r="AS28" t="inlineStr"/>
+      <c r="AS28" t="n">
+        <v>18389</v>
+      </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
@@ -4765,7 +4850,8 @@
       <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr"/>
       <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="n">
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4881,36 +4967,38 @@
         <v>1</v>
       </c>
       <c r="AK29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL29" t="n">
         <v>7200</v>
       </c>
-      <c r="AL29" t="n">
-        <v>43492</v>
-      </c>
       <c r="AM29" t="n">
+        <v>16568</v>
+      </c>
+      <c r="AN29" t="n">
         <v>62532</v>
       </c>
-      <c r="AN29" t="n">
-        <v>45898</v>
-      </c>
       <c r="AO29" t="n">
+        <v>26888</v>
+      </c>
+      <c r="AP29" t="n">
         <v>514534</v>
       </c>
-      <c r="AP29" t="n">
-        <v>32023</v>
-      </c>
       <c r="AQ29" t="n">
+        <v>45445</v>
+      </c>
+      <c r="AR29" t="n">
         <v>1465489</v>
       </c>
-      <c r="AR29" t="n">
-        <v>11747</v>
-      </c>
       <c r="AS29" t="n">
+        <v>82603</v>
+      </c>
+      <c r="AT29" t="n">
         <v>4842677</v>
       </c>
-      <c r="AT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU29" t="inlineStr"/>
+      <c r="AU29" t="n">
+        <v>1477</v>
+      </c>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
@@ -4918,7 +5006,8 @@
       <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr"/>
       <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="n">
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,30 +5123,32 @@
         <v>1</v>
       </c>
       <c r="AK30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL30" t="n">
         <v>28800</v>
       </c>
-      <c r="AL30" t="n">
-        <v>50488</v>
-      </c>
       <c r="AM30" t="n">
+        <v>44907</v>
+      </c>
+      <c r="AN30" t="n">
         <v>129497</v>
       </c>
-      <c r="AN30" t="n">
-        <v>47741</v>
-      </c>
       <c r="AO30" t="n">
+        <v>62015</v>
+      </c>
+      <c r="AP30" t="n">
         <v>1257271</v>
       </c>
-      <c r="AP30" t="n">
-        <v>16124</v>
-      </c>
       <c r="AQ30" t="n">
+        <v>43817</v>
+      </c>
+      <c r="AR30" t="n">
         <v>3846154</v>
       </c>
-      <c r="AR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS30" t="inlineStr"/>
+      <c r="AS30" t="n">
+        <v>6395</v>
+      </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
@@ -5067,7 +5158,8 @@
       <c r="AZ30" t="inlineStr"/>
       <c r="BA30" t="inlineStr"/>
       <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="n">
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5183,36 +5275,38 @@
         <v>1</v>
       </c>
       <c r="AK31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL31" t="n">
         <v>28800</v>
       </c>
-      <c r="AL31" t="n">
-        <v>42445</v>
-      </c>
       <c r="AM31" t="n">
+        <v>18378</v>
+      </c>
+      <c r="AN31" t="n">
         <v>118914</v>
       </c>
-      <c r="AN31" t="n">
-        <v>41681</v>
-      </c>
       <c r="AO31" t="n">
+        <v>40860</v>
+      </c>
+      <c r="AP31" t="n">
         <v>467817</v>
       </c>
-      <c r="AP31" t="n">
-        <v>38639</v>
-      </c>
       <c r="AQ31" t="n">
+        <v>104295</v>
+      </c>
+      <c r="AR31" t="n">
         <v>1072651</v>
       </c>
-      <c r="AR31" t="n">
-        <v>29517</v>
-      </c>
       <c r="AS31" t="n">
+        <v>79204</v>
+      </c>
+      <c r="AT31" t="n">
         <v>1674901</v>
       </c>
-      <c r="AT31" t="n">
-        <v>16020</v>
-      </c>
-      <c r="AU31" t="inlineStr"/>
+      <c r="AU31" t="n">
+        <v>94574</v>
+      </c>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
@@ -5220,7 +5314,8 @@
       <c r="AZ31" t="inlineStr"/>
       <c r="BA31" t="inlineStr"/>
       <c r="BB31" t="inlineStr"/>
-      <c r="BC31" t="n">
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5336,24 +5431,26 @@
         <v>1</v>
       </c>
       <c r="AK32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL32" t="n">
         <v>1800</v>
       </c>
-      <c r="AL32" t="n">
-        <v>58670</v>
-      </c>
       <c r="AM32" t="n">
+        <v>17339</v>
+      </c>
+      <c r="AN32" t="n">
         <v>15006</v>
       </c>
-      <c r="AN32" t="n">
-        <v>51763</v>
-      </c>
       <c r="AO32" t="n">
+        <v>35646</v>
+      </c>
+      <c r="AP32" t="n">
         <v>43087</v>
       </c>
-      <c r="AP32" t="n">
-        <v>53973</v>
-      </c>
-      <c r="AQ32" t="inlineStr"/>
+      <c r="AQ32" t="n">
+        <v>44392</v>
+      </c>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="inlineStr"/>
@@ -5365,7 +5462,8 @@
       <c r="AZ32" t="inlineStr"/>
       <c r="BA32" t="inlineStr"/>
       <c r="BB32" t="inlineStr"/>
-      <c r="BC32" t="n">
+      <c r="BC32" t="inlineStr"/>
+      <c r="BD32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5481,24 +5579,26 @@
         <v>1</v>
       </c>
       <c r="AK33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL33" t="n">
         <v>5400</v>
       </c>
-      <c r="AL33" t="n">
-        <v>7976</v>
-      </c>
       <c r="AM33" t="n">
+        <v>746</v>
+      </c>
+      <c r="AN33" t="n">
         <v>123503</v>
       </c>
-      <c r="AN33" t="n">
-        <v>8278</v>
-      </c>
       <c r="AO33" t="n">
+        <v>6240</v>
+      </c>
+      <c r="AP33" t="n">
         <v>618742</v>
       </c>
-      <c r="AP33" t="n">
-        <v>3685</v>
-      </c>
-      <c r="AQ33" t="inlineStr"/>
+      <c r="AQ33" t="n">
+        <v>440</v>
+      </c>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
       <c r="AT33" t="inlineStr"/>
@@ -5510,7 +5610,8 @@
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
       <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="n">
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5626,48 +5727,51 @@
         <v>1</v>
       </c>
       <c r="AK34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL34" t="n">
         <v>21600</v>
       </c>
-      <c r="AL34" t="n">
-        <v>5405</v>
-      </c>
       <c r="AM34" t="n">
+        <v>1500</v>
+      </c>
+      <c r="AN34" t="n">
         <v>110927</v>
       </c>
-      <c r="AN34" t="n">
-        <v>15233</v>
-      </c>
       <c r="AO34" t="n">
+        <v>6706</v>
+      </c>
+      <c r="AP34" t="n">
         <v>245506</v>
       </c>
-      <c r="AP34" t="n">
-        <v>14015</v>
-      </c>
       <c r="AQ34" t="n">
+        <v>22570</v>
+      </c>
+      <c r="AR34" t="n">
         <v>441412</v>
       </c>
-      <c r="AR34" t="n">
-        <v>14857</v>
-      </c>
       <c r="AS34" t="n">
+        <v>20385</v>
+      </c>
+      <c r="AT34" t="n">
         <v>1629155</v>
       </c>
-      <c r="AT34" t="n">
-        <v>0</v>
-      </c>
       <c r="AU34" t="n">
+        <v>2503</v>
+      </c>
+      <c r="AV34" t="n">
         <v>3043977</v>
       </c>
-      <c r="AV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW34" t="inlineStr"/>
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
       <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="inlineStr"/>
       <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr"/>
       <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="n">
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5783,30 +5887,32 @@
         <v>1</v>
       </c>
       <c r="AK35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL35" t="n">
         <v>1800</v>
       </c>
-      <c r="AL35" t="n">
-        <v>38449</v>
-      </c>
       <c r="AM35" t="n">
+        <v>10958</v>
+      </c>
+      <c r="AN35" t="n">
         <v>19712</v>
       </c>
-      <c r="AN35" t="n">
-        <v>38410</v>
-      </c>
       <c r="AO35" t="n">
+        <v>33449</v>
+      </c>
+      <c r="AP35" t="n">
         <v>344059</v>
       </c>
-      <c r="AP35" t="n">
-        <v>72268</v>
-      </c>
       <c r="AQ35" t="n">
+        <v>79391</v>
+      </c>
+      <c r="AR35" t="n">
         <v>1295845</v>
       </c>
-      <c r="AR35" t="n">
-        <v>36418</v>
-      </c>
-      <c r="AS35" t="inlineStr"/>
+      <c r="AS35" t="n">
+        <v>77707</v>
+      </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="inlineStr"/>
@@ -5816,7 +5922,8 @@
       <c r="AZ35" t="inlineStr"/>
       <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="n">
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5932,48 +6039,51 @@
         <v>1</v>
       </c>
       <c r="AK36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL36" t="n">
         <v>10800</v>
       </c>
-      <c r="AL36" t="n">
-        <v>46559</v>
-      </c>
       <c r="AM36" t="n">
+        <v>15345</v>
+      </c>
+      <c r="AN36" t="n">
         <v>75149</v>
       </c>
-      <c r="AN36" t="n">
-        <v>48732</v>
-      </c>
       <c r="AO36" t="n">
+        <v>21633</v>
+      </c>
+      <c r="AP36" t="n">
         <v>398850</v>
       </c>
-      <c r="AP36" t="n">
-        <v>36650</v>
-      </c>
       <c r="AQ36" t="n">
+        <v>22328</v>
+      </c>
+      <c r="AR36" t="n">
         <v>916617</v>
       </c>
-      <c r="AR36" t="n">
-        <v>19200</v>
-      </c>
       <c r="AS36" t="n">
+        <v>12735</v>
+      </c>
+      <c r="AT36" t="n">
         <v>1435977</v>
       </c>
-      <c r="AT36" t="n">
-        <v>8759</v>
-      </c>
       <c r="AU36" t="n">
+        <v>14406</v>
+      </c>
+      <c r="AV36" t="n">
         <v>2129285</v>
       </c>
-      <c r="AV36" t="n">
-        <v>228</v>
-      </c>
-      <c r="AW36" t="inlineStr"/>
+      <c r="AW36" t="n">
+        <v>4432</v>
+      </c>
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="inlineStr"/>
       <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr"/>
       <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="n">
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6089,36 +6199,38 @@
         <v>1</v>
       </c>
       <c r="AK37" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL37" t="n">
         <v>10800</v>
       </c>
-      <c r="AL37" t="n">
-        <v>27600</v>
-      </c>
       <c r="AM37" t="n">
+        <v>16707</v>
+      </c>
+      <c r="AN37" t="n">
         <v>142204</v>
       </c>
-      <c r="AN37" t="n">
-        <v>63344</v>
-      </c>
       <c r="AO37" t="n">
+        <v>35116</v>
+      </c>
+      <c r="AP37" t="n">
         <v>316015</v>
       </c>
-      <c r="AP37" t="n">
-        <v>208646</v>
-      </c>
       <c r="AQ37" t="n">
+        <v>4992</v>
+      </c>
+      <c r="AR37" t="n">
         <v>826571</v>
       </c>
-      <c r="AR37" t="n">
-        <v>54405</v>
-      </c>
       <c r="AS37" t="n">
+        <v>26813</v>
+      </c>
+      <c r="AT37" t="n">
         <v>1353212</v>
       </c>
-      <c r="AT37" t="n">
-        <v>11717</v>
-      </c>
-      <c r="AU37" t="inlineStr"/>
+      <c r="AU37" t="n">
+        <v>19245</v>
+      </c>
       <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="inlineStr"/>
@@ -6126,7 +6238,8 @@
       <c r="AZ37" t="inlineStr"/>
       <c r="BA37" t="inlineStr"/>
       <c r="BB37" t="inlineStr"/>
-      <c r="BC37" t="n">
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6242,36 +6355,38 @@
         <v>1</v>
       </c>
       <c r="AK38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL38" t="n">
         <v>7200</v>
       </c>
-      <c r="AL38" t="n">
-        <v>40530</v>
-      </c>
       <c r="AM38" t="n">
+        <v>19961</v>
+      </c>
+      <c r="AN38" t="n">
         <v>56092</v>
       </c>
-      <c r="AN38" t="n">
-        <v>43598</v>
-      </c>
       <c r="AO38" t="n">
+        <v>40092</v>
+      </c>
+      <c r="AP38" t="n">
         <v>560499</v>
       </c>
-      <c r="AP38" t="n">
-        <v>39485</v>
-      </c>
       <c r="AQ38" t="n">
+        <v>66059</v>
+      </c>
+      <c r="AR38" t="n">
         <v>1943395</v>
       </c>
-      <c r="AR38" t="n">
-        <v>8455</v>
-      </c>
       <c r="AS38" t="n">
+        <v>51755</v>
+      </c>
+      <c r="AT38" t="n">
         <v>3771331</v>
       </c>
-      <c r="AT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU38" t="inlineStr"/>
+      <c r="AU38" t="n">
+        <v>10000</v>
+      </c>
       <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
@@ -6279,7 +6394,8 @@
       <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr"/>
       <c r="BB38" t="inlineStr"/>
-      <c r="BC38" t="n">
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6395,36 +6511,38 @@
         <v>1</v>
       </c>
       <c r="AK39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL39" t="n">
         <v>3600</v>
       </c>
-      <c r="AL39" t="n">
-        <v>16117</v>
-      </c>
       <c r="AM39" t="n">
+        <v>4386</v>
+      </c>
+      <c r="AN39" t="n">
         <v>56913</v>
       </c>
-      <c r="AN39" t="n">
-        <v>22588</v>
-      </c>
       <c r="AO39" t="n">
+        <v>10710</v>
+      </c>
+      <c r="AP39" t="n">
         <v>488091</v>
       </c>
-      <c r="AP39" t="n">
-        <v>23625</v>
-      </c>
       <c r="AQ39" t="n">
+        <v>30637</v>
+      </c>
+      <c r="AR39" t="n">
         <v>1092583</v>
       </c>
-      <c r="AR39" t="n">
-        <v>13695</v>
-      </c>
       <c r="AS39" t="n">
+        <v>33686</v>
+      </c>
+      <c r="AT39" t="n">
         <v>1873555</v>
       </c>
-      <c r="AT39" t="n">
-        <v>4796</v>
-      </c>
-      <c r="AU39" t="inlineStr"/>
+      <c r="AU39" t="n">
+        <v>28862</v>
+      </c>
       <c r="AV39" t="inlineStr"/>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
@@ -6432,7 +6550,8 @@
       <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="inlineStr"/>
-      <c r="BC39" t="n">
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6548,52 +6667,55 @@
         <v>1</v>
       </c>
       <c r="AK40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL40" t="n">
         <v>7200</v>
       </c>
-      <c r="AL40" t="n">
-        <v>33279</v>
-      </c>
       <c r="AM40" t="n">
+        <v>16139</v>
+      </c>
+      <c r="AN40" t="n">
         <v>105034</v>
       </c>
-      <c r="AN40" t="n">
-        <v>44046</v>
-      </c>
       <c r="AO40" t="n">
+        <v>28012</v>
+      </c>
+      <c r="AP40" t="n">
         <v>152989</v>
       </c>
-      <c r="AP40" t="n">
-        <v>41906</v>
-      </c>
       <c r="AQ40" t="n">
+        <v>45743</v>
+      </c>
+      <c r="AR40" t="n">
         <v>490562</v>
       </c>
-      <c r="AR40" t="n">
-        <v>39458</v>
-      </c>
       <c r="AS40" t="n">
+        <v>63043</v>
+      </c>
+      <c r="AT40" t="n">
         <v>1026043</v>
       </c>
-      <c r="AT40" t="n">
-        <v>13163</v>
-      </c>
       <c r="AU40" t="n">
+        <v>127535</v>
+      </c>
+      <c r="AV40" t="n">
         <v>1703260</v>
       </c>
-      <c r="AV40" t="n">
-        <v>5997</v>
-      </c>
       <c r="AW40" t="n">
+        <v>115761</v>
+      </c>
+      <c r="AX40" t="n">
         <v>3510348</v>
       </c>
-      <c r="AX40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY40" t="inlineStr"/>
+      <c r="AY40" t="n">
+        <v>8307</v>
+      </c>
       <c r="AZ40" t="inlineStr"/>
       <c r="BA40" t="inlineStr"/>
       <c r="BB40" t="inlineStr"/>
-      <c r="BC40" t="n">
+      <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6709,48 +6831,51 @@
         <v>1</v>
       </c>
       <c r="AK41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL41" t="n">
         <v>3600</v>
       </c>
-      <c r="AL41" t="n">
-        <v>25248</v>
-      </c>
       <c r="AM41" t="n">
+        <v>4401</v>
+      </c>
+      <c r="AN41" t="n">
         <v>42061</v>
       </c>
-      <c r="AN41" t="n">
-        <v>29761</v>
-      </c>
       <c r="AO41" t="n">
+        <v>16232</v>
+      </c>
+      <c r="AP41" t="n">
         <v>216371</v>
       </c>
-      <c r="AP41" t="n">
-        <v>27649</v>
-      </c>
       <c r="AQ41" t="n">
+        <v>34542</v>
+      </c>
+      <c r="AR41" t="n">
         <v>734734</v>
       </c>
-      <c r="AR41" t="n">
-        <v>11397</v>
-      </c>
       <c r="AS41" t="n">
+        <v>39826</v>
+      </c>
+      <c r="AT41" t="n">
         <v>1251423</v>
       </c>
-      <c r="AT41" t="n">
-        <v>3837</v>
-      </c>
       <c r="AU41" t="n">
+        <v>97468</v>
+      </c>
+      <c r="AV41" t="n">
         <v>2376268</v>
       </c>
-      <c r="AV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW41" t="inlineStr"/>
+      <c r="AW41" t="n">
+        <v>51033</v>
+      </c>
       <c r="AX41" t="inlineStr"/>
       <c r="AY41" t="inlineStr"/>
       <c r="AZ41" t="inlineStr"/>
       <c r="BA41" t="inlineStr"/>
       <c r="BB41" t="inlineStr"/>
-      <c r="BC41" t="n">
+      <c r="BC41" t="inlineStr"/>
+      <c r="BD41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6866,30 +6991,32 @@
         <v>1</v>
       </c>
       <c r="AK42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL42" t="n">
         <v>3600</v>
       </c>
-      <c r="AL42" t="n">
-        <v>23783</v>
-      </c>
       <c r="AM42" t="n">
+        <v>5169</v>
+      </c>
+      <c r="AN42" t="n">
         <v>21382</v>
       </c>
-      <c r="AN42" t="n">
-        <v>23037</v>
-      </c>
       <c r="AO42" t="n">
+        <v>6081</v>
+      </c>
+      <c r="AP42" t="n">
         <v>431172</v>
       </c>
-      <c r="AP42" t="n">
-        <v>22946</v>
-      </c>
       <c r="AQ42" t="n">
+        <v>19447</v>
+      </c>
+      <c r="AR42" t="n">
         <v>2058840</v>
       </c>
-      <c r="AR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS42" t="inlineStr"/>
+      <c r="AS42" t="n">
+        <v>2735</v>
+      </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AU42" t="inlineStr"/>
       <c r="AV42" t="inlineStr"/>
@@ -6899,7 +7026,8 @@
       <c r="AZ42" t="inlineStr"/>
       <c r="BA42" t="inlineStr"/>
       <c r="BB42" t="inlineStr"/>
-      <c r="BC42" t="n">
+      <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7015,30 +7143,32 @@
         <v>1</v>
       </c>
       <c r="AK43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL43" t="n">
         <v>7200</v>
       </c>
-      <c r="AL43" t="n">
-        <v>20899</v>
-      </c>
       <c r="AM43" t="n">
+        <v>12949</v>
+      </c>
+      <c r="AN43" t="n">
         <v>93380</v>
       </c>
-      <c r="AN43" t="n">
-        <v>18454</v>
-      </c>
       <c r="AO43" t="n">
+        <v>20132</v>
+      </c>
+      <c r="AP43" t="n">
         <v>1132337</v>
       </c>
-      <c r="AP43" t="n">
-        <v>5904</v>
-      </c>
       <c r="AQ43" t="n">
+        <v>3744</v>
+      </c>
+      <c r="AR43" t="n">
         <v>2773900</v>
       </c>
-      <c r="AR43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS43" t="inlineStr"/>
+      <c r="AS43" t="n">
+        <v>625</v>
+      </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AU43" t="inlineStr"/>
       <c r="AV43" t="inlineStr"/>
@@ -7048,7 +7178,8 @@
       <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="inlineStr"/>
       <c r="BB43" t="inlineStr"/>
-      <c r="BC43" t="n">
+      <c r="BC43" t="inlineStr"/>
+      <c r="BD43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7164,30 +7295,32 @@
         <v>1</v>
       </c>
       <c r="AK44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL44" t="n">
         <v>32400</v>
       </c>
-      <c r="AL44" t="n">
-        <v>52090</v>
-      </c>
       <c r="AM44" t="n">
+        <v>20931</v>
+      </c>
+      <c r="AN44" t="n">
         <v>120550</v>
       </c>
-      <c r="AN44" t="n">
-        <v>55393</v>
-      </c>
       <c r="AO44" t="n">
+        <v>28785</v>
+      </c>
+      <c r="AP44" t="n">
         <v>209091</v>
       </c>
-      <c r="AP44" t="n">
-        <v>41346</v>
-      </c>
       <c r="AQ44" t="n">
+        <v>23317</v>
+      </c>
+      <c r="AR44" t="n">
         <v>642988</v>
       </c>
-      <c r="AR44" t="n">
-        <v>15064</v>
-      </c>
-      <c r="AS44" t="inlineStr"/>
+      <c r="AS44" t="n">
+        <v>21325</v>
+      </c>
       <c r="AT44" t="inlineStr"/>
       <c r="AU44" t="inlineStr"/>
       <c r="AV44" t="inlineStr"/>
@@ -7197,7 +7330,8 @@
       <c r="AZ44" t="inlineStr"/>
       <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="inlineStr"/>
-      <c r="BC44" t="n">
+      <c r="BC44" t="inlineStr"/>
+      <c r="BD44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7313,48 +7447,51 @@
         <v>1</v>
       </c>
       <c r="AK45" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL45" t="n">
         <v>21600</v>
       </c>
-      <c r="AL45" t="n">
-        <v>44231</v>
-      </c>
       <c r="AM45" t="n">
+        <v>26140</v>
+      </c>
+      <c r="AN45" t="n">
         <v>112267</v>
       </c>
-      <c r="AN45" t="n">
-        <v>41749</v>
-      </c>
       <c r="AO45" t="n">
+        <v>39633</v>
+      </c>
+      <c r="AP45" t="n">
         <v>198767</v>
       </c>
-      <c r="AP45" t="n">
-        <v>40058</v>
-      </c>
       <c r="AQ45" t="n">
+        <v>58778</v>
+      </c>
+      <c r="AR45" t="n">
         <v>722957</v>
       </c>
-      <c r="AR45" t="n">
-        <v>36100</v>
-      </c>
       <c r="AS45" t="n">
+        <v>81670</v>
+      </c>
+      <c r="AT45" t="n">
         <v>1929737</v>
       </c>
-      <c r="AT45" t="n">
-        <v>10542</v>
-      </c>
       <c r="AU45" t="n">
+        <v>58161</v>
+      </c>
+      <c r="AV45" t="n">
         <v>13425513</v>
       </c>
-      <c r="AV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW45" t="inlineStr"/>
+      <c r="AW45" t="n">
+        <v>57</v>
+      </c>
       <c r="AX45" t="inlineStr"/>
       <c r="AY45" t="inlineStr"/>
       <c r="AZ45" t="inlineStr"/>
       <c r="BA45" t="inlineStr"/>
       <c r="BB45" t="inlineStr"/>
-      <c r="BC45" t="n">
+      <c r="BC45" t="inlineStr"/>
+      <c r="BD45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7470,30 +7607,32 @@
         <v>1</v>
       </c>
       <c r="AK46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL46" t="n">
         <v>7200</v>
       </c>
-      <c r="AL46" t="n">
-        <v>13981</v>
-      </c>
       <c r="AM46" t="n">
+        <v>6480</v>
+      </c>
+      <c r="AN46" t="n">
         <v>54663</v>
       </c>
-      <c r="AN46" t="n">
-        <v>13899</v>
-      </c>
       <c r="AO46" t="n">
+        <v>9541</v>
+      </c>
+      <c r="AP46" t="n">
         <v>1001261</v>
       </c>
-      <c r="AP46" t="n">
-        <v>6154</v>
-      </c>
       <c r="AQ46" t="n">
+        <v>38180</v>
+      </c>
+      <c r="AR46" t="n">
         <v>1431445</v>
       </c>
-      <c r="AR46" t="n">
-        <v>2323</v>
-      </c>
-      <c r="AS46" t="inlineStr"/>
+      <c r="AS46" t="n">
+        <v>34625</v>
+      </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AU46" t="inlineStr"/>
       <c r="AV46" t="inlineStr"/>
@@ -7503,7 +7642,8 @@
       <c r="AZ46" t="inlineStr"/>
       <c r="BA46" t="inlineStr"/>
       <c r="BB46" t="inlineStr"/>
-      <c r="BC46" t="n">
+      <c r="BC46" t="inlineStr"/>
+      <c r="BD46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7619,24 +7759,26 @@
         <v>1</v>
       </c>
       <c r="AK47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL47" t="n">
         <v>3600</v>
       </c>
-      <c r="AL47" t="n">
-        <v>74163</v>
-      </c>
       <c r="AM47" t="n">
+        <v>37663</v>
+      </c>
+      <c r="AN47" t="n">
         <v>531439</v>
       </c>
-      <c r="AN47" t="n">
-        <v>61094</v>
-      </c>
       <c r="AO47" t="n">
+        <v>50652</v>
+      </c>
+      <c r="AP47" t="n">
         <v>1745759</v>
       </c>
-      <c r="AP47" t="n">
-        <v>35725</v>
-      </c>
-      <c r="AQ47" t="inlineStr"/>
+      <c r="AQ47" t="n">
+        <v>40598</v>
+      </c>
       <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
       <c r="AT47" t="inlineStr"/>
@@ -7648,7 +7790,8 @@
       <c r="AZ47" t="inlineStr"/>
       <c r="BA47" t="inlineStr"/>
       <c r="BB47" t="inlineStr"/>
-      <c r="BC47" t="n">
+      <c r="BC47" t="inlineStr"/>
+      <c r="BD47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7764,30 +7907,32 @@
         <v>1</v>
       </c>
       <c r="AK48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL48" t="n">
         <v>7200</v>
       </c>
-      <c r="AL48" t="n">
-        <v>19340</v>
-      </c>
       <c r="AM48" t="n">
+        <v>5848</v>
+      </c>
+      <c r="AN48" t="n">
         <v>74965</v>
       </c>
-      <c r="AN48" t="n">
-        <v>20850</v>
-      </c>
       <c r="AO48" t="n">
+        <v>9150</v>
+      </c>
+      <c r="AP48" t="n">
         <v>349550</v>
       </c>
-      <c r="AP48" t="n">
-        <v>19186</v>
-      </c>
       <c r="AQ48" t="n">
+        <v>18251</v>
+      </c>
+      <c r="AR48" t="n">
         <v>3441678</v>
       </c>
-      <c r="AR48" t="n">
-        <v>379</v>
-      </c>
-      <c r="AS48" t="inlineStr"/>
+      <c r="AS48" t="n">
+        <v>633</v>
+      </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AU48" t="inlineStr"/>
       <c r="AV48" t="inlineStr"/>
@@ -7797,7 +7942,8 @@
       <c r="AZ48" t="inlineStr"/>
       <c r="BA48" t="inlineStr"/>
       <c r="BB48" t="inlineStr"/>
-      <c r="BC48" t="n">
+      <c r="BC48" t="inlineStr"/>
+      <c r="BD48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7913,30 +8059,32 @@
         <v>1</v>
       </c>
       <c r="AK49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL49" t="n">
         <v>3600</v>
       </c>
-      <c r="AL49" t="n">
-        <v>37213</v>
-      </c>
       <c r="AM49" t="n">
+        <v>4473</v>
+      </c>
+      <c r="AN49" t="n">
         <v>46299</v>
       </c>
-      <c r="AN49" t="n">
-        <v>49586</v>
-      </c>
       <c r="AO49" t="n">
+        <v>30752</v>
+      </c>
+      <c r="AP49" t="n">
         <v>230275</v>
       </c>
-      <c r="AP49" t="n">
-        <v>46998</v>
-      </c>
       <c r="AQ49" t="n">
+        <v>43374</v>
+      </c>
+      <c r="AR49" t="n">
         <v>834205</v>
       </c>
-      <c r="AR49" t="n">
-        <v>22914</v>
-      </c>
-      <c r="AS49" t="inlineStr"/>
+      <c r="AS49" t="n">
+        <v>69692</v>
+      </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AU49" t="inlineStr"/>
       <c r="AV49" t="inlineStr"/>
@@ -7946,7 +8094,8 @@
       <c r="AZ49" t="inlineStr"/>
       <c r="BA49" t="inlineStr"/>
       <c r="BB49" t="inlineStr"/>
-      <c r="BC49" t="n">
+      <c r="BC49" t="inlineStr"/>
+      <c r="BD49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8062,30 +8211,32 @@
         <v>1</v>
       </c>
       <c r="AK50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL50" t="n">
         <v>36000</v>
       </c>
-      <c r="AL50" t="n">
-        <v>13586</v>
-      </c>
       <c r="AM50" t="n">
+        <v>3955</v>
+      </c>
+      <c r="AN50" t="n">
         <v>95712</v>
       </c>
-      <c r="AN50" t="n">
-        <v>11109</v>
-      </c>
       <c r="AO50" t="n">
+        <v>4024</v>
+      </c>
+      <c r="AP50" t="n">
         <v>451514</v>
       </c>
-      <c r="AP50" t="n">
-        <v>8783</v>
-      </c>
       <c r="AQ50" t="n">
+        <v>2946</v>
+      </c>
+      <c r="AR50" t="n">
         <v>961000</v>
       </c>
-      <c r="AR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS50" t="inlineStr"/>
+      <c r="AS50" t="n">
+        <v>189</v>
+      </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AU50" t="inlineStr"/>
       <c r="AV50" t="inlineStr"/>
@@ -8095,7 +8246,8 @@
       <c r="AZ50" t="inlineStr"/>
       <c r="BA50" t="inlineStr"/>
       <c r="BB50" t="inlineStr"/>
-      <c r="BC50" t="n">
+      <c r="BC50" t="inlineStr"/>
+      <c r="BD50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8211,24 +8363,26 @@
         <v>1</v>
       </c>
       <c r="AK51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL51" t="n">
         <v>34200</v>
       </c>
-      <c r="AL51" t="n">
-        <v>9145</v>
-      </c>
       <c r="AM51" t="n">
+        <v>8814</v>
+      </c>
+      <c r="AN51" t="n">
         <v>176774</v>
       </c>
-      <c r="AN51" t="n">
-        <v>8317</v>
-      </c>
       <c r="AO51" t="n">
+        <v>12524</v>
+      </c>
+      <c r="AP51" t="n">
         <v>1048743</v>
       </c>
-      <c r="AP51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ51" t="inlineStr"/>
+      <c r="AQ51" t="n">
+        <v>20041</v>
+      </c>
       <c r="AR51" t="inlineStr"/>
       <c r="AS51" t="inlineStr"/>
       <c r="AT51" t="inlineStr"/>
@@ -8240,7 +8394,8 @@
       <c r="AZ51" t="inlineStr"/>
       <c r="BA51" t="inlineStr"/>
       <c r="BB51" t="inlineStr"/>
-      <c r="BC51" t="n">
+      <c r="BC51" t="inlineStr"/>
+      <c r="BD51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8356,36 +8511,38 @@
         <v>1</v>
       </c>
       <c r="AK52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL52" t="n">
         <v>18000</v>
       </c>
-      <c r="AL52" t="n">
-        <v>52431</v>
-      </c>
       <c r="AM52" t="n">
+        <v>16801</v>
+      </c>
+      <c r="AN52" t="n">
         <v>156692</v>
       </c>
-      <c r="AN52" t="n">
-        <v>49955</v>
-      </c>
       <c r="AO52" t="n">
+        <v>27870</v>
+      </c>
+      <c r="AP52" t="n">
         <v>1366631</v>
       </c>
-      <c r="AP52" t="n">
-        <v>19990</v>
-      </c>
       <c r="AQ52" t="n">
+        <v>13138</v>
+      </c>
+      <c r="AR52" t="n">
         <v>1970211</v>
       </c>
-      <c r="AR52" t="n">
-        <v>8118</v>
-      </c>
       <c r="AS52" t="n">
+        <v>6400</v>
+      </c>
+      <c r="AT52" t="n">
         <v>4489359</v>
       </c>
-      <c r="AT52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU52" t="inlineStr"/>
+      <c r="AU52" t="n">
+        <v>0</v>
+      </c>
       <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr"/>
@@ -8393,7 +8550,8 @@
       <c r="AZ52" t="inlineStr"/>
       <c r="BA52" t="inlineStr"/>
       <c r="BB52" t="inlineStr"/>
-      <c r="BC52" t="n">
+      <c r="BC52" t="inlineStr"/>
+      <c r="BD52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8509,48 +8667,51 @@
         <v>1</v>
       </c>
       <c r="AK53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL53" t="n">
         <v>14400</v>
       </c>
-      <c r="AL53" t="n">
-        <v>17975</v>
-      </c>
       <c r="AM53" t="n">
+        <v>7036</v>
+      </c>
+      <c r="AN53" t="n">
         <v>176054</v>
       </c>
-      <c r="AN53" t="n">
-        <v>54465</v>
-      </c>
       <c r="AO53" t="n">
+        <v>45266</v>
+      </c>
+      <c r="AP53" t="n">
         <v>1040845</v>
       </c>
-      <c r="AP53" t="n">
-        <v>32393</v>
-      </c>
       <c r="AQ53" t="n">
+        <v>79961</v>
+      </c>
+      <c r="AR53" t="n">
         <v>2175618</v>
       </c>
-      <c r="AR53" t="n">
-        <v>10219</v>
-      </c>
       <c r="AS53" t="n">
+        <v>70743</v>
+      </c>
+      <c r="AT53" t="n">
         <v>6389871</v>
       </c>
-      <c r="AT53" t="n">
-        <v>0</v>
-      </c>
       <c r="AU53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV53" t="n">
         <v>16327159</v>
       </c>
-      <c r="AV53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW53" t="inlineStr"/>
+      <c r="AW53" t="n">
+        <v>0</v>
+      </c>
       <c r="AX53" t="inlineStr"/>
       <c r="AY53" t="inlineStr"/>
       <c r="AZ53" t="inlineStr"/>
       <c r="BA53" t="inlineStr"/>
       <c r="BB53" t="inlineStr"/>
-      <c r="BC53" t="n">
+      <c r="BC53" t="inlineStr"/>
+      <c r="BD53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8666,30 +8827,32 @@
         <v>1</v>
       </c>
       <c r="AK54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL54" t="n">
         <v>7200</v>
       </c>
-      <c r="AL54" t="n">
-        <v>22144</v>
-      </c>
       <c r="AM54" t="n">
+        <v>16764</v>
+      </c>
+      <c r="AN54" t="n">
         <v>107258</v>
       </c>
-      <c r="AN54" t="n">
-        <v>21393</v>
-      </c>
       <c r="AO54" t="n">
+        <v>22536</v>
+      </c>
+      <c r="AP54" t="n">
         <v>955504</v>
       </c>
-      <c r="AP54" t="n">
-        <v>8373</v>
-      </c>
       <c r="AQ54" t="n">
+        <v>52101</v>
+      </c>
+      <c r="AR54" t="n">
         <v>2789798</v>
       </c>
-      <c r="AR54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS54" t="inlineStr"/>
+      <c r="AS54" t="n">
+        <v>10340</v>
+      </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AU54" t="inlineStr"/>
       <c r="AV54" t="inlineStr"/>
@@ -8699,7 +8862,8 @@
       <c r="AZ54" t="inlineStr"/>
       <c r="BA54" t="inlineStr"/>
       <c r="BB54" t="inlineStr"/>
-      <c r="BC54" t="n">
+      <c r="BC54" t="inlineStr"/>
+      <c r="BD54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8815,30 +8979,32 @@
         <v>1</v>
       </c>
       <c r="AK55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL55" t="n">
         <v>3600</v>
       </c>
-      <c r="AL55" t="n">
-        <v>41820</v>
-      </c>
       <c r="AM55" t="n">
+        <v>12628</v>
+      </c>
+      <c r="AN55" t="n">
         <v>58410</v>
       </c>
-      <c r="AN55" t="n">
-        <v>53987</v>
-      </c>
       <c r="AO55" t="n">
+        <v>16033</v>
+      </c>
+      <c r="AP55" t="n">
         <v>678832</v>
       </c>
-      <c r="AP55" t="n">
-        <v>26683</v>
-      </c>
       <c r="AQ55" t="n">
+        <v>24644</v>
+      </c>
+      <c r="AR55" t="n">
         <v>1442772</v>
       </c>
-      <c r="AR55" t="n">
-        <v>11914</v>
-      </c>
-      <c r="AS55" t="inlineStr"/>
+      <c r="AS55" t="n">
+        <v>26006</v>
+      </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AU55" t="inlineStr"/>
       <c r="AV55" t="inlineStr"/>
@@ -8848,7 +9014,8 @@
       <c r="AZ55" t="inlineStr"/>
       <c r="BA55" t="inlineStr"/>
       <c r="BB55" t="inlineStr"/>
-      <c r="BC55" t="n">
+      <c r="BC55" t="inlineStr"/>
+      <c r="BD55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8964,24 +9131,26 @@
         <v>1</v>
       </c>
       <c r="AK56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL56" t="n">
         <v>3600</v>
       </c>
-      <c r="AL56" t="n">
-        <v>43195</v>
-      </c>
       <c r="AM56" t="n">
+        <v>15417</v>
+      </c>
+      <c r="AN56" t="n">
         <v>143772</v>
       </c>
-      <c r="AN56" t="n">
-        <v>48361</v>
-      </c>
       <c r="AO56" t="n">
+        <v>37897</v>
+      </c>
+      <c r="AP56" t="n">
         <v>503086</v>
       </c>
-      <c r="AP56" t="n">
-        <v>44779</v>
-      </c>
-      <c r="AQ56" t="inlineStr"/>
+      <c r="AQ56" t="n">
+        <v>47195</v>
+      </c>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
       <c r="AT56" t="inlineStr"/>
@@ -8993,7 +9162,8 @@
       <c r="AZ56" t="inlineStr"/>
       <c r="BA56" t="inlineStr"/>
       <c r="BB56" t="inlineStr"/>
-      <c r="BC56" t="n">
+      <c r="BC56" t="inlineStr"/>
+      <c r="BD56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9109,60 +9279,63 @@
         <v>1</v>
       </c>
       <c r="AK57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL57" t="n">
         <v>5400</v>
       </c>
-      <c r="AL57" t="n">
-        <v>35656</v>
-      </c>
       <c r="AM57" t="n">
+        <v>29701</v>
+      </c>
+      <c r="AN57" t="n">
         <v>32505</v>
       </c>
-      <c r="AN57" t="n">
-        <v>31705</v>
-      </c>
       <c r="AO57" t="n">
+        <v>32460</v>
+      </c>
+      <c r="AP57" t="n">
         <v>91939</v>
       </c>
-      <c r="AP57" t="n">
-        <v>28310</v>
-      </c>
       <c r="AQ57" t="n">
+        <v>34017</v>
+      </c>
+      <c r="AR57" t="n">
         <v>188947</v>
       </c>
-      <c r="AR57" t="n">
-        <v>21018</v>
-      </c>
       <c r="AS57" t="n">
+        <v>28165</v>
+      </c>
+      <c r="AT57" t="n">
         <v>355554</v>
       </c>
-      <c r="AT57" t="n">
-        <v>15060</v>
-      </c>
       <c r="AU57" t="n">
+        <v>21854</v>
+      </c>
+      <c r="AV57" t="n">
         <v>525668</v>
       </c>
-      <c r="AV57" t="n">
-        <v>9906</v>
-      </c>
       <c r="AW57" t="n">
+        <v>25712</v>
+      </c>
+      <c r="AX57" t="n">
         <v>874011</v>
       </c>
-      <c r="AX57" t="n">
-        <v>0</v>
-      </c>
       <c r="AY57" t="n">
+        <v>3504</v>
+      </c>
+      <c r="AZ57" t="n">
         <v>1043905</v>
       </c>
-      <c r="AZ57" t="n">
-        <v>145</v>
-      </c>
       <c r="BA57" t="n">
+        <v>656</v>
+      </c>
+      <c r="BB57" t="n">
         <v>1647423</v>
       </c>
-      <c r="BB57" t="n">
-        <v>0</v>
-      </c>
       <c r="BC57" t="n">
+        <v>75</v>
+      </c>
+      <c r="BD57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9278,24 +9451,26 @@
         <v>1</v>
       </c>
       <c r="AK58" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AL58" t="n">
         <v>900</v>
       </c>
-      <c r="AL58" t="n">
-        <v>26198</v>
-      </c>
       <c r="AM58" t="n">
+        <v>8044</v>
+      </c>
+      <c r="AN58" t="n">
         <v>52617</v>
       </c>
-      <c r="AN58" t="n">
-        <v>41315</v>
-      </c>
       <c r="AO58" t="n">
+        <v>8452</v>
+      </c>
+      <c r="AP58" t="n">
         <v>1106297</v>
       </c>
-      <c r="AP58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ58" t="inlineStr"/>
+      <c r="AQ58" t="n">
+        <v>9374</v>
+      </c>
       <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr"/>
       <c r="AT58" t="inlineStr"/>
@@ -9307,7 +9482,8 @@
       <c r="AZ58" t="inlineStr"/>
       <c r="BA58" t="inlineStr"/>
       <c r="BB58" t="inlineStr"/>
-      <c r="BC58" t="n">
+      <c r="BC58" t="inlineStr"/>
+      <c r="BD58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9423,24 +9599,26 @@
         <v>1</v>
       </c>
       <c r="AK59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL59" t="n">
         <v>36000</v>
       </c>
-      <c r="AL59" t="n">
-        <v>67858</v>
-      </c>
       <c r="AM59" t="n">
+        <v>11479</v>
+      </c>
+      <c r="AN59" t="n">
         <v>77976</v>
       </c>
-      <c r="AN59" t="n">
-        <v>68579</v>
-      </c>
       <c r="AO59" t="n">
+        <v>18889</v>
+      </c>
+      <c r="AP59" t="n">
         <v>218824</v>
       </c>
-      <c r="AP59" t="n">
-        <v>57677</v>
-      </c>
-      <c r="AQ59" t="inlineStr"/>
+      <c r="AQ59" t="n">
+        <v>16984</v>
+      </c>
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr"/>
       <c r="AT59" t="inlineStr"/>
@@ -9452,7 +9630,8 @@
       <c r="AZ59" t="inlineStr"/>
       <c r="BA59" t="inlineStr"/>
       <c r="BB59" t="inlineStr"/>
-      <c r="BC59" t="n">
+      <c r="BC59" t="inlineStr"/>
+      <c r="BD59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9568,24 +9747,26 @@
         <v>1</v>
       </c>
       <c r="AK60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL60" t="n">
         <v>3600</v>
       </c>
-      <c r="AL60" t="n">
-        <v>26891</v>
-      </c>
       <c r="AM60" t="n">
+        <v>1396</v>
+      </c>
+      <c r="AN60" t="n">
         <v>166001</v>
       </c>
-      <c r="AN60" t="n">
-        <v>21224</v>
-      </c>
       <c r="AO60" t="n">
+        <v>3226</v>
+      </c>
+      <c r="AP60" t="n">
         <v>857187</v>
       </c>
-      <c r="AP60" t="n">
-        <v>16409</v>
-      </c>
-      <c r="AQ60" t="inlineStr"/>
+      <c r="AQ60" t="n">
+        <v>1488</v>
+      </c>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
       <c r="AT60" t="inlineStr"/>
@@ -9597,7 +9778,8 @@
       <c r="AZ60" t="inlineStr"/>
       <c r="BA60" t="inlineStr"/>
       <c r="BB60" t="inlineStr"/>
-      <c r="BC60" t="n">
+      <c r="BC60" t="inlineStr"/>
+      <c r="BD60" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9713,60 +9895,63 @@
         <v>1</v>
       </c>
       <c r="AK61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL61" t="n">
         <v>1800</v>
       </c>
-      <c r="AL61" t="n">
-        <v>38762</v>
-      </c>
       <c r="AM61" t="n">
+        <v>33604</v>
+      </c>
+      <c r="AN61" t="n">
         <v>85414</v>
       </c>
-      <c r="AN61" t="n">
-        <v>66224</v>
-      </c>
       <c r="AO61" t="n">
+        <v>44899</v>
+      </c>
+      <c r="AP61" t="n">
         <v>176480</v>
       </c>
-      <c r="AP61" t="n">
-        <v>64215</v>
-      </c>
       <c r="AQ61" t="n">
+        <v>40634</v>
+      </c>
+      <c r="AR61" t="n">
         <v>346644</v>
       </c>
-      <c r="AR61" t="n">
-        <v>64458</v>
-      </c>
       <c r="AS61" t="n">
+        <v>39878</v>
+      </c>
+      <c r="AT61" t="n">
         <v>428026</v>
       </c>
-      <c r="AT61" t="n">
-        <v>62895</v>
-      </c>
       <c r="AU61" t="n">
+        <v>37116</v>
+      </c>
+      <c r="AV61" t="n">
         <v>458762</v>
       </c>
-      <c r="AV61" t="n">
-        <v>63492</v>
-      </c>
       <c r="AW61" t="n">
+        <v>39921</v>
+      </c>
+      <c r="AX61" t="n">
         <v>864399</v>
       </c>
-      <c r="AX61" t="n">
-        <v>54492</v>
-      </c>
       <c r="AY61" t="n">
+        <v>33087</v>
+      </c>
+      <c r="AZ61" t="n">
         <v>1059868</v>
       </c>
-      <c r="AZ61" t="n">
-        <v>44671</v>
-      </c>
       <c r="BA61" t="n">
+        <v>22092</v>
+      </c>
+      <c r="BB61" t="n">
         <v>1472438</v>
       </c>
-      <c r="BB61" t="n">
-        <v>24492</v>
-      </c>
       <c r="BC61" t="n">
+        <v>20720</v>
+      </c>
+      <c r="BD61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9882,48 +10067,51 @@
         <v>1</v>
       </c>
       <c r="AK62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL62" t="n">
         <v>1800</v>
       </c>
-      <c r="AL62" t="n">
-        <v>42206</v>
-      </c>
       <c r="AM62" t="n">
+        <v>15164</v>
+      </c>
+      <c r="AN62" t="n">
         <v>23550</v>
       </c>
-      <c r="AN62" t="n">
-        <v>51155</v>
-      </c>
       <c r="AO62" t="n">
+        <v>21082</v>
+      </c>
+      <c r="AP62" t="n">
         <v>93564</v>
       </c>
-      <c r="AP62" t="n">
-        <v>55501</v>
-      </c>
       <c r="AQ62" t="n">
+        <v>53924</v>
+      </c>
+      <c r="AR62" t="n">
         <v>258731</v>
       </c>
-      <c r="AR62" t="n">
-        <v>53730</v>
-      </c>
       <c r="AS62" t="n">
+        <v>69798</v>
+      </c>
+      <c r="AT62" t="n">
         <v>690727</v>
       </c>
-      <c r="AT62" t="n">
-        <v>54880</v>
-      </c>
       <c r="AU62" t="n">
+        <v>89272</v>
+      </c>
+      <c r="AV62" t="n">
         <v>1380998</v>
       </c>
-      <c r="AV62" t="n">
-        <v>32883</v>
-      </c>
-      <c r="AW62" t="inlineStr"/>
+      <c r="AW62" t="n">
+        <v>115006</v>
+      </c>
       <c r="AX62" t="inlineStr"/>
       <c r="AY62" t="inlineStr"/>
       <c r="AZ62" t="inlineStr"/>
       <c r="BA62" t="inlineStr"/>
       <c r="BB62" t="inlineStr"/>
-      <c r="BC62" t="n">
+      <c r="BC62" t="inlineStr"/>
+      <c r="BD62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10039,24 +10227,26 @@
         <v>1</v>
       </c>
       <c r="AK63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL63" t="n">
         <v>10800</v>
       </c>
-      <c r="AL63" t="n">
-        <v>20550</v>
-      </c>
       <c r="AM63" t="n">
+        <v>10197</v>
+      </c>
+      <c r="AN63" t="n">
         <v>65858</v>
       </c>
-      <c r="AN63" t="n">
-        <v>14427</v>
-      </c>
       <c r="AO63" t="n">
+        <v>13043</v>
+      </c>
+      <c r="AP63" t="n">
         <v>650704</v>
       </c>
-      <c r="AP63" t="n">
-        <v>9075</v>
-      </c>
-      <c r="AQ63" t="inlineStr"/>
+      <c r="AQ63" t="n">
+        <v>21970</v>
+      </c>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
       <c r="AT63" t="inlineStr"/>
@@ -10068,7 +10258,8 @@
       <c r="AZ63" t="inlineStr"/>
       <c r="BA63" t="inlineStr"/>
       <c r="BB63" t="inlineStr"/>
-      <c r="BC63" t="n">
+      <c r="BC63" t="inlineStr"/>
+      <c r="BD63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10184,56 +10375,59 @@
         <v>1</v>
       </c>
       <c r="AK64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL64" t="n">
         <v>36000</v>
       </c>
-      <c r="AL64" t="n">
-        <v>10231</v>
-      </c>
       <c r="AM64" t="n">
+        <v>7625</v>
+      </c>
+      <c r="AN64" t="n">
         <v>99942</v>
       </c>
-      <c r="AN64" t="n">
-        <v>11007</v>
-      </c>
       <c r="AO64" t="n">
+        <v>9134</v>
+      </c>
+      <c r="AP64" t="n">
         <v>204732</v>
       </c>
-      <c r="AP64" t="n">
-        <v>35730</v>
-      </c>
       <c r="AQ64" t="n">
+        <v>20963</v>
+      </c>
+      <c r="AR64" t="n">
         <v>533816</v>
       </c>
-      <c r="AR64" t="n">
-        <v>24504</v>
-      </c>
       <c r="AS64" t="n">
+        <v>54349</v>
+      </c>
+      <c r="AT64" t="n">
         <v>977710</v>
       </c>
-      <c r="AT64" t="n">
-        <v>21547</v>
-      </c>
       <c r="AU64" t="n">
+        <v>61937</v>
+      </c>
+      <c r="AV64" t="n">
         <v>1562664</v>
       </c>
-      <c r="AV64" t="n">
-        <v>7331</v>
-      </c>
       <c r="AW64" t="n">
+        <v>49420</v>
+      </c>
+      <c r="AX64" t="n">
         <v>3486045</v>
       </c>
-      <c r="AX64" t="n">
-        <v>43</v>
-      </c>
       <c r="AY64" t="n">
+        <v>117530</v>
+      </c>
+      <c r="AZ64" t="n">
         <v>3520848</v>
       </c>
-      <c r="AZ64" t="n">
-        <v>580</v>
-      </c>
-      <c r="BA64" t="inlineStr"/>
+      <c r="BA64" t="n">
+        <v>47223</v>
+      </c>
       <c r="BB64" t="inlineStr"/>
-      <c r="BC64" t="n">
+      <c r="BC64" t="inlineStr"/>
+      <c r="BD64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10349,48 +10543,51 @@
         <v>1</v>
       </c>
       <c r="AK65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL65" t="n">
         <v>3600</v>
       </c>
-      <c r="AL65" t="n">
-        <v>27984</v>
-      </c>
       <c r="AM65" t="n">
+        <v>7239</v>
+      </c>
+      <c r="AN65" t="n">
         <v>29000</v>
       </c>
-      <c r="AN65" t="n">
-        <v>23168</v>
-      </c>
       <c r="AO65" t="n">
+        <v>4015</v>
+      </c>
+      <c r="AP65" t="n">
         <v>197594</v>
       </c>
-      <c r="AP65" t="n">
-        <v>8939</v>
-      </c>
       <c r="AQ65" t="n">
+        <v>1169</v>
+      </c>
+      <c r="AR65" t="n">
         <v>1123304</v>
       </c>
-      <c r="AR65" t="n">
-        <v>2420</v>
-      </c>
       <c r="AS65" t="n">
+        <v>1736</v>
+      </c>
+      <c r="AT65" t="n">
         <v>2246219</v>
       </c>
-      <c r="AT65" t="n">
-        <v>0</v>
-      </c>
       <c r="AU65" t="n">
+        <v>32</v>
+      </c>
+      <c r="AV65" t="n">
         <v>3458355</v>
       </c>
-      <c r="AV65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW65" t="inlineStr"/>
+      <c r="AW65" t="n">
+        <v>0</v>
+      </c>
       <c r="AX65" t="inlineStr"/>
       <c r="AY65" t="inlineStr"/>
       <c r="AZ65" t="inlineStr"/>
       <c r="BA65" t="inlineStr"/>
       <c r="BB65" t="inlineStr"/>
-      <c r="BC65" t="n">
+      <c r="BC65" t="inlineStr"/>
+      <c r="BD65" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10506,30 +10703,32 @@
         <v>1</v>
       </c>
       <c r="AK66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL66" t="n">
         <v>7200</v>
       </c>
-      <c r="AL66" t="n">
-        <v>80714</v>
-      </c>
       <c r="AM66" t="n">
+        <v>45074</v>
+      </c>
+      <c r="AN66" t="n">
         <v>63760</v>
       </c>
-      <c r="AN66" t="n">
-        <v>81289</v>
-      </c>
       <c r="AO66" t="n">
+        <v>38474</v>
+      </c>
+      <c r="AP66" t="n">
         <v>428011</v>
       </c>
-      <c r="AP66" t="n">
-        <v>76135</v>
-      </c>
       <c r="AQ66" t="n">
+        <v>47084</v>
+      </c>
+      <c r="AR66" t="n">
         <v>1900883</v>
       </c>
-      <c r="AR66" t="n">
-        <v>29411</v>
-      </c>
-      <c r="AS66" t="inlineStr"/>
+      <c r="AS66" t="n">
+        <v>50230</v>
+      </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AU66" t="inlineStr"/>
       <c r="AV66" t="inlineStr"/>
@@ -10539,7 +10738,8 @@
       <c r="AZ66" t="inlineStr"/>
       <c r="BA66" t="inlineStr"/>
       <c r="BB66" t="inlineStr"/>
-      <c r="BC66" t="n">
+      <c r="BC66" t="inlineStr"/>
+      <c r="BD66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10655,36 +10855,38 @@
         <v>1</v>
       </c>
       <c r="AK67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL67" t="n">
         <v>28800</v>
       </c>
-      <c r="AL67" t="n">
-        <v>59392</v>
-      </c>
       <c r="AM67" t="n">
+        <v>20309</v>
+      </c>
+      <c r="AN67" t="n">
         <v>44719</v>
       </c>
-      <c r="AN67" t="n">
-        <v>56944</v>
-      </c>
       <c r="AO67" t="n">
+        <v>39676</v>
+      </c>
+      <c r="AP67" t="n">
         <v>179616</v>
       </c>
-      <c r="AP67" t="n">
-        <v>51984</v>
-      </c>
       <c r="AQ67" t="n">
+        <v>34176</v>
+      </c>
+      <c r="AR67" t="n">
         <v>443144</v>
       </c>
-      <c r="AR67" t="n">
-        <v>41685</v>
-      </c>
       <c r="AS67" t="n">
+        <v>25422</v>
+      </c>
+      <c r="AT67" t="n">
         <v>889779</v>
       </c>
-      <c r="AT67" t="n">
-        <v>16826</v>
-      </c>
-      <c r="AU67" t="inlineStr"/>
+      <c r="AU67" t="n">
+        <v>11795</v>
+      </c>
       <c r="AV67" t="inlineStr"/>
       <c r="AW67" t="inlineStr"/>
       <c r="AX67" t="inlineStr"/>
@@ -10692,7 +10894,8 @@
       <c r="AZ67" t="inlineStr"/>
       <c r="BA67" t="inlineStr"/>
       <c r="BB67" t="inlineStr"/>
-      <c r="BC67" t="n">
+      <c r="BC67" t="inlineStr"/>
+      <c r="BD67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10808,24 +11011,26 @@
         <v>1</v>
       </c>
       <c r="AK68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL68" t="n">
         <v>14400</v>
       </c>
-      <c r="AL68" t="n">
-        <v>27422</v>
-      </c>
       <c r="AM68" t="n">
+        <v>4242</v>
+      </c>
+      <c r="AN68" t="n">
         <v>101930</v>
       </c>
-      <c r="AN68" t="n">
-        <v>26999</v>
-      </c>
       <c r="AO68" t="n">
+        <v>5065</v>
+      </c>
+      <c r="AP68" t="n">
         <v>459139</v>
       </c>
-      <c r="AP68" t="n">
-        <v>27031</v>
-      </c>
-      <c r="AQ68" t="inlineStr"/>
+      <c r="AQ68" t="n">
+        <v>11560</v>
+      </c>
       <c r="AR68" t="inlineStr"/>
       <c r="AS68" t="inlineStr"/>
       <c r="AT68" t="inlineStr"/>
@@ -10837,7 +11042,8 @@
       <c r="AZ68" t="inlineStr"/>
       <c r="BA68" t="inlineStr"/>
       <c r="BB68" t="inlineStr"/>
-      <c r="BC68" t="n">
+      <c r="BC68" t="inlineStr"/>
+      <c r="BD68" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10953,56 +11159,59 @@
         <v>1</v>
       </c>
       <c r="AK69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL69" t="n">
         <v>7200</v>
       </c>
-      <c r="AL69" t="n">
-        <v>31318</v>
-      </c>
       <c r="AM69" t="n">
+        <v>14681</v>
+      </c>
+      <c r="AN69" t="n">
         <v>108085</v>
       </c>
-      <c r="AN69" t="n">
-        <v>29434</v>
-      </c>
       <c r="AO69" t="n">
+        <v>22769</v>
+      </c>
+      <c r="AP69" t="n">
         <v>534785</v>
       </c>
-      <c r="AP69" t="n">
-        <v>26073</v>
-      </c>
       <c r="AQ69" t="n">
+        <v>50903</v>
+      </c>
+      <c r="AR69" t="n">
         <v>1572424</v>
       </c>
-      <c r="AR69" t="n">
-        <v>4194</v>
-      </c>
       <c r="AS69" t="n">
+        <v>56544</v>
+      </c>
+      <c r="AT69" t="n">
         <v>1901762</v>
       </c>
-      <c r="AT69" t="n">
-        <v>137</v>
-      </c>
       <c r="AU69" t="n">
+        <v>55916</v>
+      </c>
+      <c r="AV69" t="n">
         <v>6576186</v>
       </c>
-      <c r="AV69" t="n">
-        <v>43</v>
-      </c>
       <c r="AW69" t="n">
+        <v>162</v>
+      </c>
+      <c r="AX69" t="n">
         <v>9511190</v>
       </c>
-      <c r="AX69" t="n">
-        <v>105</v>
-      </c>
       <c r="AY69" t="n">
+        <v>451</v>
+      </c>
+      <c r="AZ69" t="n">
         <v>17284394</v>
       </c>
-      <c r="AZ69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA69" t="inlineStr"/>
+      <c r="BA69" t="n">
+        <v>0</v>
+      </c>
       <c r="BB69" t="inlineStr"/>
-      <c r="BC69" t="n">
+      <c r="BC69" t="inlineStr"/>
+      <c r="BD69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11118,36 +11327,38 @@
         <v>1</v>
       </c>
       <c r="AK70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL70" t="n">
         <v>7200</v>
       </c>
-      <c r="AL70" t="n">
-        <v>107467</v>
-      </c>
       <c r="AM70" t="n">
+        <v>41370</v>
+      </c>
+      <c r="AN70" t="n">
         <v>162995</v>
       </c>
-      <c r="AN70" t="n">
-        <v>72096</v>
-      </c>
       <c r="AO70" t="n">
+        <v>44764</v>
+      </c>
+      <c r="AP70" t="n">
         <v>706202</v>
       </c>
-      <c r="AP70" t="n">
-        <v>37476</v>
-      </c>
       <c r="AQ70" t="n">
+        <v>30013</v>
+      </c>
+      <c r="AR70" t="n">
         <v>1222218</v>
       </c>
-      <c r="AR70" t="n">
-        <v>22614</v>
-      </c>
       <c r="AS70" t="n">
+        <v>20900</v>
+      </c>
+      <c r="AT70" t="n">
         <v>1889738</v>
       </c>
-      <c r="AT70" t="n">
-        <v>11865</v>
-      </c>
-      <c r="AU70" t="inlineStr"/>
+      <c r="AU70" t="n">
+        <v>11519</v>
+      </c>
       <c r="AV70" t="inlineStr"/>
       <c r="AW70" t="inlineStr"/>
       <c r="AX70" t="inlineStr"/>
@@ -11155,7 +11366,8 @@
       <c r="AZ70" t="inlineStr"/>
       <c r="BA70" t="inlineStr"/>
       <c r="BB70" t="inlineStr"/>
-      <c r="BC70" t="n">
+      <c r="BC70" t="inlineStr"/>
+      <c r="BD70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11271,24 +11483,26 @@
         <v>1</v>
       </c>
       <c r="AK71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL71" t="n">
         <v>10800</v>
       </c>
-      <c r="AL71" t="n">
-        <v>8430</v>
-      </c>
       <c r="AM71" t="n">
+        <v>8178</v>
+      </c>
+      <c r="AN71" t="n">
         <v>34752</v>
       </c>
-      <c r="AN71" t="n">
-        <v>12318</v>
-      </c>
       <c r="AO71" t="n">
+        <v>10374</v>
+      </c>
+      <c r="AP71" t="n">
         <v>1072648</v>
       </c>
-      <c r="AP71" t="n">
-        <v>8877</v>
-      </c>
-      <c r="AQ71" t="inlineStr"/>
+      <c r="AQ71" t="n">
+        <v>15157</v>
+      </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
       <c r="AT71" t="inlineStr"/>
@@ -11300,7 +11514,8 @@
       <c r="AZ71" t="inlineStr"/>
       <c r="BA71" t="inlineStr"/>
       <c r="BB71" t="inlineStr"/>
-      <c r="BC71" t="n">
+      <c r="BC71" t="inlineStr"/>
+      <c r="BD71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11416,48 +11631,51 @@
         <v>1</v>
       </c>
       <c r="AK72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL72" t="n">
         <v>7200</v>
       </c>
-      <c r="AL72" t="n">
-        <v>37339</v>
-      </c>
       <c r="AM72" t="n">
+        <v>27830</v>
+      </c>
+      <c r="AN72" t="n">
         <v>58536</v>
       </c>
-      <c r="AN72" t="n">
-        <v>41093</v>
-      </c>
       <c r="AO72" t="n">
+        <v>33546</v>
+      </c>
+      <c r="AP72" t="n">
         <v>161753</v>
       </c>
-      <c r="AP72" t="n">
-        <v>42889</v>
-      </c>
       <c r="AQ72" t="n">
+        <v>7538</v>
+      </c>
+      <c r="AR72" t="n">
         <v>749449</v>
       </c>
-      <c r="AR72" t="n">
-        <v>34260</v>
-      </c>
       <c r="AS72" t="n">
+        <v>66089</v>
+      </c>
+      <c r="AT72" t="n">
         <v>925171</v>
       </c>
-      <c r="AT72" t="n">
-        <v>22823</v>
-      </c>
       <c r="AU72" t="n">
+        <v>70518</v>
+      </c>
+      <c r="AV72" t="n">
         <v>3342602</v>
       </c>
-      <c r="AV72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW72" t="inlineStr"/>
+      <c r="AW72" t="n">
+        <v>487</v>
+      </c>
       <c r="AX72" t="inlineStr"/>
       <c r="AY72" t="inlineStr"/>
       <c r="AZ72" t="inlineStr"/>
       <c r="BA72" t="inlineStr"/>
       <c r="BB72" t="inlineStr"/>
-      <c r="BC72" t="n">
+      <c r="BC72" t="inlineStr"/>
+      <c r="BD72" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11573,24 +11791,26 @@
         <v>1</v>
       </c>
       <c r="AK73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL73" t="n">
         <v>7200</v>
       </c>
-      <c r="AL73" t="n">
-        <v>12829</v>
-      </c>
       <c r="AM73" t="n">
+        <v>10390</v>
+      </c>
+      <c r="AN73" t="n">
         <v>70749</v>
       </c>
-      <c r="AN73" t="n">
-        <v>13604</v>
-      </c>
       <c r="AO73" t="n">
+        <v>18574</v>
+      </c>
+      <c r="AP73" t="n">
         <v>670489</v>
       </c>
-      <c r="AP73" t="n">
-        <v>14134</v>
-      </c>
-      <c r="AQ73" t="inlineStr"/>
+      <c r="AQ73" t="n">
+        <v>16510</v>
+      </c>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
       <c r="AT73" t="inlineStr"/>
@@ -11602,7 +11822,8 @@
       <c r="AZ73" t="inlineStr"/>
       <c r="BA73" t="inlineStr"/>
       <c r="BB73" t="inlineStr"/>
-      <c r="BC73" t="n">
+      <c r="BC73" t="inlineStr"/>
+      <c r="BD73" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11718,24 +11939,26 @@
         <v>1</v>
       </c>
       <c r="AK74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL74" t="n">
         <v>7200</v>
       </c>
-      <c r="AL74" t="n">
-        <v>18092</v>
-      </c>
       <c r="AM74" t="n">
+        <v>3974</v>
+      </c>
+      <c r="AN74" t="n">
         <v>96460</v>
       </c>
-      <c r="AN74" t="n">
-        <v>15103</v>
-      </c>
       <c r="AO74" t="n">
+        <v>6752</v>
+      </c>
+      <c r="AP74" t="n">
         <v>526460</v>
       </c>
-      <c r="AP74" t="n">
-        <v>8688</v>
-      </c>
-      <c r="AQ74" t="inlineStr"/>
+      <c r="AQ74" t="n">
+        <v>7129</v>
+      </c>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
       <c r="AT74" t="inlineStr"/>
@@ -11747,7 +11970,8 @@
       <c r="AZ74" t="inlineStr"/>
       <c r="BA74" t="inlineStr"/>
       <c r="BB74" t="inlineStr"/>
-      <c r="BC74" t="n">
+      <c r="BC74" t="inlineStr"/>
+      <c r="BD74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11863,48 +12087,51 @@
         <v>1</v>
       </c>
       <c r="AK75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL75" t="n">
         <v>5400</v>
       </c>
-      <c r="AL75" t="n">
-        <v>36954</v>
-      </c>
       <c r="AM75" t="n">
+        <v>29318</v>
+      </c>
+      <c r="AN75" t="n">
         <v>5400</v>
       </c>
-      <c r="AN75" t="n">
-        <v>36351</v>
-      </c>
       <c r="AO75" t="n">
+        <v>40785</v>
+      </c>
+      <c r="AP75" t="n">
         <v>91618</v>
       </c>
-      <c r="AP75" t="n">
-        <v>37303</v>
-      </c>
       <c r="AQ75" t="n">
+        <v>55014</v>
+      </c>
+      <c r="AR75" t="n">
         <v>350282</v>
       </c>
-      <c r="AR75" t="n">
-        <v>36621</v>
-      </c>
       <c r="AS75" t="n">
+        <v>77423</v>
+      </c>
+      <c r="AT75" t="n">
         <v>609508</v>
       </c>
-      <c r="AT75" t="n">
-        <v>31780</v>
-      </c>
       <c r="AU75" t="n">
+        <v>94712</v>
+      </c>
+      <c r="AV75" t="n">
         <v>2407357</v>
       </c>
-      <c r="AV75" t="n">
-        <v>1851</v>
-      </c>
-      <c r="AW75" t="inlineStr"/>
+      <c r="AW75" t="n">
+        <v>67780</v>
+      </c>
       <c r="AX75" t="inlineStr"/>
       <c r="AY75" t="inlineStr"/>
       <c r="AZ75" t="inlineStr"/>
       <c r="BA75" t="inlineStr"/>
       <c r="BB75" t="inlineStr"/>
-      <c r="BC75" t="n">
+      <c r="BC75" t="inlineStr"/>
+      <c r="BD75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12020,36 +12247,38 @@
         <v>1</v>
       </c>
       <c r="AK76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL76" t="n">
         <v>10800</v>
       </c>
-      <c r="AL76" t="n">
-        <v>17480</v>
-      </c>
       <c r="AM76" t="n">
+        <v>17633</v>
+      </c>
+      <c r="AN76" t="n">
         <v>49198</v>
       </c>
-      <c r="AN76" t="n">
-        <v>17449</v>
-      </c>
       <c r="AO76" t="n">
+        <v>13297</v>
+      </c>
+      <c r="AP76" t="n">
         <v>311051</v>
       </c>
-      <c r="AP76" t="n">
-        <v>18302</v>
-      </c>
       <c r="AQ76" t="n">
+        <v>42038</v>
+      </c>
+      <c r="AR76" t="n">
         <v>750969</v>
       </c>
-      <c r="AR76" t="n">
-        <v>13907</v>
-      </c>
       <c r="AS76" t="n">
+        <v>34310</v>
+      </c>
+      <c r="AT76" t="n">
         <v>3339255</v>
       </c>
-      <c r="AT76" t="n">
-        <v>1108</v>
-      </c>
-      <c r="AU76" t="inlineStr"/>
+      <c r="AU76" t="n">
+        <v>11202</v>
+      </c>
       <c r="AV76" t="inlineStr"/>
       <c r="AW76" t="inlineStr"/>
       <c r="AX76" t="inlineStr"/>
@@ -12057,7 +12286,8 @@
       <c r="AZ76" t="inlineStr"/>
       <c r="BA76" t="inlineStr"/>
       <c r="BB76" t="inlineStr"/>
-      <c r="BC76" t="n">
+      <c r="BC76" t="inlineStr"/>
+      <c r="BD76" t="n">
         <v>3</v>
       </c>
     </row>
@@ -12173,36 +12403,38 @@
         <v>1</v>
       </c>
       <c r="AK77" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL77" t="n">
         <v>5400</v>
       </c>
-      <c r="AL77" t="n">
-        <v>16400</v>
-      </c>
       <c r="AM77" t="n">
+        <v>10154</v>
+      </c>
+      <c r="AN77" t="n">
         <v>57577</v>
       </c>
-      <c r="AN77" t="n">
-        <v>26479</v>
-      </c>
       <c r="AO77" t="n">
+        <v>12104</v>
+      </c>
+      <c r="AP77" t="n">
         <v>229962</v>
       </c>
-      <c r="AP77" t="n">
-        <v>25120</v>
-      </c>
       <c r="AQ77" t="n">
+        <v>11581</v>
+      </c>
+      <c r="AR77" t="n">
         <v>744294</v>
       </c>
-      <c r="AR77" t="n">
-        <v>18291</v>
-      </c>
       <c r="AS77" t="n">
+        <v>14763</v>
+      </c>
+      <c r="AT77" t="n">
         <v>1377103</v>
       </c>
-      <c r="AT77" t="n">
-        <v>3967</v>
-      </c>
-      <c r="AU77" t="inlineStr"/>
+      <c r="AU77" t="n">
+        <v>7061</v>
+      </c>
       <c r="AV77" t="inlineStr"/>
       <c r="AW77" t="inlineStr"/>
       <c r="AX77" t="inlineStr"/>
@@ -12210,7 +12442,8 @@
       <c r="AZ77" t="inlineStr"/>
       <c r="BA77" t="inlineStr"/>
       <c r="BB77" t="inlineStr"/>
-      <c r="BC77" t="n">
+      <c r="BC77" t="inlineStr"/>
+      <c r="BD77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12326,36 +12559,38 @@
         <v>1</v>
       </c>
       <c r="AK78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL78" t="n">
         <v>7200</v>
       </c>
-      <c r="AL78" t="n">
-        <v>87595</v>
-      </c>
       <c r="AM78" t="n">
+        <v>9003</v>
+      </c>
+      <c r="AN78" t="n">
         <v>50830</v>
       </c>
-      <c r="AN78" t="n">
-        <v>124215</v>
-      </c>
       <c r="AO78" t="n">
+        <v>31618</v>
+      </c>
+      <c r="AP78" t="n">
         <v>421350</v>
       </c>
-      <c r="AP78" t="n">
-        <v>95964</v>
-      </c>
       <c r="AQ78" t="n">
+        <v>27787</v>
+      </c>
+      <c r="AR78" t="n">
         <v>596581</v>
       </c>
-      <c r="AR78" t="n">
-        <v>83228</v>
-      </c>
       <c r="AS78" t="n">
+        <v>45271</v>
+      </c>
+      <c r="AT78" t="n">
         <v>2237049</v>
       </c>
-      <c r="AT78" t="n">
-        <v>16443</v>
-      </c>
-      <c r="AU78" t="inlineStr"/>
+      <c r="AU78" t="n">
+        <v>38415</v>
+      </c>
       <c r="AV78" t="inlineStr"/>
       <c r="AW78" t="inlineStr"/>
       <c r="AX78" t="inlineStr"/>
@@ -12363,7 +12598,8 @@
       <c r="AZ78" t="inlineStr"/>
       <c r="BA78" t="inlineStr"/>
       <c r="BB78" t="inlineStr"/>
-      <c r="BC78" t="n">
+      <c r="BC78" t="inlineStr"/>
+      <c r="BD78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12479,24 +12715,26 @@
         <v>1</v>
       </c>
       <c r="AK79" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL79" t="n">
         <v>18000</v>
       </c>
-      <c r="AL79" t="n">
-        <v>2481</v>
-      </c>
       <c r="AM79" t="n">
+        <v>2679</v>
+      </c>
+      <c r="AN79" t="n">
         <v>112463</v>
       </c>
-      <c r="AN79" t="n">
-        <v>1798</v>
-      </c>
       <c r="AO79" t="n">
+        <v>552</v>
+      </c>
+      <c r="AP79" t="n">
         <v>721156</v>
       </c>
-      <c r="AP79" t="n">
-        <v>1616</v>
-      </c>
-      <c r="AQ79" t="inlineStr"/>
+      <c r="AQ79" t="n">
+        <v>2378</v>
+      </c>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
       <c r="AT79" t="inlineStr"/>
@@ -12508,7 +12746,8 @@
       <c r="AZ79" t="inlineStr"/>
       <c r="BA79" t="inlineStr"/>
       <c r="BB79" t="inlineStr"/>
-      <c r="BC79" t="n">
+      <c r="BC79" t="inlineStr"/>
+      <c r="BD79" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12624,36 +12863,38 @@
         <v>1</v>
       </c>
       <c r="AK80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL80" t="n">
         <v>3600</v>
       </c>
-      <c r="AL80" t="n">
-        <v>6543</v>
-      </c>
       <c r="AM80" t="n">
+        <v>7317</v>
+      </c>
+      <c r="AN80" t="n">
         <v>100250</v>
       </c>
-      <c r="AN80" t="n">
-        <v>12694</v>
-      </c>
       <c r="AO80" t="n">
+        <v>6525</v>
+      </c>
+      <c r="AP80" t="n">
         <v>787286</v>
       </c>
-      <c r="AP80" t="n">
-        <v>7980</v>
-      </c>
       <c r="AQ80" t="n">
+        <v>9754</v>
+      </c>
+      <c r="AR80" t="n">
         <v>1157675</v>
       </c>
-      <c r="AR80" t="n">
-        <v>1079</v>
-      </c>
       <c r="AS80" t="n">
+        <v>1794</v>
+      </c>
+      <c r="AT80" t="n">
         <v>4158689</v>
       </c>
-      <c r="AT80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU80" t="inlineStr"/>
+      <c r="AU80" t="n">
+        <v>53</v>
+      </c>
       <c r="AV80" t="inlineStr"/>
       <c r="AW80" t="inlineStr"/>
       <c r="AX80" t="inlineStr"/>
@@ -12661,7 +12902,8 @@
       <c r="AZ80" t="inlineStr"/>
       <c r="BA80" t="inlineStr"/>
       <c r="BB80" t="inlineStr"/>
-      <c r="BC80" t="n">
+      <c r="BC80" t="inlineStr"/>
+      <c r="BD80" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12777,24 +13019,26 @@
         <v>1</v>
       </c>
       <c r="AK81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL81" t="n">
         <v>14400</v>
       </c>
-      <c r="AL81" t="n">
-        <v>66355</v>
-      </c>
       <c r="AM81" t="n">
+        <v>12087</v>
+      </c>
+      <c r="AN81" t="n">
         <v>74064</v>
       </c>
-      <c r="AN81" t="n">
-        <v>74841</v>
-      </c>
       <c r="AO81" t="n">
+        <v>13771</v>
+      </c>
+      <c r="AP81" t="n">
         <v>994970</v>
       </c>
-      <c r="AP81" t="n">
-        <v>20078</v>
-      </c>
-      <c r="AQ81" t="inlineStr"/>
+      <c r="AQ81" t="n">
+        <v>5810</v>
+      </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
       <c r="AT81" t="inlineStr"/>
@@ -12806,7 +13050,8 @@
       <c r="AZ81" t="inlineStr"/>
       <c r="BA81" t="inlineStr"/>
       <c r="BB81" t="inlineStr"/>
-      <c r="BC81" t="n">
+      <c r="BC81" t="inlineStr"/>
+      <c r="BD81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12922,36 +13167,38 @@
         <v>1</v>
       </c>
       <c r="AK82" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL82" t="n">
         <v>10800</v>
       </c>
-      <c r="AL82" t="n">
-        <v>41688</v>
-      </c>
       <c r="AM82" t="n">
+        <v>1091</v>
+      </c>
+      <c r="AN82" t="n">
         <v>98718</v>
       </c>
-      <c r="AN82" t="n">
-        <v>56986</v>
-      </c>
       <c r="AO82" t="n">
+        <v>11074</v>
+      </c>
+      <c r="AP82" t="n">
         <v>464437</v>
       </c>
-      <c r="AP82" t="n">
-        <v>52785</v>
-      </c>
       <c r="AQ82" t="n">
+        <v>15033</v>
+      </c>
+      <c r="AR82" t="n">
         <v>1151747</v>
       </c>
-      <c r="AR82" t="n">
-        <v>19137</v>
-      </c>
       <c r="AS82" t="n">
+        <v>8175</v>
+      </c>
+      <c r="AT82" t="n">
         <v>15507261</v>
       </c>
-      <c r="AT82" t="n">
-        <v>219382</v>
-      </c>
-      <c r="AU82" t="inlineStr"/>
+      <c r="AU82" t="n">
+        <v>72247</v>
+      </c>
       <c r="AV82" t="inlineStr"/>
       <c r="AW82" t="inlineStr"/>
       <c r="AX82" t="inlineStr"/>
@@ -12959,7 +13206,8 @@
       <c r="AZ82" t="inlineStr"/>
       <c r="BA82" t="inlineStr"/>
       <c r="BB82" t="inlineStr"/>
-      <c r="BC82" t="n">
+      <c r="BC82" t="inlineStr"/>
+      <c r="BD82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13075,24 +13323,26 @@
         <v>1</v>
       </c>
       <c r="AK83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL83" t="n">
         <v>3600</v>
       </c>
-      <c r="AL83" t="n">
-        <v>46320</v>
-      </c>
       <c r="AM83" t="n">
+        <v>33837</v>
+      </c>
+      <c r="AN83" t="n">
         <v>86019</v>
       </c>
-      <c r="AN83" t="n">
-        <v>41919</v>
-      </c>
       <c r="AO83" t="n">
+        <v>28344</v>
+      </c>
+      <c r="AP83" t="n">
         <v>686112</v>
       </c>
-      <c r="AP83" t="n">
-        <v>25531</v>
-      </c>
-      <c r="AQ83" t="inlineStr"/>
+      <c r="AQ83" t="n">
+        <v>30438</v>
+      </c>
       <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr"/>
       <c r="AT83" t="inlineStr"/>
@@ -13104,7 +13354,8 @@
       <c r="AZ83" t="inlineStr"/>
       <c r="BA83" t="inlineStr"/>
       <c r="BB83" t="inlineStr"/>
-      <c r="BC83" t="n">
+      <c r="BC83" t="inlineStr"/>
+      <c r="BD83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13220,24 +13471,26 @@
         <v>1</v>
       </c>
       <c r="AK84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL84" t="n">
         <v>36000</v>
       </c>
-      <c r="AL84" t="n">
-        <v>23493</v>
-      </c>
       <c r="AM84" t="n">
+        <v>23326</v>
+      </c>
+      <c r="AN84" t="n">
         <v>130853</v>
       </c>
-      <c r="AN84" t="n">
-        <v>22029</v>
-      </c>
       <c r="AO84" t="n">
+        <v>39556</v>
+      </c>
+      <c r="AP84" t="n">
         <v>457147</v>
       </c>
-      <c r="AP84" t="n">
-        <v>20468</v>
-      </c>
-      <c r="AQ84" t="inlineStr"/>
+      <c r="AQ84" t="n">
+        <v>47580</v>
+      </c>
       <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr"/>
       <c r="AT84" t="inlineStr"/>
@@ -13249,7 +13502,8 @@
       <c r="AZ84" t="inlineStr"/>
       <c r="BA84" t="inlineStr"/>
       <c r="BB84" t="inlineStr"/>
-      <c r="BC84" t="n">
+      <c r="BC84" t="inlineStr"/>
+      <c r="BD84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13365,36 +13619,38 @@
         <v>1</v>
       </c>
       <c r="AK85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL85" t="n">
         <v>5400</v>
       </c>
-      <c r="AL85" t="n">
-        <v>25871</v>
-      </c>
       <c r="AM85" t="n">
+        <v>3216</v>
+      </c>
+      <c r="AN85" t="n">
         <v>48393</v>
       </c>
-      <c r="AN85" t="n">
-        <v>27422</v>
-      </c>
       <c r="AO85" t="n">
+        <v>11371</v>
+      </c>
+      <c r="AP85" t="n">
         <v>135856</v>
       </c>
-      <c r="AP85" t="n">
-        <v>25628</v>
-      </c>
       <c r="AQ85" t="n">
+        <v>21244</v>
+      </c>
+      <c r="AR85" t="n">
         <v>307485</v>
       </c>
-      <c r="AR85" t="n">
-        <v>24692</v>
-      </c>
       <c r="AS85" t="n">
+        <v>30080</v>
+      </c>
+      <c r="AT85" t="n">
         <v>652621</v>
       </c>
-      <c r="AT85" t="n">
-        <v>13690</v>
-      </c>
-      <c r="AU85" t="inlineStr"/>
+      <c r="AU85" t="n">
+        <v>39377</v>
+      </c>
       <c r="AV85" t="inlineStr"/>
       <c r="AW85" t="inlineStr"/>
       <c r="AX85" t="inlineStr"/>
@@ -13402,7 +13658,8 @@
       <c r="AZ85" t="inlineStr"/>
       <c r="BA85" t="inlineStr"/>
       <c r="BB85" t="inlineStr"/>
-      <c r="BC85" t="n">
+      <c r="BC85" t="inlineStr"/>
+      <c r="BD85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13518,48 +13775,51 @@
         <v>1</v>
       </c>
       <c r="AK86" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL86" t="n">
         <v>3600</v>
       </c>
-      <c r="AL86" t="n">
-        <v>74106</v>
-      </c>
       <c r="AM86" t="n">
+        <v>53627</v>
+      </c>
+      <c r="AN86" t="n">
         <v>7907</v>
       </c>
-      <c r="AN86" t="n">
-        <v>65004</v>
-      </c>
       <c r="AO86" t="n">
+        <v>46988</v>
+      </c>
+      <c r="AP86" t="n">
         <v>56208</v>
       </c>
-      <c r="AP86" t="n">
-        <v>79374</v>
-      </c>
       <c r="AQ86" t="n">
+        <v>58358</v>
+      </c>
+      <c r="AR86" t="n">
         <v>416863</v>
       </c>
-      <c r="AR86" t="n">
-        <v>52431</v>
-      </c>
       <c r="AS86" t="n">
+        <v>53073</v>
+      </c>
+      <c r="AT86" t="n">
         <v>746391</v>
       </c>
-      <c r="AT86" t="n">
-        <v>37517</v>
-      </c>
       <c r="AU86" t="n">
+        <v>18619</v>
+      </c>
+      <c r="AV86" t="n">
         <v>1192490</v>
       </c>
-      <c r="AV86" t="n">
-        <v>18276</v>
-      </c>
-      <c r="AW86" t="inlineStr"/>
+      <c r="AW86" t="n">
+        <v>15428</v>
+      </c>
       <c r="AX86" t="inlineStr"/>
       <c r="AY86" t="inlineStr"/>
       <c r="AZ86" t="inlineStr"/>
       <c r="BA86" t="inlineStr"/>
       <c r="BB86" t="inlineStr"/>
-      <c r="BC86" t="n">
+      <c r="BC86" t="inlineStr"/>
+      <c r="BD86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13675,30 +13935,32 @@
         <v>1</v>
       </c>
       <c r="AK87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL87" t="n">
         <v>10800</v>
       </c>
-      <c r="AL87" t="n">
-        <v>11027</v>
-      </c>
       <c r="AM87" t="n">
+        <v>3327</v>
+      </c>
+      <c r="AN87" t="n">
         <v>66281</v>
       </c>
-      <c r="AN87" t="n">
-        <v>9567</v>
-      </c>
       <c r="AO87" t="n">
+        <v>1154</v>
+      </c>
+      <c r="AP87" t="n">
         <v>645797</v>
       </c>
-      <c r="AP87" t="n">
-        <v>7630</v>
-      </c>
       <c r="AQ87" t="n">
+        <v>6076</v>
+      </c>
+      <c r="AR87" t="n">
         <v>1253871</v>
       </c>
-      <c r="AR87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS87" t="inlineStr"/>
+      <c r="AS87" t="n">
+        <v>2490</v>
+      </c>
       <c r="AT87" t="inlineStr"/>
       <c r="AU87" t="inlineStr"/>
       <c r="AV87" t="inlineStr"/>
@@ -13708,7 +13970,8 @@
       <c r="AZ87" t="inlineStr"/>
       <c r="BA87" t="inlineStr"/>
       <c r="BB87" t="inlineStr"/>
-      <c r="BC87" t="n">
+      <c r="BC87" t="inlineStr"/>
+      <c r="BD87" t="n">
         <v>3</v>
       </c>
     </row>
@@ -13824,36 +14087,38 @@
         <v>1</v>
       </c>
       <c r="AK88" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL88" t="n">
         <v>5400</v>
       </c>
-      <c r="AL88" t="n">
-        <v>31627</v>
-      </c>
       <c r="AM88" t="n">
+        <v>398</v>
+      </c>
+      <c r="AN88" t="n">
         <v>59575</v>
       </c>
-      <c r="AN88" t="n">
-        <v>34170</v>
-      </c>
       <c r="AO88" t="n">
+        <v>1776</v>
+      </c>
+      <c r="AP88" t="n">
         <v>1009614</v>
       </c>
-      <c r="AP88" t="n">
-        <v>27105</v>
-      </c>
       <c r="AQ88" t="n">
+        <v>4054</v>
+      </c>
+      <c r="AR88" t="n">
         <v>1613771</v>
       </c>
-      <c r="AR88" t="n">
-        <v>18048</v>
-      </c>
       <c r="AS88" t="n">
+        <v>4603</v>
+      </c>
+      <c r="AT88" t="n">
         <v>9909519</v>
       </c>
-      <c r="AT88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU88" t="inlineStr"/>
+      <c r="AU88" t="n">
+        <v>0</v>
+      </c>
       <c r="AV88" t="inlineStr"/>
       <c r="AW88" t="inlineStr"/>
       <c r="AX88" t="inlineStr"/>
@@ -13861,7 +14126,8 @@
       <c r="AZ88" t="inlineStr"/>
       <c r="BA88" t="inlineStr"/>
       <c r="BB88" t="inlineStr"/>
-      <c r="BC88" t="n">
+      <c r="BC88" t="inlineStr"/>
+      <c r="BD88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13977,24 +14243,26 @@
         <v>1</v>
       </c>
       <c r="AK89" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL89" t="n">
         <v>36000</v>
       </c>
-      <c r="AL89" t="n">
-        <v>9913</v>
-      </c>
       <c r="AM89" t="n">
+        <v>23528</v>
+      </c>
+      <c r="AN89" t="n">
         <v>125127</v>
       </c>
-      <c r="AN89" t="n">
-        <v>11529</v>
-      </c>
       <c r="AO89" t="n">
+        <v>13051</v>
+      </c>
+      <c r="AP89" t="n">
         <v>407161</v>
       </c>
-      <c r="AP89" t="n">
-        <v>15745</v>
-      </c>
-      <c r="AQ89" t="inlineStr"/>
+      <c r="AQ89" t="n">
+        <v>29340</v>
+      </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
       <c r="AT89" t="inlineStr"/>
@@ -14006,7 +14274,8 @@
       <c r="AZ89" t="inlineStr"/>
       <c r="BA89" t="inlineStr"/>
       <c r="BB89" t="inlineStr"/>
-      <c r="BC89" t="n">
+      <c r="BC89" t="inlineStr"/>
+      <c r="BD89" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14122,30 +14391,32 @@
         <v>1</v>
       </c>
       <c r="AK90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL90" t="n">
         <v>5400</v>
       </c>
-      <c r="AL90" t="n">
-        <v>17293</v>
-      </c>
       <c r="AM90" t="n">
+        <v>9695</v>
+      </c>
+      <c r="AN90" t="n">
         <v>77090</v>
       </c>
-      <c r="AN90" t="n">
-        <v>17301</v>
-      </c>
       <c r="AO90" t="n">
+        <v>17750</v>
+      </c>
+      <c r="AP90" t="n">
         <v>1021947</v>
       </c>
-      <c r="AP90" t="n">
-        <v>2392</v>
-      </c>
       <c r="AQ90" t="n">
+        <v>67976</v>
+      </c>
+      <c r="AR90" t="n">
         <v>1951591</v>
       </c>
-      <c r="AR90" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS90" t="inlineStr"/>
+      <c r="AS90" t="n">
+        <v>21797</v>
+      </c>
       <c r="AT90" t="inlineStr"/>
       <c r="AU90" t="inlineStr"/>
       <c r="AV90" t="inlineStr"/>
@@ -14155,7 +14426,8 @@
       <c r="AZ90" t="inlineStr"/>
       <c r="BA90" t="inlineStr"/>
       <c r="BB90" t="inlineStr"/>
-      <c r="BC90" t="n">
+      <c r="BC90" t="inlineStr"/>
+      <c r="BD90" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14271,30 +14543,32 @@
         <v>1</v>
       </c>
       <c r="AK91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL91" t="n">
         <v>7200</v>
       </c>
-      <c r="AL91" t="n">
-        <v>74353</v>
-      </c>
       <c r="AM91" t="n">
+        <v>29614</v>
+      </c>
+      <c r="AN91" t="n">
         <v>47426</v>
       </c>
-      <c r="AN91" t="n">
-        <v>69496</v>
-      </c>
       <c r="AO91" t="n">
+        <v>76322</v>
+      </c>
+      <c r="AP91" t="n">
         <v>569611</v>
       </c>
-      <c r="AP91" t="n">
-        <v>24960</v>
-      </c>
       <c r="AQ91" t="n">
+        <v>16378</v>
+      </c>
+      <c r="AR91" t="n">
         <v>828342</v>
       </c>
-      <c r="AR91" t="n">
-        <v>13990</v>
-      </c>
-      <c r="AS91" t="inlineStr"/>
+      <c r="AS91" t="n">
+        <v>4787</v>
+      </c>
       <c r="AT91" t="inlineStr"/>
       <c r="AU91" t="inlineStr"/>
       <c r="AV91" t="inlineStr"/>
@@ -14304,7 +14578,8 @@
       <c r="AZ91" t="inlineStr"/>
       <c r="BA91" t="inlineStr"/>
       <c r="BB91" t="inlineStr"/>
-      <c r="BC91" t="n">
+      <c r="BC91" t="inlineStr"/>
+      <c r="BD91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14420,30 +14695,32 @@
         <v>1</v>
       </c>
       <c r="AK92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL92" t="n">
         <v>10800</v>
       </c>
-      <c r="AL92" t="n">
-        <v>11929</v>
-      </c>
       <c r="AM92" t="n">
+        <v>5318</v>
+      </c>
+      <c r="AN92" t="n">
         <v>93912</v>
       </c>
-      <c r="AN92" t="n">
-        <v>13305</v>
-      </c>
       <c r="AO92" t="n">
+        <v>11482</v>
+      </c>
+      <c r="AP92" t="n">
         <v>522173</v>
       </c>
-      <c r="AP92" t="n">
-        <v>13681</v>
-      </c>
       <c r="AQ92" t="n">
+        <v>11741</v>
+      </c>
+      <c r="AR92" t="n">
         <v>1733098</v>
       </c>
-      <c r="AR92" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS92" t="inlineStr"/>
+      <c r="AS92" t="n">
+        <v>10975</v>
+      </c>
       <c r="AT92" t="inlineStr"/>
       <c r="AU92" t="inlineStr"/>
       <c r="AV92" t="inlineStr"/>
@@ -14453,7 +14730,8 @@
       <c r="AZ92" t="inlineStr"/>
       <c r="BA92" t="inlineStr"/>
       <c r="BB92" t="inlineStr"/>
-      <c r="BC92" t="n">
+      <c r="BC92" t="inlineStr"/>
+      <c r="BD92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14569,30 +14847,32 @@
         <v>1</v>
       </c>
       <c r="AK93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL93" t="n">
         <v>7200</v>
       </c>
-      <c r="AL93" t="n">
-        <v>15928</v>
-      </c>
       <c r="AM93" t="n">
+        <v>1084</v>
+      </c>
+      <c r="AN93" t="n">
         <v>42929</v>
       </c>
-      <c r="AN93" t="n">
-        <v>64619</v>
-      </c>
       <c r="AO93" t="n">
+        <v>711</v>
+      </c>
+      <c r="AP93" t="n">
         <v>283580</v>
       </c>
-      <c r="AP93" t="n">
-        <v>138940</v>
-      </c>
       <c r="AQ93" t="n">
+        <v>38232</v>
+      </c>
+      <c r="AR93" t="n">
         <v>624867</v>
       </c>
-      <c r="AR93" t="n">
-        <v>98105</v>
-      </c>
-      <c r="AS93" t="inlineStr"/>
+      <c r="AS93" t="n">
+        <v>52388</v>
+      </c>
       <c r="AT93" t="inlineStr"/>
       <c r="AU93" t="inlineStr"/>
       <c r="AV93" t="inlineStr"/>
@@ -14602,7 +14882,8 @@
       <c r="AZ93" t="inlineStr"/>
       <c r="BA93" t="inlineStr"/>
       <c r="BB93" t="inlineStr"/>
-      <c r="BC93" t="n">
+      <c r="BC93" t="inlineStr"/>
+      <c r="BD93" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14718,36 +14999,38 @@
         <v>1</v>
       </c>
       <c r="AK94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL94" t="n">
         <v>1800</v>
       </c>
-      <c r="AL94" t="n">
-        <v>17823</v>
-      </c>
       <c r="AM94" t="n">
+        <v>4923</v>
+      </c>
+      <c r="AN94" t="n">
         <v>12880</v>
       </c>
-      <c r="AN94" t="n">
-        <v>17359</v>
-      </c>
       <c r="AO94" t="n">
+        <v>3943</v>
+      </c>
+      <c r="AP94" t="n">
         <v>91730</v>
       </c>
-      <c r="AP94" t="n">
-        <v>16066</v>
-      </c>
       <c r="AQ94" t="n">
+        <v>6974</v>
+      </c>
+      <c r="AR94" t="n">
         <v>177628</v>
       </c>
-      <c r="AR94" t="n">
-        <v>14406</v>
-      </c>
       <c r="AS94" t="n">
+        <v>9355</v>
+      </c>
+      <c r="AT94" t="n">
         <v>976218</v>
       </c>
-      <c r="AT94" t="n">
-        <v>8230</v>
-      </c>
-      <c r="AU94" t="inlineStr"/>
+      <c r="AU94" t="n">
+        <v>3258</v>
+      </c>
       <c r="AV94" t="inlineStr"/>
       <c r="AW94" t="inlineStr"/>
       <c r="AX94" t="inlineStr"/>
@@ -14755,7 +15038,8 @@
       <c r="AZ94" t="inlineStr"/>
       <c r="BA94" t="inlineStr"/>
       <c r="BB94" t="inlineStr"/>
-      <c r="BC94" t="n">
+      <c r="BC94" t="inlineStr"/>
+      <c r="BD94" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14871,36 +15155,38 @@
         <v>1</v>
       </c>
       <c r="AK95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL95" t="n">
         <v>18000</v>
       </c>
-      <c r="AL95" t="n">
-        <v>40501</v>
-      </c>
       <c r="AM95" t="n">
+        <v>7667</v>
+      </c>
+      <c r="AN95" t="n">
         <v>104079</v>
       </c>
-      <c r="AN95" t="n">
-        <v>29244</v>
-      </c>
       <c r="AO95" t="n">
+        <v>15664</v>
+      </c>
+      <c r="AP95" t="n">
         <v>363066</v>
       </c>
-      <c r="AP95" t="n">
-        <v>18421</v>
-      </c>
       <c r="AQ95" t="n">
+        <v>18164</v>
+      </c>
+      <c r="AR95" t="n">
         <v>949664</v>
       </c>
-      <c r="AR95" t="n">
-        <v>5937</v>
-      </c>
       <c r="AS95" t="n">
+        <v>8693</v>
+      </c>
+      <c r="AT95" t="n">
         <v>15577264</v>
       </c>
-      <c r="AT95" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU95" t="inlineStr"/>
+      <c r="AU95" t="n">
+        <v>0</v>
+      </c>
       <c r="AV95" t="inlineStr"/>
       <c r="AW95" t="inlineStr"/>
       <c r="AX95" t="inlineStr"/>
@@ -14908,7 +15194,8 @@
       <c r="AZ95" t="inlineStr"/>
       <c r="BA95" t="inlineStr"/>
       <c r="BB95" t="inlineStr"/>
-      <c r="BC95" t="n">
+      <c r="BC95" t="inlineStr"/>
+      <c r="BD95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15024,36 +15311,38 @@
         <v>1</v>
       </c>
       <c r="AK96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL96" t="n">
         <v>3600</v>
       </c>
-      <c r="AL96" t="n">
-        <v>18252</v>
-      </c>
       <c r="AM96" t="n">
+        <v>13198</v>
+      </c>
+      <c r="AN96" t="n">
         <v>26754</v>
       </c>
-      <c r="AN96" t="n">
-        <v>35759</v>
-      </c>
       <c r="AO96" t="n">
+        <v>82848</v>
+      </c>
+      <c r="AP96" t="n">
         <v>338913</v>
       </c>
-      <c r="AP96" t="n">
-        <v>35004</v>
-      </c>
       <c r="AQ96" t="n">
+        <v>99131</v>
+      </c>
+      <c r="AR96" t="n">
         <v>1118711</v>
       </c>
-      <c r="AR96" t="n">
-        <v>13489</v>
-      </c>
       <c r="AS96" t="n">
+        <v>168138</v>
+      </c>
+      <c r="AT96" t="n">
         <v>2002074</v>
       </c>
-      <c r="AT96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU96" t="inlineStr"/>
+      <c r="AU96" t="n">
+        <v>125247</v>
+      </c>
       <c r="AV96" t="inlineStr"/>
       <c r="AW96" t="inlineStr"/>
       <c r="AX96" t="inlineStr"/>
@@ -15061,7 +15350,8 @@
       <c r="AZ96" t="inlineStr"/>
       <c r="BA96" t="inlineStr"/>
       <c r="BB96" t="inlineStr"/>
-      <c r="BC96" t="n">
+      <c r="BC96" t="inlineStr"/>
+      <c r="BD96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15177,48 +15467,51 @@
         <v>1</v>
       </c>
       <c r="AK97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL97" t="n">
         <v>3600</v>
       </c>
-      <c r="AL97" t="n">
-        <v>9114</v>
-      </c>
       <c r="AM97" t="n">
+        <v>5951</v>
+      </c>
+      <c r="AN97" t="n">
         <v>49541</v>
       </c>
-      <c r="AN97" t="n">
-        <v>9030</v>
-      </c>
       <c r="AO97" t="n">
+        <v>6094</v>
+      </c>
+      <c r="AP97" t="n">
         <v>316729</v>
       </c>
-      <c r="AP97" t="n">
-        <v>8631</v>
-      </c>
       <c r="AQ97" t="n">
+        <v>9911</v>
+      </c>
+      <c r="AR97" t="n">
         <v>918429</v>
       </c>
-      <c r="AR97" t="n">
-        <v>6573</v>
-      </c>
       <c r="AS97" t="n">
+        <v>11687</v>
+      </c>
+      <c r="AT97" t="n">
         <v>1524604</v>
       </c>
-      <c r="AT97" t="n">
-        <v>492</v>
-      </c>
       <c r="AU97" t="n">
+        <v>231</v>
+      </c>
+      <c r="AV97" t="n">
         <v>2144314</v>
       </c>
-      <c r="AV97" t="n">
-        <v>566</v>
-      </c>
-      <c r="AW97" t="inlineStr"/>
+      <c r="AW97" t="n">
+        <v>0</v>
+      </c>
       <c r="AX97" t="inlineStr"/>
       <c r="AY97" t="inlineStr"/>
       <c r="AZ97" t="inlineStr"/>
       <c r="BA97" t="inlineStr"/>
       <c r="BB97" t="inlineStr"/>
-      <c r="BC97" t="n">
+      <c r="BC97" t="inlineStr"/>
+      <c r="BD97" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15334,24 +15627,26 @@
         <v>1</v>
       </c>
       <c r="AK98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL98" t="n">
         <v>10800</v>
       </c>
-      <c r="AL98" t="n">
-        <v>10806</v>
-      </c>
       <c r="AM98" t="n">
+        <v>10227</v>
+      </c>
+      <c r="AN98" t="n">
         <v>114932</v>
       </c>
-      <c r="AN98" t="n">
-        <v>12517</v>
-      </c>
       <c r="AO98" t="n">
+        <v>8635</v>
+      </c>
+      <c r="AP98" t="n">
         <v>617041</v>
       </c>
-      <c r="AP98" t="n">
-        <v>9929</v>
-      </c>
-      <c r="AQ98" t="inlineStr"/>
+      <c r="AQ98" t="n">
+        <v>1316</v>
+      </c>
       <c r="AR98" t="inlineStr"/>
       <c r="AS98" t="inlineStr"/>
       <c r="AT98" t="inlineStr"/>
@@ -15363,7 +15658,8 @@
       <c r="AZ98" t="inlineStr"/>
       <c r="BA98" t="inlineStr"/>
       <c r="BB98" t="inlineStr"/>
-      <c r="BC98" t="n">
+      <c r="BC98" t="inlineStr"/>
+      <c r="BD98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15479,36 +15775,38 @@
         <v>1</v>
       </c>
       <c r="AK99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AL99" t="n">
         <v>9000</v>
       </c>
-      <c r="AL99" t="n">
-        <v>188134</v>
-      </c>
       <c r="AM99" t="n">
+        <v>39868</v>
+      </c>
+      <c r="AN99" t="n">
         <v>153924</v>
       </c>
-      <c r="AN99" t="n">
-        <v>214629</v>
-      </c>
       <c r="AO99" t="n">
+        <v>29007</v>
+      </c>
+      <c r="AP99" t="n">
         <v>675565</v>
       </c>
-      <c r="AP99" t="n">
-        <v>178037</v>
-      </c>
       <c r="AQ99" t="n">
+        <v>26426</v>
+      </c>
+      <c r="AR99" t="n">
         <v>2053789</v>
       </c>
-      <c r="AR99" t="n">
-        <v>111107</v>
-      </c>
       <c r="AS99" t="n">
+        <v>40666</v>
+      </c>
+      <c r="AT99" t="n">
         <v>3252126</v>
       </c>
-      <c r="AT99" t="n">
-        <v>75878</v>
-      </c>
-      <c r="AU99" t="inlineStr"/>
+      <c r="AU99" t="n">
+        <v>17288</v>
+      </c>
       <c r="AV99" t="inlineStr"/>
       <c r="AW99" t="inlineStr"/>
       <c r="AX99" t="inlineStr"/>
@@ -15516,7 +15814,8 @@
       <c r="AZ99" t="inlineStr"/>
       <c r="BA99" t="inlineStr"/>
       <c r="BB99" t="inlineStr"/>
-      <c r="BC99" t="n">
+      <c r="BC99" t="inlineStr"/>
+      <c r="BD99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15632,24 +15931,26 @@
         <v>1</v>
       </c>
       <c r="AK100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL100" t="n">
         <v>10800</v>
       </c>
-      <c r="AL100" t="n">
-        <v>37309</v>
-      </c>
       <c r="AM100" t="n">
+        <v>9653</v>
+      </c>
+      <c r="AN100" t="n">
         <v>63622</v>
       </c>
-      <c r="AN100" t="n">
-        <v>58149</v>
-      </c>
       <c r="AO100" t="n">
+        <v>19517</v>
+      </c>
+      <c r="AP100" t="n">
         <v>153106</v>
       </c>
-      <c r="AP100" t="n">
-        <v>52350</v>
-      </c>
-      <c r="AQ100" t="inlineStr"/>
+      <c r="AQ100" t="n">
+        <v>30933</v>
+      </c>
       <c r="AR100" t="inlineStr"/>
       <c r="AS100" t="inlineStr"/>
       <c r="AT100" t="inlineStr"/>
@@ -15661,7 +15962,8 @@
       <c r="AZ100" t="inlineStr"/>
       <c r="BA100" t="inlineStr"/>
       <c r="BB100" t="inlineStr"/>
-      <c r="BC100" t="n">
+      <c r="BC100" t="inlineStr"/>
+      <c r="BD100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15777,24 +16079,26 @@
         <v>1</v>
       </c>
       <c r="AK101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL101" t="n">
         <v>1800</v>
       </c>
-      <c r="AL101" t="n">
-        <v>14659</v>
-      </c>
       <c r="AM101" t="n">
+        <v>7367</v>
+      </c>
+      <c r="AN101" t="n">
         <v>125032</v>
       </c>
-      <c r="AN101" t="n">
-        <v>16176</v>
-      </c>
       <c r="AO101" t="n">
+        <v>6033</v>
+      </c>
+      <c r="AP101" t="n">
         <v>710052</v>
       </c>
-      <c r="AP101" t="n">
-        <v>7459</v>
-      </c>
-      <c r="AQ101" t="inlineStr"/>
+      <c r="AQ101" t="n">
+        <v>3191</v>
+      </c>
       <c r="AR101" t="inlineStr"/>
       <c r="AS101" t="inlineStr"/>
       <c r="AT101" t="inlineStr"/>
@@ -15806,7 +16110,8 @@
       <c r="AZ101" t="inlineStr"/>
       <c r="BA101" t="inlineStr"/>
       <c r="BB101" t="inlineStr"/>
-      <c r="BC101" t="n">
+      <c r="BC101" t="inlineStr"/>
+      <c r="BD101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15922,12 +16227,14 @@
         <v>1</v>
       </c>
       <c r="AK102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL102" t="n">
         <v>7200</v>
       </c>
-      <c r="AL102" t="n">
-        <v>33529</v>
-      </c>
-      <c r="AM102" t="inlineStr"/>
+      <c r="AM102" t="n">
+        <v>9700</v>
+      </c>
       <c r="AN102" t="inlineStr"/>
       <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr"/>
@@ -15943,7 +16250,8 @@
       <c r="AZ102" t="inlineStr"/>
       <c r="BA102" t="inlineStr"/>
       <c r="BB102" t="inlineStr"/>
-      <c r="BC102" t="n">
+      <c r="BC102" t="inlineStr"/>
+      <c r="BD102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16059,18 +16367,20 @@
         <v>0</v>
       </c>
       <c r="AK103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL103" t="n">
         <v>3600</v>
       </c>
-      <c r="AL103" t="n">
-        <v>174411</v>
-      </c>
       <c r="AM103" t="n">
+        <v>7300</v>
+      </c>
+      <c r="AN103" t="n">
         <v>1976285</v>
       </c>
-      <c r="AN103" t="n">
-        <v>110256</v>
-      </c>
-      <c r="AO103" t="inlineStr"/>
+      <c r="AO103" t="n">
+        <v>17429</v>
+      </c>
       <c r="AP103" t="inlineStr"/>
       <c r="AQ103" t="inlineStr"/>
       <c r="AR103" t="inlineStr"/>
@@ -16084,7 +16394,8 @@
       <c r="AZ103" t="inlineStr"/>
       <c r="BA103" t="inlineStr"/>
       <c r="BB103" t="inlineStr"/>
-      <c r="BC103" t="n">
+      <c r="BC103" t="inlineStr"/>
+      <c r="BD103" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16200,36 +16511,38 @@
         <v>1</v>
       </c>
       <c r="AK104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL104" t="n">
         <v>10800</v>
       </c>
-      <c r="AL104" t="n">
-        <v>22415</v>
-      </c>
       <c r="AM104" t="n">
+        <v>18639</v>
+      </c>
+      <c r="AN104" t="n">
         <v>96833</v>
       </c>
-      <c r="AN104" t="n">
-        <v>22304</v>
-      </c>
       <c r="AO104" t="n">
+        <v>17583</v>
+      </c>
+      <c r="AP104" t="n">
         <v>443254</v>
       </c>
-      <c r="AP104" t="n">
-        <v>19826</v>
-      </c>
       <c r="AQ104" t="n">
+        <v>22400</v>
+      </c>
+      <c r="AR104" t="n">
         <v>782610</v>
       </c>
-      <c r="AR104" t="n">
-        <v>17989</v>
-      </c>
       <c r="AS104" t="n">
+        <v>22437</v>
+      </c>
+      <c r="AT104" t="n">
         <v>4502367</v>
       </c>
-      <c r="AT104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU104" t="inlineStr"/>
+      <c r="AU104" t="n">
+        <v>0</v>
+      </c>
       <c r="AV104" t="inlineStr"/>
       <c r="AW104" t="inlineStr"/>
       <c r="AX104" t="inlineStr"/>
@@ -16237,7 +16550,8 @@
       <c r="AZ104" t="inlineStr"/>
       <c r="BA104" t="inlineStr"/>
       <c r="BB104" t="inlineStr"/>
-      <c r="BC104" t="n">
+      <c r="BC104" t="inlineStr"/>
+      <c r="BD104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16353,24 +16667,26 @@
         <v>0</v>
       </c>
       <c r="AK105" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL105" t="n">
         <v>18000</v>
       </c>
-      <c r="AL105" t="n">
-        <v>33707</v>
-      </c>
       <c r="AM105" t="n">
+        <v>11179</v>
+      </c>
+      <c r="AN105" t="n">
         <v>73269</v>
       </c>
-      <c r="AN105" t="n">
-        <v>33604</v>
-      </c>
       <c r="AO105" t="n">
+        <v>11453</v>
+      </c>
+      <c r="AP105" t="n">
         <v>764146</v>
       </c>
-      <c r="AP105" t="n">
-        <v>19704</v>
-      </c>
-      <c r="AQ105" t="inlineStr"/>
+      <c r="AQ105" t="n">
+        <v>3342</v>
+      </c>
       <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr"/>
       <c r="AT105" t="inlineStr"/>
@@ -16382,7 +16698,8 @@
       <c r="AZ105" t="inlineStr"/>
       <c r="BA105" t="inlineStr"/>
       <c r="BB105" t="inlineStr"/>
-      <c r="BC105" t="n">
+      <c r="BC105" t="inlineStr"/>
+      <c r="BD105" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16498,36 +16815,38 @@
         <v>1</v>
       </c>
       <c r="AK106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL106" t="n">
         <v>7200</v>
       </c>
-      <c r="AL106" t="n">
-        <v>34495</v>
-      </c>
       <c r="AM106" t="n">
+        <v>3661</v>
+      </c>
+      <c r="AN106" t="n">
         <v>17804</v>
       </c>
-      <c r="AN106" t="n">
-        <v>25881</v>
-      </c>
       <c r="AO106" t="n">
+        <v>7003</v>
+      </c>
+      <c r="AP106" t="n">
         <v>251311</v>
       </c>
-      <c r="AP106" t="n">
-        <v>26740</v>
-      </c>
       <c r="AQ106" t="n">
+        <v>12213</v>
+      </c>
+      <c r="AR106" t="n">
         <v>402001</v>
       </c>
-      <c r="AR106" t="n">
-        <v>32034</v>
-      </c>
       <c r="AS106" t="n">
+        <v>12485</v>
+      </c>
+      <c r="AT106" t="n">
         <v>749301</v>
       </c>
-      <c r="AT106" t="n">
-        <v>26780</v>
-      </c>
-      <c r="AU106" t="inlineStr"/>
+      <c r="AU106" t="n">
+        <v>6365</v>
+      </c>
       <c r="AV106" t="inlineStr"/>
       <c r="AW106" t="inlineStr"/>
       <c r="AX106" t="inlineStr"/>
@@ -16535,7 +16854,8 @@
       <c r="AZ106" t="inlineStr"/>
       <c r="BA106" t="inlineStr"/>
       <c r="BB106" t="inlineStr"/>
-      <c r="BC106" t="n">
+      <c r="BC106" t="inlineStr"/>
+      <c r="BD106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16651,30 +16971,32 @@
         <v>1</v>
       </c>
       <c r="AK107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL107" t="n">
         <v>7200</v>
       </c>
-      <c r="AL107" t="n">
-        <v>10723</v>
-      </c>
       <c r="AM107" t="n">
+        <v>10084</v>
+      </c>
+      <c r="AN107" t="n">
         <v>69750</v>
       </c>
-      <c r="AN107" t="n">
-        <v>36611</v>
-      </c>
       <c r="AO107" t="n">
+        <v>32322</v>
+      </c>
+      <c r="AP107" t="n">
         <v>396071</v>
       </c>
-      <c r="AP107" t="n">
-        <v>35408</v>
-      </c>
       <c r="AQ107" t="n">
+        <v>42163</v>
+      </c>
+      <c r="AR107" t="n">
         <v>1711140</v>
       </c>
-      <c r="AR107" t="n">
-        <v>4051</v>
-      </c>
-      <c r="AS107" t="inlineStr"/>
+      <c r="AS107" t="n">
+        <v>88306</v>
+      </c>
       <c r="AT107" t="inlineStr"/>
       <c r="AU107" t="inlineStr"/>
       <c r="AV107" t="inlineStr"/>
@@ -16684,7 +17006,8 @@
       <c r="AZ107" t="inlineStr"/>
       <c r="BA107" t="inlineStr"/>
       <c r="BB107" t="inlineStr"/>
-      <c r="BC107" t="n">
+      <c r="BC107" t="inlineStr"/>
+      <c r="BD107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16800,24 +17123,26 @@
         <v>0</v>
       </c>
       <c r="AK108" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL108" t="n">
         <v>86400</v>
       </c>
-      <c r="AL108" t="n">
-        <v>10541</v>
-      </c>
       <c r="AM108" t="n">
+        <v>4101</v>
+      </c>
+      <c r="AN108" t="n">
         <v>151055</v>
       </c>
-      <c r="AN108" t="n">
-        <v>10085</v>
-      </c>
       <c r="AO108" t="n">
+        <v>6057</v>
+      </c>
+      <c r="AP108" t="n">
         <v>747817</v>
       </c>
-      <c r="AP108" t="n">
-        <v>7998</v>
-      </c>
-      <c r="AQ108" t="inlineStr"/>
+      <c r="AQ108" t="n">
+        <v>3202</v>
+      </c>
       <c r="AR108" t="inlineStr"/>
       <c r="AS108" t="inlineStr"/>
       <c r="AT108" t="inlineStr"/>
@@ -16829,7 +17154,8 @@
       <c r="AZ108" t="inlineStr"/>
       <c r="BA108" t="inlineStr"/>
       <c r="BB108" t="inlineStr"/>
-      <c r="BC108" t="n">
+      <c r="BC108" t="inlineStr"/>
+      <c r="BD108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16945,30 +17271,32 @@
         <v>1</v>
       </c>
       <c r="AK109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL109" t="n">
         <v>10800</v>
       </c>
-      <c r="AL109" t="n">
-        <v>5353</v>
-      </c>
       <c r="AM109" t="n">
+        <v>762</v>
+      </c>
+      <c r="AN109" t="n">
         <v>42391</v>
       </c>
-      <c r="AN109" t="n">
-        <v>5427</v>
-      </c>
       <c r="AO109" t="n">
+        <v>1644</v>
+      </c>
+      <c r="AP109" t="n">
         <v>103777</v>
       </c>
-      <c r="AP109" t="n">
-        <v>5270</v>
-      </c>
       <c r="AQ109" t="n">
+        <v>1763</v>
+      </c>
+      <c r="AR109" t="n">
         <v>363948</v>
       </c>
-      <c r="AR109" t="n">
-        <v>5461</v>
-      </c>
-      <c r="AS109" t="inlineStr"/>
+      <c r="AS109" t="n">
+        <v>4605</v>
+      </c>
       <c r="AT109" t="inlineStr"/>
       <c r="AU109" t="inlineStr"/>
       <c r="AV109" t="inlineStr"/>
@@ -16978,7 +17306,8 @@
       <c r="AZ109" t="inlineStr"/>
       <c r="BA109" t="inlineStr"/>
       <c r="BB109" t="inlineStr"/>
-      <c r="BC109" t="n">
+      <c r="BC109" t="inlineStr"/>
+      <c r="BD109" t="n">
         <v>2</v>
       </c>
     </row>
@@ -17094,36 +17423,38 @@
         <v>1</v>
       </c>
       <c r="AK110" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AL110" t="n">
         <v>16200</v>
       </c>
-      <c r="AL110" t="n">
-        <v>31112</v>
-      </c>
       <c r="AM110" t="n">
+        <v>13402</v>
+      </c>
+      <c r="AN110" t="n">
         <v>49822</v>
       </c>
-      <c r="AN110" t="n">
-        <v>84069</v>
-      </c>
       <c r="AO110" t="n">
+        <v>54354</v>
+      </c>
+      <c r="AP110" t="n">
         <v>128845</v>
       </c>
-      <c r="AP110" t="n">
-        <v>87657</v>
-      </c>
       <c r="AQ110" t="n">
+        <v>71265</v>
+      </c>
+      <c r="AR110" t="n">
         <v>491058</v>
       </c>
-      <c r="AR110" t="n">
-        <v>84723</v>
-      </c>
       <c r="AS110" t="n">
+        <v>57072</v>
+      </c>
+      <c r="AT110" t="n">
         <v>1011895</v>
       </c>
-      <c r="AT110" t="n">
-        <v>76241</v>
-      </c>
-      <c r="AU110" t="inlineStr"/>
+      <c r="AU110" t="n">
+        <v>51239</v>
+      </c>
       <c r="AV110" t="inlineStr"/>
       <c r="AW110" t="inlineStr"/>
       <c r="AX110" t="inlineStr"/>
@@ -17131,7 +17462,8 @@
       <c r="AZ110" t="inlineStr"/>
       <c r="BA110" t="inlineStr"/>
       <c r="BB110" t="inlineStr"/>
-      <c r="BC110" t="n">
+      <c r="BC110" t="inlineStr"/>
+      <c r="BD110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17247,30 +17579,32 @@
         <v>1</v>
       </c>
       <c r="AK111" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AL111" t="n">
         <v>1188</v>
       </c>
-      <c r="AL111" t="n">
-        <v>5350</v>
-      </c>
       <c r="AM111" t="n">
+        <v>3497</v>
+      </c>
+      <c r="AN111" t="n">
         <v>61567</v>
       </c>
-      <c r="AN111" t="n">
-        <v>4242</v>
-      </c>
       <c r="AO111" t="n">
+        <v>6618</v>
+      </c>
+      <c r="AP111" t="n">
         <v>422626</v>
       </c>
-      <c r="AP111" t="n">
-        <v>3435</v>
-      </c>
       <c r="AQ111" t="n">
+        <v>11664</v>
+      </c>
+      <c r="AR111" t="n">
         <v>771931</v>
       </c>
-      <c r="AR111" t="n">
-        <v>3473</v>
-      </c>
-      <c r="AS111" t="inlineStr"/>
+      <c r="AS111" t="n">
+        <v>10201</v>
+      </c>
       <c r="AT111" t="inlineStr"/>
       <c r="AU111" t="inlineStr"/>
       <c r="AV111" t="inlineStr"/>
@@ -17280,7 +17614,8 @@
       <c r="AZ111" t="inlineStr"/>
       <c r="BA111" t="inlineStr"/>
       <c r="BB111" t="inlineStr"/>
-      <c r="BC111" t="n">
+      <c r="BC111" t="inlineStr"/>
+      <c r="BD111" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17396,24 +17731,26 @@
         <v>1</v>
       </c>
       <c r="AK112" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL112" t="n">
         <v>50400</v>
       </c>
-      <c r="AL112" t="n">
-        <v>44147</v>
-      </c>
       <c r="AM112" t="n">
+        <v>33501</v>
+      </c>
+      <c r="AN112" t="n">
         <v>179057</v>
       </c>
-      <c r="AN112" t="n">
-        <v>44665</v>
-      </c>
       <c r="AO112" t="n">
+        <v>34596</v>
+      </c>
+      <c r="AP112" t="n">
         <v>435228</v>
       </c>
-      <c r="AP112" t="n">
-        <v>40967</v>
-      </c>
-      <c r="AQ112" t="inlineStr"/>
+      <c r="AQ112" t="n">
+        <v>60482</v>
+      </c>
       <c r="AR112" t="inlineStr"/>
       <c r="AS112" t="inlineStr"/>
       <c r="AT112" t="inlineStr"/>
@@ -17425,7 +17762,8 @@
       <c r="AZ112" t="inlineStr"/>
       <c r="BA112" t="inlineStr"/>
       <c r="BB112" t="inlineStr"/>
-      <c r="BC112" t="n">
+      <c r="BC112" t="inlineStr"/>
+      <c r="BD112" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17541,36 +17879,38 @@
         <v>1</v>
       </c>
       <c r="AK113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL113" t="n">
         <v>5400</v>
       </c>
-      <c r="AL113" t="n">
-        <v>47240</v>
-      </c>
       <c r="AM113" t="n">
+        <v>38120</v>
+      </c>
+      <c r="AN113" t="n">
         <v>37041</v>
       </c>
-      <c r="AN113" t="n">
-        <v>72389</v>
-      </c>
       <c r="AO113" t="n">
+        <v>63495</v>
+      </c>
+      <c r="AP113" t="n">
         <v>131107</v>
       </c>
-      <c r="AP113" t="n">
-        <v>81584</v>
-      </c>
       <c r="AQ113" t="n">
+        <v>57174</v>
+      </c>
+      <c r="AR113" t="n">
         <v>637973</v>
       </c>
-      <c r="AR113" t="n">
-        <v>65787</v>
-      </c>
       <c r="AS113" t="n">
+        <v>116414</v>
+      </c>
+      <c r="AT113" t="n">
         <v>1048209</v>
       </c>
-      <c r="AT113" t="n">
-        <v>32697</v>
-      </c>
-      <c r="AU113" t="inlineStr"/>
+      <c r="AU113" t="n">
+        <v>14664</v>
+      </c>
       <c r="AV113" t="inlineStr"/>
       <c r="AW113" t="inlineStr"/>
       <c r="AX113" t="inlineStr"/>
@@ -17578,7 +17918,8 @@
       <c r="AZ113" t="inlineStr"/>
       <c r="BA113" t="inlineStr"/>
       <c r="BB113" t="inlineStr"/>
-      <c r="BC113" t="n">
+      <c r="BC113" t="inlineStr"/>
+      <c r="BD113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17694,36 +18035,38 @@
         <v>1</v>
       </c>
       <c r="AK114" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL114" t="n">
         <v>10800</v>
       </c>
-      <c r="AL114" t="n">
-        <v>28400</v>
-      </c>
       <c r="AM114" t="n">
+        <v>25806</v>
+      </c>
+      <c r="AN114" t="n">
         <v>82745</v>
       </c>
-      <c r="AN114" t="n">
-        <v>29375</v>
-      </c>
       <c r="AO114" t="n">
+        <v>27125</v>
+      </c>
+      <c r="AP114" t="n">
         <v>238653</v>
       </c>
-      <c r="AP114" t="n">
-        <v>23377</v>
-      </c>
       <c r="AQ114" t="n">
+        <v>32672</v>
+      </c>
+      <c r="AR114" t="n">
         <v>427848</v>
       </c>
-      <c r="AR114" t="n">
-        <v>23150</v>
-      </c>
       <c r="AS114" t="n">
+        <v>26229</v>
+      </c>
+      <c r="AT114" t="n">
         <v>1466000</v>
       </c>
-      <c r="AT114" t="n">
-        <v>2379</v>
-      </c>
-      <c r="AU114" t="inlineStr"/>
+      <c r="AU114" t="n">
+        <v>4034</v>
+      </c>
       <c r="AV114" t="inlineStr"/>
       <c r="AW114" t="inlineStr"/>
       <c r="AX114" t="inlineStr"/>
@@ -17731,7 +18074,8 @@
       <c r="AZ114" t="inlineStr"/>
       <c r="BA114" t="inlineStr"/>
       <c r="BB114" t="inlineStr"/>
-      <c r="BC114" t="n">
+      <c r="BC114" t="inlineStr"/>
+      <c r="BD114" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17847,48 +18191,51 @@
         <v>1</v>
       </c>
       <c r="AK115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL115" t="n">
         <v>5400</v>
       </c>
-      <c r="AL115" t="n">
-        <v>33686</v>
-      </c>
       <c r="AM115" t="n">
+        <v>28944</v>
+      </c>
+      <c r="AN115" t="n">
         <v>98818</v>
       </c>
-      <c r="AN115" t="n">
-        <v>34173</v>
-      </c>
       <c r="AO115" t="n">
+        <v>34246</v>
+      </c>
+      <c r="AP115" t="n">
         <v>354557</v>
       </c>
-      <c r="AP115" t="n">
-        <v>37949</v>
-      </c>
       <c r="AQ115" t="n">
+        <v>16214</v>
+      </c>
+      <c r="AR115" t="n">
         <v>1151763</v>
       </c>
-      <c r="AR115" t="n">
-        <v>38071</v>
-      </c>
       <c r="AS115" t="n">
+        <v>6968</v>
+      </c>
+      <c r="AT115" t="n">
         <v>2258722</v>
       </c>
-      <c r="AT115" t="n">
-        <v>919</v>
-      </c>
       <c r="AU115" t="n">
+        <v>5123</v>
+      </c>
+      <c r="AV115" t="n">
         <v>29042775</v>
       </c>
-      <c r="AV115" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW115" t="inlineStr"/>
+      <c r="AW115" t="n">
+        <v>0</v>
+      </c>
       <c r="AX115" t="inlineStr"/>
       <c r="AY115" t="inlineStr"/>
       <c r="AZ115" t="inlineStr"/>
       <c r="BA115" t="inlineStr"/>
       <c r="BB115" t="inlineStr"/>
-      <c r="BC115" t="n">
+      <c r="BC115" t="inlineStr"/>
+      <c r="BD115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18004,24 +18351,26 @@
         <v>0</v>
       </c>
       <c r="AK116" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL116" t="n">
         <v>43200</v>
       </c>
-      <c r="AL116" t="n">
-        <v>13431</v>
-      </c>
       <c r="AM116" t="n">
+        <v>1097</v>
+      </c>
+      <c r="AN116" t="n">
         <v>183563</v>
       </c>
-      <c r="AN116" t="n">
-        <v>11980</v>
-      </c>
       <c r="AO116" t="n">
+        <v>5288</v>
+      </c>
+      <c r="AP116" t="n">
         <v>695654</v>
       </c>
-      <c r="AP116" t="n">
-        <v>6894</v>
-      </c>
-      <c r="AQ116" t="inlineStr"/>
+      <c r="AQ116" t="n">
+        <v>404</v>
+      </c>
       <c r="AR116" t="inlineStr"/>
       <c r="AS116" t="inlineStr"/>
       <c r="AT116" t="inlineStr"/>
@@ -18033,7 +18382,8 @@
       <c r="AZ116" t="inlineStr"/>
       <c r="BA116" t="inlineStr"/>
       <c r="BB116" t="inlineStr"/>
-      <c r="BC116" t="n">
+      <c r="BC116" t="inlineStr"/>
+      <c r="BD116" t="n">
         <v>2</v>
       </c>
     </row>
@@ -18149,48 +18499,51 @@
         <v>1</v>
       </c>
       <c r="AK117" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL117" t="n">
         <v>5400</v>
       </c>
-      <c r="AL117" t="n">
-        <v>1314</v>
-      </c>
       <c r="AM117" t="n">
+        <v>118</v>
+      </c>
+      <c r="AN117" t="n">
         <v>27929</v>
       </c>
-      <c r="AN117" t="n">
-        <v>1357</v>
-      </c>
       <c r="AO117" t="n">
+        <v>38</v>
+      </c>
+      <c r="AP117" t="n">
         <v>77924</v>
       </c>
-      <c r="AP117" t="n">
-        <v>1257</v>
-      </c>
       <c r="AQ117" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR117" t="n">
         <v>679220</v>
       </c>
-      <c r="AR117" t="n">
-        <v>336</v>
-      </c>
       <c r="AS117" t="n">
+        <v>98</v>
+      </c>
+      <c r="AT117" t="n">
         <v>1630447</v>
       </c>
-      <c r="AT117" t="n">
-        <v>0</v>
-      </c>
       <c r="AU117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV117" t="n">
         <v>5262989</v>
       </c>
-      <c r="AV117" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW117" t="inlineStr"/>
+      <c r="AW117" t="n">
+        <v>0</v>
+      </c>
       <c r="AX117" t="inlineStr"/>
       <c r="AY117" t="inlineStr"/>
       <c r="AZ117" t="inlineStr"/>
       <c r="BA117" t="inlineStr"/>
       <c r="BB117" t="inlineStr"/>
-      <c r="BC117" t="n">
+      <c r="BC117" t="inlineStr"/>
+      <c r="BD117" t="n">
         <v>2</v>
       </c>
     </row>
@@ -18306,30 +18659,32 @@
         <v>1</v>
       </c>
       <c r="AK118" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AL118" t="n">
         <v>1080</v>
       </c>
-      <c r="AL118" t="n">
-        <v>28457</v>
-      </c>
       <c r="AM118" t="n">
+        <v>9837</v>
+      </c>
+      <c r="AN118" t="n">
         <v>31907</v>
       </c>
-      <c r="AN118" t="n">
-        <v>50143</v>
-      </c>
       <c r="AO118" t="n">
+        <v>32668</v>
+      </c>
+      <c r="AP118" t="n">
         <v>83358</v>
       </c>
-      <c r="AP118" t="n">
-        <v>50191</v>
-      </c>
       <c r="AQ118" t="n">
+        <v>39708</v>
+      </c>
+      <c r="AR118" t="n">
         <v>255329</v>
       </c>
-      <c r="AR118" t="n">
-        <v>46665</v>
-      </c>
-      <c r="AS118" t="inlineStr"/>
+      <c r="AS118" t="n">
+        <v>46431</v>
+      </c>
       <c r="AT118" t="inlineStr"/>
       <c r="AU118" t="inlineStr"/>
       <c r="AV118" t="inlineStr"/>
@@ -18339,7 +18694,8 @@
       <c r="AZ118" t="inlineStr"/>
       <c r="BA118" t="inlineStr"/>
       <c r="BB118" t="inlineStr"/>
-      <c r="BC118" t="n">
+      <c r="BC118" t="inlineStr"/>
+      <c r="BD118" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18455,30 +18811,32 @@
         <v>1</v>
       </c>
       <c r="AK119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL119" t="n">
         <v>7200</v>
       </c>
-      <c r="AL119" t="n">
-        <v>23003</v>
-      </c>
       <c r="AM119" t="n">
+        <v>4137</v>
+      </c>
+      <c r="AN119" t="n">
         <v>186863</v>
       </c>
-      <c r="AN119" t="n">
-        <v>20625</v>
-      </c>
       <c r="AO119" t="n">
+        <v>8607</v>
+      </c>
+      <c r="AP119" t="n">
         <v>787645</v>
       </c>
-      <c r="AP119" t="n">
-        <v>13463</v>
-      </c>
       <c r="AQ119" t="n">
+        <v>4721</v>
+      </c>
+      <c r="AR119" t="n">
         <v>2339803</v>
       </c>
-      <c r="AR119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS119" t="inlineStr"/>
+      <c r="AS119" t="n">
+        <v>14902</v>
+      </c>
       <c r="AT119" t="inlineStr"/>
       <c r="AU119" t="inlineStr"/>
       <c r="AV119" t="inlineStr"/>
@@ -18488,7 +18846,8 @@
       <c r="AZ119" t="inlineStr"/>
       <c r="BA119" t="inlineStr"/>
       <c r="BB119" t="inlineStr"/>
-      <c r="BC119" t="n">
+      <c r="BC119" t="inlineStr"/>
+      <c r="BD119" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18604,18 +18963,20 @@
         <v>1</v>
       </c>
       <c r="AK120" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL120" t="n">
         <v>10800</v>
       </c>
-      <c r="AL120" t="n">
-        <v>53622</v>
-      </c>
       <c r="AM120" t="n">
+        <v>12928</v>
+      </c>
+      <c r="AN120" t="n">
         <v>31789</v>
       </c>
-      <c r="AN120" t="n">
-        <v>41796</v>
-      </c>
-      <c r="AO120" t="inlineStr"/>
+      <c r="AO120" t="n">
+        <v>8780</v>
+      </c>
       <c r="AP120" t="inlineStr"/>
       <c r="AQ120" t="inlineStr"/>
       <c r="AR120" t="inlineStr"/>
@@ -18629,7 +18990,8 @@
       <c r="AZ120" t="inlineStr"/>
       <c r="BA120" t="inlineStr"/>
       <c r="BB120" t="inlineStr"/>
-      <c r="BC120" t="n">
+      <c r="BC120" t="inlineStr"/>
+      <c r="BD120" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18745,18 +19107,20 @@
         <v>1</v>
       </c>
       <c r="AK121" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL121" t="n">
         <v>86400</v>
       </c>
-      <c r="AL121" t="n">
-        <v>8248</v>
-      </c>
       <c r="AM121" t="n">
+        <v>7909</v>
+      </c>
+      <c r="AN121" t="n">
         <v>170319</v>
       </c>
-      <c r="AN121" t="n">
-        <v>7618</v>
-      </c>
-      <c r="AO121" t="inlineStr"/>
+      <c r="AO121" t="n">
+        <v>8207</v>
+      </c>
       <c r="AP121" t="inlineStr"/>
       <c r="AQ121" t="inlineStr"/>
       <c r="AR121" t="inlineStr"/>
@@ -18770,7 +19134,8 @@
       <c r="AZ121" t="inlineStr"/>
       <c r="BA121" t="inlineStr"/>
       <c r="BB121" t="inlineStr"/>
-      <c r="BC121" t="n">
+      <c r="BC121" t="inlineStr"/>
+      <c r="BD121" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18886,24 +19251,26 @@
         <v>1</v>
       </c>
       <c r="AK122" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL122" t="n">
         <v>7200</v>
       </c>
-      <c r="AL122" t="n">
-        <v>57608</v>
-      </c>
       <c r="AM122" t="n">
+        <v>25187</v>
+      </c>
+      <c r="AN122" t="n">
         <v>29629</v>
       </c>
-      <c r="AN122" t="n">
-        <v>105657</v>
-      </c>
       <c r="AO122" t="n">
+        <v>33038</v>
+      </c>
+      <c r="AP122" t="n">
         <v>112169</v>
       </c>
-      <c r="AP122" t="n">
-        <v>90919</v>
-      </c>
-      <c r="AQ122" t="inlineStr"/>
+      <c r="AQ122" t="n">
+        <v>32200</v>
+      </c>
       <c r="AR122" t="inlineStr"/>
       <c r="AS122" t="inlineStr"/>
       <c r="AT122" t="inlineStr"/>
@@ -18915,7 +19282,8 @@
       <c r="AZ122" t="inlineStr"/>
       <c r="BA122" t="inlineStr"/>
       <c r="BB122" t="inlineStr"/>
-      <c r="BC122" t="n">
+      <c r="BC122" t="inlineStr"/>
+      <c r="BD122" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19031,24 +19399,26 @@
         <v>1</v>
       </c>
       <c r="AK123" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL123" t="n">
         <v>14400</v>
       </c>
-      <c r="AL123" t="n">
-        <v>121434</v>
-      </c>
       <c r="AM123" t="n">
+        <v>21341</v>
+      </c>
+      <c r="AN123" t="n">
         <v>68462</v>
       </c>
-      <c r="AN123" t="n">
-        <v>10582</v>
-      </c>
       <c r="AO123" t="n">
+        <v>9073</v>
+      </c>
+      <c r="AP123" t="n">
         <v>678219</v>
       </c>
-      <c r="AP123" t="n">
-        <v>8137</v>
-      </c>
-      <c r="AQ123" t="inlineStr"/>
+      <c r="AQ123" t="n">
+        <v>22191</v>
+      </c>
       <c r="AR123" t="inlineStr"/>
       <c r="AS123" t="inlineStr"/>
       <c r="AT123" t="inlineStr"/>
@@ -19060,7 +19430,8 @@
       <c r="AZ123" t="inlineStr"/>
       <c r="BA123" t="inlineStr"/>
       <c r="BB123" t="inlineStr"/>
-      <c r="BC123" t="n">
+      <c r="BC123" t="inlineStr"/>
+      <c r="BD123" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19176,24 +19547,26 @@
         <v>1</v>
       </c>
       <c r="AK124" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL124" t="n">
         <v>25200</v>
       </c>
-      <c r="AL124" t="n">
-        <v>81478</v>
-      </c>
       <c r="AM124" t="n">
+        <v>56109</v>
+      </c>
+      <c r="AN124" t="n">
         <v>154504</v>
       </c>
-      <c r="AN124" t="n">
-        <v>82506</v>
-      </c>
       <c r="AO124" t="n">
+        <v>37111</v>
+      </c>
+      <c r="AP124" t="n">
         <v>231913</v>
       </c>
-      <c r="AP124" t="n">
-        <v>76857</v>
-      </c>
-      <c r="AQ124" t="inlineStr"/>
+      <c r="AQ124" t="n">
+        <v>59082</v>
+      </c>
       <c r="AR124" t="inlineStr"/>
       <c r="AS124" t="inlineStr"/>
       <c r="AT124" t="inlineStr"/>
@@ -19205,7 +19578,8 @@
       <c r="AZ124" t="inlineStr"/>
       <c r="BA124" t="inlineStr"/>
       <c r="BB124" t="inlineStr"/>
-      <c r="BC124" t="n">
+      <c r="BC124" t="inlineStr"/>
+      <c r="BD124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19321,36 +19695,38 @@
         <v>1</v>
       </c>
       <c r="AK125" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL125" t="n">
         <v>75600</v>
       </c>
-      <c r="AL125" t="n">
-        <v>22194</v>
-      </c>
       <c r="AM125" t="n">
+        <v>11576</v>
+      </c>
+      <c r="AN125" t="n">
         <v>233339</v>
       </c>
-      <c r="AN125" t="n">
-        <v>20597</v>
-      </c>
       <c r="AO125" t="n">
+        <v>19641</v>
+      </c>
+      <c r="AP125" t="n">
         <v>510536</v>
       </c>
-      <c r="AP125" t="n">
-        <v>20853</v>
-      </c>
       <c r="AQ125" t="n">
+        <v>21113</v>
+      </c>
+      <c r="AR125" t="n">
         <v>673664</v>
       </c>
-      <c r="AR125" t="n">
-        <v>15529</v>
-      </c>
       <c r="AS125" t="n">
+        <v>13895</v>
+      </c>
+      <c r="AT125" t="n">
         <v>1291780</v>
       </c>
-      <c r="AT125" t="n">
-        <v>1601</v>
-      </c>
-      <c r="AU125" t="inlineStr"/>
+      <c r="AU125" t="n">
+        <v>61733</v>
+      </c>
       <c r="AV125" t="inlineStr"/>
       <c r="AW125" t="inlineStr"/>
       <c r="AX125" t="inlineStr"/>
@@ -19358,7 +19734,8 @@
       <c r="AZ125" t="inlineStr"/>
       <c r="BA125" t="inlineStr"/>
       <c r="BB125" t="inlineStr"/>
-      <c r="BC125" t="n">
+      <c r="BC125" t="inlineStr"/>
+      <c r="BD125" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19474,48 +19851,51 @@
         <v>1</v>
       </c>
       <c r="AK126" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AL126" t="n">
         <v>11880</v>
       </c>
-      <c r="AL126" t="n">
-        <v>39872</v>
-      </c>
       <c r="AM126" t="n">
+        <v>25699</v>
+      </c>
+      <c r="AN126" t="n">
         <v>124139</v>
       </c>
-      <c r="AN126" t="n">
-        <v>43120</v>
-      </c>
       <c r="AO126" t="n">
+        <v>52007</v>
+      </c>
+      <c r="AP126" t="n">
         <v>735039</v>
       </c>
-      <c r="AP126" t="n">
-        <v>24418</v>
-      </c>
       <c r="AQ126" t="n">
+        <v>97158</v>
+      </c>
+      <c r="AR126" t="n">
         <v>1335092</v>
       </c>
-      <c r="AR126" t="n">
-        <v>12215</v>
-      </c>
       <c r="AS126" t="n">
+        <v>114352</v>
+      </c>
+      <c r="AT126" t="n">
         <v>1678275</v>
       </c>
-      <c r="AT126" t="n">
-        <v>8717</v>
-      </c>
       <c r="AU126" t="n">
+        <v>109019</v>
+      </c>
+      <c r="AV126" t="n">
         <v>9285528</v>
       </c>
-      <c r="AV126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW126" t="inlineStr"/>
+      <c r="AW126" t="n">
+        <v>0</v>
+      </c>
       <c r="AX126" t="inlineStr"/>
       <c r="AY126" t="inlineStr"/>
       <c r="AZ126" t="inlineStr"/>
       <c r="BA126" t="inlineStr"/>
       <c r="BB126" t="inlineStr"/>
-      <c r="BC126" t="n">
+      <c r="BC126" t="inlineStr"/>
+      <c r="BD126" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19631,30 +20011,32 @@
         <v>1</v>
       </c>
       <c r="AK127" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AL127" t="n">
         <v>19800</v>
       </c>
-      <c r="AL127" t="n">
-        <v>32559</v>
-      </c>
       <c r="AM127" t="n">
+        <v>8968</v>
+      </c>
+      <c r="AN127" t="n">
         <v>89575</v>
       </c>
-      <c r="AN127" t="n">
-        <v>35138</v>
-      </c>
       <c r="AO127" t="n">
+        <v>12860</v>
+      </c>
+      <c r="AP127" t="n">
         <v>452217</v>
       </c>
-      <c r="AP127" t="n">
-        <v>34241</v>
-      </c>
       <c r="AQ127" t="n">
+        <v>13716</v>
+      </c>
+      <c r="AR127" t="n">
         <v>1055942</v>
       </c>
-      <c r="AR127" t="n">
-        <v>14377</v>
-      </c>
-      <c r="AS127" t="inlineStr"/>
+      <c r="AS127" t="n">
+        <v>12709</v>
+      </c>
       <c r="AT127" t="inlineStr"/>
       <c r="AU127" t="inlineStr"/>
       <c r="AV127" t="inlineStr"/>
@@ -19664,7 +20046,8 @@
       <c r="AZ127" t="inlineStr"/>
       <c r="BA127" t="inlineStr"/>
       <c r="BB127" t="inlineStr"/>
-      <c r="BC127" t="n">
+      <c r="BC127" t="inlineStr"/>
+      <c r="BD127" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19780,30 +20163,32 @@
         <v>1</v>
       </c>
       <c r="AK128" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AL128" t="n">
         <v>1800</v>
       </c>
-      <c r="AL128" t="n">
-        <v>18150</v>
-      </c>
       <c r="AM128" t="n">
+        <v>409</v>
+      </c>
+      <c r="AN128" t="n">
         <v>4920</v>
       </c>
-      <c r="AN128" t="n">
-        <v>37650</v>
-      </c>
       <c r="AO128" t="n">
+        <v>3742</v>
+      </c>
+      <c r="AP128" t="n">
         <v>25620</v>
       </c>
-      <c r="AP128" t="n">
-        <v>140688</v>
-      </c>
       <c r="AQ128" t="n">
+        <v>53311</v>
+      </c>
+      <c r="AR128" t="n">
         <v>72240</v>
       </c>
-      <c r="AR128" t="n">
-        <v>123926</v>
-      </c>
-      <c r="AS128" t="inlineStr"/>
+      <c r="AS128" t="n">
+        <v>29545</v>
+      </c>
       <c r="AT128" t="inlineStr"/>
       <c r="AU128" t="inlineStr"/>
       <c r="AV128" t="inlineStr"/>
@@ -19813,7 +20198,8 @@
       <c r="AZ128" t="inlineStr"/>
       <c r="BA128" t="inlineStr"/>
       <c r="BB128" t="inlineStr"/>
-      <c r="BC128" t="n">
+      <c r="BC128" t="inlineStr"/>
+      <c r="BD128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19929,30 +20315,32 @@
         <v>1</v>
       </c>
       <c r="AK129" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AL129" t="n">
         <v>10080</v>
       </c>
-      <c r="AL129" t="n">
-        <v>27969</v>
-      </c>
       <c r="AM129" t="n">
+        <v>17948</v>
+      </c>
+      <c r="AN129" t="n">
         <v>66180</v>
       </c>
-      <c r="AN129" t="n">
-        <v>27071</v>
-      </c>
       <c r="AO129" t="n">
+        <v>21099</v>
+      </c>
+      <c r="AP129" t="n">
         <v>256680</v>
       </c>
-      <c r="AP129" t="n">
-        <v>24119</v>
-      </c>
       <c r="AQ129" t="n">
+        <v>44069</v>
+      </c>
+      <c r="AR129" t="n">
         <v>1111140</v>
       </c>
-      <c r="AR129" t="n">
-        <v>3647</v>
-      </c>
-      <c r="AS129" t="inlineStr"/>
+      <c r="AS129" t="n">
+        <v>64243</v>
+      </c>
       <c r="AT129" t="inlineStr"/>
       <c r="AU129" t="inlineStr"/>
       <c r="AV129" t="inlineStr"/>
@@ -19962,7 +20350,8 @@
       <c r="AZ129" t="inlineStr"/>
       <c r="BA129" t="inlineStr"/>
       <c r="BB129" t="inlineStr"/>
-      <c r="BC129" t="n">
+      <c r="BC129" t="inlineStr"/>
+      <c r="BD129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20078,18 +20467,20 @@
         <v>1</v>
       </c>
       <c r="AK130" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL130" t="n">
         <v>10800</v>
       </c>
-      <c r="AL130" t="n">
-        <v>53154</v>
-      </c>
       <c r="AM130" t="n">
+        <v>14430</v>
+      </c>
+      <c r="AN130" t="n">
         <v>95520</v>
       </c>
-      <c r="AN130" t="n">
-        <v>126642</v>
-      </c>
-      <c r="AO130" t="inlineStr"/>
+      <c r="AO130" t="n">
+        <v>19019</v>
+      </c>
       <c r="AP130" t="inlineStr"/>
       <c r="AQ130" t="inlineStr"/>
       <c r="AR130" t="inlineStr"/>
@@ -20103,7 +20494,8 @@
       <c r="AZ130" t="inlineStr"/>
       <c r="BA130" t="inlineStr"/>
       <c r="BB130" t="inlineStr"/>
-      <c r="BC130" t="n">
+      <c r="BC130" t="inlineStr"/>
+      <c r="BD130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20219,18 +20611,20 @@
         <v>1</v>
       </c>
       <c r="AK131" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL131" t="n">
         <v>14400</v>
       </c>
-      <c r="AL131" t="n">
-        <v>49019</v>
-      </c>
       <c r="AM131" t="n">
+        <v>18622</v>
+      </c>
+      <c r="AN131" t="n">
         <v>62940</v>
       </c>
-      <c r="AN131" t="n">
-        <v>100470</v>
-      </c>
-      <c r="AO131" t="inlineStr"/>
+      <c r="AO131" t="n">
+        <v>28683</v>
+      </c>
       <c r="AP131" t="inlineStr"/>
       <c r="AQ131" t="inlineStr"/>
       <c r="AR131" t="inlineStr"/>
@@ -20244,7 +20638,8 @@
       <c r="AZ131" t="inlineStr"/>
       <c r="BA131" t="inlineStr"/>
       <c r="BB131" t="inlineStr"/>
-      <c r="BC131" t="n">
+      <c r="BC131" t="inlineStr"/>
+      <c r="BD131" t="n">
         <v>1</v>
       </c>
     </row>

--- a/q24/含分组信息数据.xlsx
+++ b/q24/含分组信息数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD131"/>
+  <dimension ref="A1:BC131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,100 +616,95 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>发病到首次影像检查时间间隔</t>
+          <t>入院首次影像检查流水号</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>入院首次影像检查流水号</t>
+          <t>HM_volume</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>ED_volume.0</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>随访1流水号</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>HM_volume.1</t>
+        </is>
+      </c>
       <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>ED_volume.1</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>随访2流水号</t>
         </is>
       </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>HM_volume.2</t>
+        </is>
+      </c>
       <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>ED_volume.2</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>随访3流水号</t>
         </is>
       </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>HM_volume.3</t>
+        </is>
+      </c>
       <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>ED_volume.3</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>随访4流水号</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>HM_volume.4</t>
+        </is>
+      </c>
       <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>ED_volume.4</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>随访5流水号</t>
         </is>
       </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>HM_volume.5</t>
+        </is>
+      </c>
       <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>ED_volume.5</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>随访6流水号</t>
         </is>
       </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>HM_volume.6</t>
+        </is>
+      </c>
       <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>ED_volume.6</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>随访7流水号</t>
         </is>
       </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>HM_volume.7</t>
+        </is>
+      </c>
       <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>ED_volume.7</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>随访8流水号</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>HM_volume.8</t>
+        </is>
+      </c>
       <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>ED_volume.8</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>分组信息</t>
         </is>
@@ -827,38 +822,36 @@
         <v>1</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.5</v>
+        <v>9000</v>
       </c>
       <c r="AL2" t="n">
-        <v>9000</v>
+        <v>69714</v>
       </c>
       <c r="AM2" t="n">
-        <v>48919</v>
+        <v>29766</v>
       </c>
       <c r="AN2" t="n">
-        <v>29766</v>
+        <v>74902</v>
       </c>
       <c r="AO2" t="n">
-        <v>57898</v>
+        <v>475590</v>
       </c>
       <c r="AP2" t="n">
-        <v>475590</v>
+        <v>70952</v>
       </c>
       <c r="AQ2" t="n">
-        <v>81747</v>
+        <v>935055</v>
       </c>
       <c r="AR2" t="n">
-        <v>935055</v>
+        <v>62831</v>
       </c>
       <c r="AS2" t="n">
-        <v>107793</v>
+        <v>1531938</v>
       </c>
       <c r="AT2" t="n">
-        <v>1531938</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>126558</v>
-      </c>
+        <v>44029</v>
+      </c>
+      <c r="AU2" t="inlineStr"/>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="inlineStr"/>
       <c r="AX2" t="inlineStr"/>
@@ -866,8 +859,7 @@
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="inlineStr"/>
       <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="n">
+      <c r="BC2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -983,38 +975,36 @@
         <v>1</v>
       </c>
       <c r="AK3" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL3" t="n">
-        <v>10800</v>
+        <v>47500</v>
       </c>
       <c r="AM3" t="n">
-        <v>23526</v>
+        <v>53724</v>
       </c>
       <c r="AN3" t="n">
-        <v>53724</v>
+        <v>52271</v>
       </c>
       <c r="AO3" t="n">
-        <v>23390</v>
+        <v>249199</v>
       </c>
       <c r="AP3" t="n">
-        <v>249199</v>
+        <v>47748</v>
       </c>
       <c r="AQ3" t="n">
-        <v>28415</v>
+        <v>1612859</v>
       </c>
       <c r="AR3" t="n">
-        <v>1612859</v>
+        <v>13055</v>
       </c>
       <c r="AS3" t="n">
-        <v>34868</v>
+        <v>4029091</v>
       </c>
       <c r="AT3" t="n">
-        <v>4029091</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="inlineStr"/>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="inlineStr"/>
@@ -1022,8 +1012,7 @@
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="n">
+      <c r="BC3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1139,26 +1128,24 @@
         <v>1</v>
       </c>
       <c r="AK4" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL4" t="n">
-        <v>7200</v>
+        <v>86396</v>
       </c>
       <c r="AM4" t="n">
-        <v>32621</v>
+        <v>34281</v>
       </c>
       <c r="AN4" t="n">
-        <v>34281</v>
+        <v>106042</v>
       </c>
       <c r="AO4" t="n">
-        <v>41292</v>
+        <v>142545</v>
       </c>
       <c r="AP4" t="n">
-        <v>142545</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>49767</v>
-      </c>
+        <v>103263</v>
+      </c>
+      <c r="AQ4" t="inlineStr"/>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
       <c r="AT4" t="inlineStr"/>
@@ -1170,8 +1157,7 @@
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="inlineStr"/>
       <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="n">
+      <c r="BC4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1287,32 +1273,30 @@
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL5" t="n">
-        <v>3600</v>
+        <v>45498</v>
       </c>
       <c r="AM5" t="n">
-        <v>22191</v>
+        <v>61107</v>
       </c>
       <c r="AN5" t="n">
-        <v>61107</v>
+        <v>39877</v>
       </c>
       <c r="AO5" t="n">
-        <v>18956</v>
+        <v>301843</v>
       </c>
       <c r="AP5" t="n">
-        <v>301843</v>
+        <v>16622</v>
       </c>
       <c r="AQ5" t="n">
-        <v>9540</v>
+        <v>819004</v>
       </c>
       <c r="AR5" t="n">
-        <v>819004</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>5204</v>
-      </c>
+        <v>8441</v>
+      </c>
+      <c r="AS5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
       <c r="AU5" t="inlineStr"/>
       <c r="AV5" t="inlineStr"/>
@@ -1322,8 +1306,7 @@
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
       <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="n">
+      <c r="BC5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1439,26 +1422,24 @@
         <v>1</v>
       </c>
       <c r="AK6" t="n">
-        <v>5</v>
+        <v>18000</v>
       </c>
       <c r="AL6" t="n">
-        <v>18000</v>
+        <v>14832</v>
       </c>
       <c r="AM6" t="n">
-        <v>47392</v>
+        <v>95283</v>
       </c>
       <c r="AN6" t="n">
-        <v>95283</v>
+        <v>24472</v>
       </c>
       <c r="AO6" t="n">
-        <v>23182</v>
+        <v>352595</v>
       </c>
       <c r="AP6" t="n">
-        <v>352595</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>12898</v>
-      </c>
+        <v>25477</v>
+      </c>
+      <c r="AQ6" t="inlineStr"/>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
       <c r="AT6" t="inlineStr"/>
@@ -1470,8 +1451,7 @@
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="n">
+      <c r="BC6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1587,38 +1567,36 @@
         <v>1</v>
       </c>
       <c r="AK7" t="n">
-        <v>24</v>
+        <v>86400</v>
       </c>
       <c r="AL7" t="n">
-        <v>86400</v>
+        <v>171129</v>
       </c>
       <c r="AM7" t="n">
-        <v>97503</v>
+        <v>172348</v>
       </c>
       <c r="AN7" t="n">
-        <v>172348</v>
+        <v>148092</v>
       </c>
       <c r="AO7" t="n">
-        <v>95384</v>
+        <v>437874</v>
       </c>
       <c r="AP7" t="n">
-        <v>437874</v>
+        <v>74087</v>
       </c>
       <c r="AQ7" t="n">
-        <v>81745</v>
+        <v>619877</v>
       </c>
       <c r="AR7" t="n">
-        <v>619877</v>
+        <v>61875</v>
       </c>
       <c r="AS7" t="n">
-        <v>50859</v>
+        <v>1028332</v>
       </c>
       <c r="AT7" t="n">
-        <v>1028332</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>24730</v>
-      </c>
+        <v>18546</v>
+      </c>
+      <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="inlineStr"/>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="inlineStr"/>
@@ -1626,8 +1604,7 @@
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="inlineStr"/>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="n">
+      <c r="BC7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1743,55 +1720,52 @@
         <v>1</v>
       </c>
       <c r="AK8" t="n">
+        <v>64800</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29444</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>158689</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>28715</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>421649</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>27343</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>693701</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>20521</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>1020374</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>366</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>1112508</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>348</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1474233</v>
+      </c>
+      <c r="AX8" t="n">
         <v>18</v>
       </c>
-      <c r="AL8" t="n">
-        <v>64800</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>32434</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>158689</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>20015</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>421649</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>31287</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>693701</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>42807</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>1020374</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>56867</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>1112508</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>51531</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>1474233</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>43794</v>
-      </c>
+      <c r="AY8" t="inlineStr"/>
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="inlineStr"/>
       <c r="BB8" t="inlineStr"/>
-      <c r="BC8" t="inlineStr"/>
-      <c r="BD8" t="n">
+      <c r="BC8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1907,32 +1881,30 @@
         <v>1</v>
       </c>
       <c r="AK9" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL9" t="n">
-        <v>7200</v>
+        <v>27620</v>
       </c>
       <c r="AM9" t="n">
-        <v>14353</v>
+        <v>36884</v>
       </c>
       <c r="AN9" t="n">
-        <v>36884</v>
+        <v>33498</v>
       </c>
       <c r="AO9" t="n">
-        <v>32889</v>
+        <v>353685</v>
       </c>
       <c r="AP9" t="n">
-        <v>353685</v>
+        <v>36859</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51887</v>
+        <v>624691</v>
       </c>
       <c r="AR9" t="n">
-        <v>624691</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>34914</v>
-      </c>
+        <v>30298</v>
+      </c>
+      <c r="AS9" t="inlineStr"/>
       <c r="AT9" t="inlineStr"/>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="inlineStr"/>
@@ -1942,8 +1914,7 @@
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="n">
+      <c r="BC9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2059,26 +2030,24 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.67</v>
+        <v>2412</v>
       </c>
       <c r="AL10" t="n">
-        <v>2412</v>
+        <v>41341</v>
       </c>
       <c r="AM10" t="n">
-        <v>18799</v>
+        <v>144202</v>
       </c>
       <c r="AN10" t="n">
-        <v>144202</v>
+        <v>56613</v>
       </c>
       <c r="AO10" t="n">
-        <v>22191</v>
+        <v>238178</v>
       </c>
       <c r="AP10" t="n">
-        <v>238178</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>48539</v>
-      </c>
+        <v>53913</v>
+      </c>
+      <c r="AQ10" t="inlineStr"/>
       <c r="AR10" t="inlineStr"/>
       <c r="AS10" t="inlineStr"/>
       <c r="AT10" t="inlineStr"/>
@@ -2090,8 +2059,7 @@
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="inlineStr"/>
       <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="n">
+      <c r="BC10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2207,38 +2175,36 @@
         <v>1</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL11" t="n">
-        <v>3600</v>
+        <v>37072</v>
       </c>
       <c r="AM11" t="n">
-        <v>15272</v>
+        <v>54000</v>
       </c>
       <c r="AN11" t="n">
-        <v>54000</v>
+        <v>28066</v>
       </c>
       <c r="AO11" t="n">
-        <v>22355</v>
+        <v>141597</v>
       </c>
       <c r="AP11" t="n">
-        <v>141597</v>
+        <v>15406</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23424</v>
+        <v>761032</v>
       </c>
       <c r="AR11" t="n">
-        <v>761032</v>
+        <v>6806</v>
       </c>
       <c r="AS11" t="n">
-        <v>10274</v>
+        <v>3425578</v>
       </c>
       <c r="AT11" t="n">
-        <v>3425578</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AU11" t="inlineStr"/>
       <c r="AV11" t="inlineStr"/>
       <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="inlineStr"/>
@@ -2246,8 +2212,7 @@
       <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
-      <c r="BC11" t="inlineStr"/>
-      <c r="BD11" t="n">
+      <c r="BC11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2363,26 +2328,24 @@
         <v>1</v>
       </c>
       <c r="AK12" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL12" t="n">
-        <v>3600</v>
+        <v>4460</v>
       </c>
       <c r="AM12" t="n">
-        <v>5080</v>
+        <v>61705</v>
       </c>
       <c r="AN12" t="n">
-        <v>61705</v>
+        <v>4757</v>
       </c>
       <c r="AO12" t="n">
-        <v>3642</v>
+        <v>1197272</v>
       </c>
       <c r="AP12" t="n">
-        <v>1197272</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
       <c r="AT12" t="inlineStr"/>
@@ -2394,8 +2357,7 @@
       <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="n">
+      <c r="BC12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2511,55 +2473,52 @@
         <v>1</v>
       </c>
       <c r="AK13" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL13" t="n">
-        <v>7200</v>
+        <v>62922</v>
       </c>
       <c r="AM13" t="n">
-        <v>15254</v>
+        <v>41554</v>
       </c>
       <c r="AN13" t="n">
-        <v>41554</v>
+        <v>68164</v>
       </c>
       <c r="AO13" t="n">
-        <v>16723</v>
+        <v>104632</v>
       </c>
       <c r="AP13" t="n">
-        <v>104632</v>
+        <v>63308</v>
       </c>
       <c r="AQ13" t="n">
-        <v>13818</v>
+        <v>257805</v>
       </c>
       <c r="AR13" t="n">
-        <v>257805</v>
+        <v>57747</v>
       </c>
       <c r="AS13" t="n">
-        <v>20788</v>
+        <v>622277</v>
       </c>
       <c r="AT13" t="n">
-        <v>622277</v>
+        <v>59134</v>
       </c>
       <c r="AU13" t="n">
-        <v>22086</v>
+        <v>1732597</v>
       </c>
       <c r="AV13" t="n">
-        <v>1732597</v>
+        <v>26651</v>
       </c>
       <c r="AW13" t="n">
-        <v>55714</v>
+        <v>4578517</v>
       </c>
       <c r="AX13" t="n">
-        <v>4578517</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>1099</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AY13" t="inlineStr"/>
       <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="n">
+      <c r="BC13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2675,38 +2634,36 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL14" t="n">
-        <v>10800</v>
+        <v>13419</v>
       </c>
       <c r="AM14" t="n">
-        <v>9694</v>
+        <v>95271</v>
       </c>
       <c r="AN14" t="n">
-        <v>95271</v>
+        <v>14322</v>
       </c>
       <c r="AO14" t="n">
-        <v>9249</v>
+        <v>699528</v>
       </c>
       <c r="AP14" t="n">
-        <v>699528</v>
+        <v>11555</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15231</v>
+        <v>1848448</v>
       </c>
       <c r="AR14" t="n">
-        <v>1848448</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>7072</v>
+        <v>2748479</v>
       </c>
       <c r="AT14" t="n">
-        <v>2748479</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>1754</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="inlineStr"/>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="inlineStr"/>
@@ -2714,8 +2671,7 @@
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="n">
+      <c r="BC14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2831,26 +2787,24 @@
         <v>1</v>
       </c>
       <c r="AK15" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL15" t="n">
-        <v>3600</v>
+        <v>35235</v>
       </c>
       <c r="AM15" t="n">
-        <v>12291</v>
+        <v>84216</v>
       </c>
       <c r="AN15" t="n">
-        <v>84216</v>
+        <v>32523</v>
       </c>
       <c r="AO15" t="n">
-        <v>19434</v>
+        <v>861131</v>
       </c>
       <c r="AP15" t="n">
-        <v>861131</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>31092</v>
-      </c>
+        <v>21894</v>
+      </c>
+      <c r="AQ15" t="inlineStr"/>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
       <c r="AT15" t="inlineStr"/>
@@ -2862,8 +2816,7 @@
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
       <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="n">
+      <c r="BC15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2979,32 +2932,30 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>5</v>
+        <v>18000</v>
       </c>
       <c r="AL16" t="n">
-        <v>18000</v>
+        <v>33313</v>
       </c>
       <c r="AM16" t="n">
-        <v>5759</v>
+        <v>606143</v>
       </c>
       <c r="AN16" t="n">
-        <v>606143</v>
+        <v>40607</v>
       </c>
       <c r="AO16" t="n">
-        <v>17205</v>
+        <v>1207663</v>
       </c>
       <c r="AP16" t="n">
-        <v>1207663</v>
+        <v>9338</v>
       </c>
       <c r="AQ16" t="n">
-        <v>96502</v>
+        <v>2306126</v>
       </c>
       <c r="AR16" t="n">
-        <v>2306126</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>55312</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AS16" t="inlineStr"/>
       <c r="AT16" t="inlineStr"/>
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
@@ -3014,8 +2965,7 @@
       <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr"/>
       <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="n">
+      <c r="BC16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3131,26 +3081,24 @@
         <v>1</v>
       </c>
       <c r="AK17" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL17" t="n">
-        <v>3600</v>
+        <v>51028</v>
       </c>
       <c r="AM17" t="n">
-        <v>28955</v>
+        <v>48003</v>
       </c>
       <c r="AN17" t="n">
-        <v>48003</v>
+        <v>51143</v>
       </c>
       <c r="AO17" t="n">
-        <v>36267</v>
+        <v>458468</v>
       </c>
       <c r="AP17" t="n">
-        <v>458468</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>94642</v>
-      </c>
+        <v>114542</v>
+      </c>
+      <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
       <c r="AT17" t="inlineStr"/>
@@ -3162,8 +3110,7 @@
       <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="inlineStr"/>
       <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="n">
+      <c r="BC17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3279,32 +3226,30 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL18" t="n">
-        <v>7200</v>
+        <v>26284</v>
       </c>
       <c r="AM18" t="n">
-        <v>11533</v>
+        <v>53533</v>
       </c>
       <c r="AN18" t="n">
-        <v>53533</v>
+        <v>35386</v>
       </c>
       <c r="AO18" t="n">
-        <v>22075</v>
+        <v>654501</v>
       </c>
       <c r="AP18" t="n">
-        <v>654501</v>
+        <v>27479</v>
       </c>
       <c r="AQ18" t="n">
-        <v>44436</v>
+        <v>1712546</v>
       </c>
       <c r="AR18" t="n">
-        <v>1712546</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>34853</v>
-      </c>
+        <v>6395</v>
+      </c>
+      <c r="AS18" t="inlineStr"/>
       <c r="AT18" t="inlineStr"/>
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
@@ -3314,8 +3259,7 @@
       <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="inlineStr"/>
       <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="n">
+      <c r="BC18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3431,32 +3375,30 @@
         <v>1</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.5</v>
+        <v>1800</v>
       </c>
       <c r="AL19" t="n">
-        <v>1800</v>
+        <v>14126</v>
       </c>
       <c r="AM19" t="n">
-        <v>23890</v>
+        <v>56056</v>
       </c>
       <c r="AN19" t="n">
-        <v>56056</v>
+        <v>17740</v>
       </c>
       <c r="AO19" t="n">
-        <v>38354</v>
+        <v>138317</v>
       </c>
       <c r="AP19" t="n">
-        <v>138317</v>
+        <v>17228</v>
       </c>
       <c r="AQ19" t="n">
-        <v>45387</v>
+        <v>849773</v>
       </c>
       <c r="AR19" t="n">
-        <v>849773</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>64084</v>
-      </c>
+        <v>12627</v>
+      </c>
+      <c r="AS19" t="inlineStr"/>
       <c r="AT19" t="inlineStr"/>
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
@@ -3466,8 +3408,7 @@
       <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="inlineStr"/>
       <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="n">
+      <c r="BC19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3583,51 +3524,48 @@
         <v>1</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>32400</v>
       </c>
       <c r="AL20" t="n">
-        <v>32400</v>
+        <v>86620</v>
       </c>
       <c r="AM20" t="n">
-        <v>11107</v>
+        <v>65955</v>
       </c>
       <c r="AN20" t="n">
-        <v>65955</v>
+        <v>87346</v>
       </c>
       <c r="AO20" t="n">
-        <v>16594</v>
+        <v>153490</v>
       </c>
       <c r="AP20" t="n">
-        <v>153490</v>
+        <v>83044</v>
       </c>
       <c r="AQ20" t="n">
-        <v>18649</v>
+        <v>1068844</v>
       </c>
       <c r="AR20" t="n">
-        <v>1068844</v>
+        <v>46400</v>
       </c>
       <c r="AS20" t="n">
-        <v>27745</v>
+        <v>2901171</v>
       </c>
       <c r="AT20" t="n">
-        <v>2901171</v>
+        <v>18042</v>
       </c>
       <c r="AU20" t="n">
-        <v>1549</v>
+        <v>6423754</v>
       </c>
       <c r="AV20" t="n">
-        <v>6423754</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="inlineStr"/>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="n">
+      <c r="BC20" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3743,38 +3681,36 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.67</v>
+        <v>2412</v>
       </c>
       <c r="AL21" t="n">
-        <v>2412</v>
+        <v>3775</v>
       </c>
       <c r="AM21" t="n">
-        <v>160</v>
+        <v>21956</v>
       </c>
       <c r="AN21" t="n">
-        <v>21956</v>
+        <v>2606</v>
       </c>
       <c r="AO21" t="n">
-        <v>527</v>
+        <v>130705</v>
       </c>
       <c r="AP21" t="n">
-        <v>130705</v>
+        <v>3169</v>
       </c>
       <c r="AQ21" t="n">
-        <v>233</v>
+        <v>2623363</v>
       </c>
       <c r="AR21" t="n">
-        <v>2623363</v>
+        <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>6005977</v>
       </c>
       <c r="AT21" t="n">
-        <v>6005977</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="inlineStr"/>
@@ -3782,8 +3718,7 @@
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
       <c r="BB21" t="inlineStr"/>
-      <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="n">
+      <c r="BC21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3899,32 +3834,30 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL22" t="n">
-        <v>3600</v>
+        <v>45872</v>
       </c>
       <c r="AM22" t="n">
-        <v>12852</v>
+        <v>105407</v>
       </c>
       <c r="AN22" t="n">
-        <v>105407</v>
+        <v>34275</v>
       </c>
       <c r="AO22" t="n">
-        <v>19022</v>
+        <v>341940</v>
       </c>
       <c r="AP22" t="n">
-        <v>341940</v>
+        <v>25416</v>
       </c>
       <c r="AQ22" t="n">
-        <v>18694</v>
+        <v>1140353</v>
       </c>
       <c r="AR22" t="n">
-        <v>1140353</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>19750</v>
-      </c>
+        <v>4357</v>
+      </c>
+      <c r="AS22" t="inlineStr"/>
       <c r="AT22" t="inlineStr"/>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
@@ -3934,8 +3867,7 @@
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="inlineStr"/>
       <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
-      <c r="BD22" t="n">
+      <c r="BC22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4051,26 +3983,24 @@
         <v>1</v>
       </c>
       <c r="AK23" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL23" t="n">
-        <v>3600</v>
+        <v>5070</v>
       </c>
       <c r="AM23" t="n">
-        <v>5463</v>
+        <v>77255</v>
       </c>
       <c r="AN23" t="n">
-        <v>77255</v>
+        <v>4690</v>
       </c>
       <c r="AO23" t="n">
-        <v>8707</v>
+        <v>1200861</v>
       </c>
       <c r="AP23" t="n">
-        <v>1200861</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>8820</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
       <c r="AT23" t="inlineStr"/>
@@ -4082,8 +4012,7 @@
       <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="inlineStr"/>
-      <c r="BD23" t="n">
+      <c r="BC23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4199,55 +4128,52 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL24" t="n">
-        <v>7200</v>
+        <v>40940</v>
       </c>
       <c r="AM24" t="n">
-        <v>42734</v>
+        <v>101382</v>
       </c>
       <c r="AN24" t="n">
-        <v>101382</v>
+        <v>42931</v>
       </c>
       <c r="AO24" t="n">
-        <v>44699</v>
+        <v>795716</v>
       </c>
       <c r="AP24" t="n">
-        <v>795716</v>
+        <v>35907</v>
       </c>
       <c r="AQ24" t="n">
-        <v>41808</v>
+        <v>1309540</v>
       </c>
       <c r="AR24" t="n">
-        <v>1309540</v>
+        <v>18553</v>
       </c>
       <c r="AS24" t="n">
-        <v>40009</v>
+        <v>1825075</v>
       </c>
       <c r="AT24" t="n">
-        <v>1825075</v>
+        <v>10805</v>
       </c>
       <c r="AU24" t="n">
-        <v>30197</v>
+        <v>2362414</v>
       </c>
       <c r="AV24" t="n">
-        <v>2362414</v>
+        <v>3838</v>
       </c>
       <c r="AW24" t="n">
-        <v>3868</v>
+        <v>5030518</v>
       </c>
       <c r="AX24" t="n">
-        <v>5030518</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AY24" t="inlineStr"/>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="inlineStr"/>
-      <c r="BC24" t="inlineStr"/>
-      <c r="BD24" t="n">
+      <c r="BC24" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4363,32 +4289,30 @@
         <v>1</v>
       </c>
       <c r="AK25" t="n">
-        <v>5</v>
+        <v>18000</v>
       </c>
       <c r="AL25" t="n">
-        <v>18000</v>
+        <v>21698</v>
       </c>
       <c r="AM25" t="n">
-        <v>9317</v>
+        <v>105710</v>
       </c>
       <c r="AN25" t="n">
-        <v>105710</v>
+        <v>16678</v>
       </c>
       <c r="AO25" t="n">
-        <v>7296</v>
+        <v>1070021</v>
       </c>
       <c r="AP25" t="n">
-        <v>1070021</v>
+        <v>3884</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1124</v>
+        <v>1657130</v>
       </c>
       <c r="AR25" t="n">
-        <v>1657130</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="AS25" t="inlineStr"/>
       <c r="AT25" t="inlineStr"/>
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="inlineStr"/>
@@ -4398,8 +4322,7 @@
       <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr"/>
       <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr"/>
-      <c r="BD25" t="n">
+      <c r="BC25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4515,26 +4438,24 @@
         <v>1</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>25200</v>
       </c>
       <c r="AL26" t="n">
-        <v>25200</v>
+        <v>35626</v>
       </c>
       <c r="AM26" t="n">
-        <v>9073</v>
+        <v>87083</v>
       </c>
       <c r="AN26" t="n">
-        <v>87083</v>
+        <v>39044</v>
       </c>
       <c r="AO26" t="n">
-        <v>17400</v>
+        <v>242892</v>
       </c>
       <c r="AP26" t="n">
-        <v>242892</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>27520</v>
-      </c>
+        <v>41705</v>
+      </c>
+      <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
       <c r="AT26" t="inlineStr"/>
@@ -4546,8 +4467,7 @@
       <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="inlineStr"/>
       <c r="BB26" t="inlineStr"/>
-      <c r="BC26" t="inlineStr"/>
-      <c r="BD26" t="n">
+      <c r="BC26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4663,32 +4583,30 @@
         <v>1</v>
       </c>
       <c r="AK27" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL27" t="n">
-        <v>3600</v>
+        <v>33087</v>
       </c>
       <c r="AM27" t="n">
-        <v>21095</v>
+        <v>81273</v>
       </c>
       <c r="AN27" t="n">
-        <v>81273</v>
+        <v>34707</v>
       </c>
       <c r="AO27" t="n">
-        <v>19888</v>
+        <v>273717</v>
       </c>
       <c r="AP27" t="n">
-        <v>273717</v>
+        <v>35300</v>
       </c>
       <c r="AQ27" t="n">
-        <v>44172</v>
+        <v>1653176</v>
       </c>
       <c r="AR27" t="n">
-        <v>1653176</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>57285</v>
-      </c>
+        <v>10480</v>
+      </c>
+      <c r="AS27" t="inlineStr"/>
       <c r="AT27" t="inlineStr"/>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="inlineStr"/>
@@ -4698,8 +4616,7 @@
       <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="inlineStr"/>
       <c r="BB27" t="inlineStr"/>
-      <c r="BC27" t="inlineStr"/>
-      <c r="BD27" t="n">
+      <c r="BC27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4815,32 +4732,30 @@
         <v>1</v>
       </c>
       <c r="AK28" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL28" t="n">
-        <v>10800</v>
+        <v>31039</v>
       </c>
       <c r="AM28" t="n">
-        <v>7286</v>
+        <v>109536</v>
       </c>
       <c r="AN28" t="n">
-        <v>109536</v>
+        <v>36886</v>
       </c>
       <c r="AO28" t="n">
-        <v>40975</v>
+        <v>639703</v>
       </c>
       <c r="AP28" t="n">
-        <v>639703</v>
+        <v>33934</v>
       </c>
       <c r="AQ28" t="n">
-        <v>23846</v>
+        <v>900141</v>
       </c>
       <c r="AR28" t="n">
-        <v>900141</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>18389</v>
-      </c>
+        <v>29610</v>
+      </c>
+      <c r="AS28" t="inlineStr"/>
       <c r="AT28" t="inlineStr"/>
       <c r="AU28" t="inlineStr"/>
       <c r="AV28" t="inlineStr"/>
@@ -4850,8 +4765,7 @@
       <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr"/>
       <c r="BB28" t="inlineStr"/>
-      <c r="BC28" t="inlineStr"/>
-      <c r="BD28" t="n">
+      <c r="BC28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4967,38 +4881,36 @@
         <v>1</v>
       </c>
       <c r="AK29" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL29" t="n">
-        <v>7200</v>
+        <v>43492</v>
       </c>
       <c r="AM29" t="n">
-        <v>16568</v>
+        <v>62532</v>
       </c>
       <c r="AN29" t="n">
-        <v>62532</v>
+        <v>45898</v>
       </c>
       <c r="AO29" t="n">
-        <v>26888</v>
+        <v>514534</v>
       </c>
       <c r="AP29" t="n">
-        <v>514534</v>
+        <v>32023</v>
       </c>
       <c r="AQ29" t="n">
-        <v>45445</v>
+        <v>1465489</v>
       </c>
       <c r="AR29" t="n">
-        <v>1465489</v>
+        <v>11747</v>
       </c>
       <c r="AS29" t="n">
-        <v>82603</v>
+        <v>4842677</v>
       </c>
       <c r="AT29" t="n">
-        <v>4842677</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>1477</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AU29" t="inlineStr"/>
       <c r="AV29" t="inlineStr"/>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="inlineStr"/>
@@ -5006,8 +4918,7 @@
       <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr"/>
       <c r="BB29" t="inlineStr"/>
-      <c r="BC29" t="inlineStr"/>
-      <c r="BD29" t="n">
+      <c r="BC29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5123,32 +5034,30 @@
         <v>1</v>
       </c>
       <c r="AK30" t="n">
-        <v>8</v>
+        <v>28800</v>
       </c>
       <c r="AL30" t="n">
-        <v>28800</v>
+        <v>50488</v>
       </c>
       <c r="AM30" t="n">
-        <v>44907</v>
+        <v>129497</v>
       </c>
       <c r="AN30" t="n">
-        <v>129497</v>
+        <v>47741</v>
       </c>
       <c r="AO30" t="n">
-        <v>62015</v>
+        <v>1257271</v>
       </c>
       <c r="AP30" t="n">
-        <v>1257271</v>
+        <v>16124</v>
       </c>
       <c r="AQ30" t="n">
-        <v>43817</v>
+        <v>3846154</v>
       </c>
       <c r="AR30" t="n">
-        <v>3846154</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>6395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AS30" t="inlineStr"/>
       <c r="AT30" t="inlineStr"/>
       <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="inlineStr"/>
@@ -5158,8 +5067,7 @@
       <c r="AZ30" t="inlineStr"/>
       <c r="BA30" t="inlineStr"/>
       <c r="BB30" t="inlineStr"/>
-      <c r="BC30" t="inlineStr"/>
-      <c r="BD30" t="n">
+      <c r="BC30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5275,38 +5183,36 @@
         <v>1</v>
       </c>
       <c r="AK31" t="n">
-        <v>8</v>
+        <v>28800</v>
       </c>
       <c r="AL31" t="n">
-        <v>28800</v>
+        <v>42445</v>
       </c>
       <c r="AM31" t="n">
-        <v>18378</v>
+        <v>118914</v>
       </c>
       <c r="AN31" t="n">
-        <v>118914</v>
+        <v>41681</v>
       </c>
       <c r="AO31" t="n">
-        <v>40860</v>
+        <v>467817</v>
       </c>
       <c r="AP31" t="n">
-        <v>467817</v>
+        <v>38639</v>
       </c>
       <c r="AQ31" t="n">
-        <v>104295</v>
+        <v>1072651</v>
       </c>
       <c r="AR31" t="n">
-        <v>1072651</v>
+        <v>29517</v>
       </c>
       <c r="AS31" t="n">
-        <v>79204</v>
+        <v>1674901</v>
       </c>
       <c r="AT31" t="n">
-        <v>1674901</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>94574</v>
-      </c>
+        <v>16020</v>
+      </c>
+      <c r="AU31" t="inlineStr"/>
       <c r="AV31" t="inlineStr"/>
       <c r="AW31" t="inlineStr"/>
       <c r="AX31" t="inlineStr"/>
@@ -5314,8 +5220,7 @@
       <c r="AZ31" t="inlineStr"/>
       <c r="BA31" t="inlineStr"/>
       <c r="BB31" t="inlineStr"/>
-      <c r="BC31" t="inlineStr"/>
-      <c r="BD31" t="n">
+      <c r="BC31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5431,26 +5336,24 @@
         <v>1</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.5</v>
+        <v>1800</v>
       </c>
       <c r="AL32" t="n">
-        <v>1800</v>
+        <v>58670</v>
       </c>
       <c r="AM32" t="n">
-        <v>17339</v>
+        <v>15006</v>
       </c>
       <c r="AN32" t="n">
-        <v>15006</v>
+        <v>51763</v>
       </c>
       <c r="AO32" t="n">
-        <v>35646</v>
+        <v>43087</v>
       </c>
       <c r="AP32" t="n">
-        <v>43087</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>44392</v>
-      </c>
+        <v>53973</v>
+      </c>
+      <c r="AQ32" t="inlineStr"/>
       <c r="AR32" t="inlineStr"/>
       <c r="AS32" t="inlineStr"/>
       <c r="AT32" t="inlineStr"/>
@@ -5462,8 +5365,7 @@
       <c r="AZ32" t="inlineStr"/>
       <c r="BA32" t="inlineStr"/>
       <c r="BB32" t="inlineStr"/>
-      <c r="BC32" t="inlineStr"/>
-      <c r="BD32" t="n">
+      <c r="BC32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5579,26 +5481,24 @@
         <v>1</v>
       </c>
       <c r="AK33" t="n">
-        <v>1.5</v>
+        <v>5400</v>
       </c>
       <c r="AL33" t="n">
-        <v>5400</v>
+        <v>7976</v>
       </c>
       <c r="AM33" t="n">
-        <v>746</v>
+        <v>123503</v>
       </c>
       <c r="AN33" t="n">
-        <v>123503</v>
+        <v>8278</v>
       </c>
       <c r="AO33" t="n">
-        <v>6240</v>
+        <v>618742</v>
       </c>
       <c r="AP33" t="n">
-        <v>618742</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>440</v>
-      </c>
+        <v>3685</v>
+      </c>
+      <c r="AQ33" t="inlineStr"/>
       <c r="AR33" t="inlineStr"/>
       <c r="AS33" t="inlineStr"/>
       <c r="AT33" t="inlineStr"/>
@@ -5610,8 +5510,7 @@
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
       <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr"/>
-      <c r="BD33" t="n">
+      <c r="BC33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5727,51 +5626,48 @@
         <v>1</v>
       </c>
       <c r="AK34" t="n">
-        <v>6</v>
+        <v>21600</v>
       </c>
       <c r="AL34" t="n">
-        <v>21600</v>
+        <v>5405</v>
       </c>
       <c r="AM34" t="n">
-        <v>1500</v>
+        <v>110927</v>
       </c>
       <c r="AN34" t="n">
-        <v>110927</v>
+        <v>15233</v>
       </c>
       <c r="AO34" t="n">
-        <v>6706</v>
+        <v>245506</v>
       </c>
       <c r="AP34" t="n">
-        <v>245506</v>
+        <v>14015</v>
       </c>
       <c r="AQ34" t="n">
-        <v>22570</v>
+        <v>441412</v>
       </c>
       <c r="AR34" t="n">
-        <v>441412</v>
+        <v>14857</v>
       </c>
       <c r="AS34" t="n">
-        <v>20385</v>
+        <v>1629155</v>
       </c>
       <c r="AT34" t="n">
-        <v>1629155</v>
+        <v>0</v>
       </c>
       <c r="AU34" t="n">
-        <v>2503</v>
+        <v>3043977</v>
       </c>
       <c r="AV34" t="n">
-        <v>3043977</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AW34" t="inlineStr"/>
       <c r="AX34" t="inlineStr"/>
       <c r="AY34" t="inlineStr"/>
       <c r="AZ34" t="inlineStr"/>
       <c r="BA34" t="inlineStr"/>
       <c r="BB34" t="inlineStr"/>
-      <c r="BC34" t="inlineStr"/>
-      <c r="BD34" t="n">
+      <c r="BC34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5887,32 +5783,30 @@
         <v>1</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.5</v>
+        <v>1800</v>
       </c>
       <c r="AL35" t="n">
-        <v>1800</v>
+        <v>38449</v>
       </c>
       <c r="AM35" t="n">
-        <v>10958</v>
+        <v>19712</v>
       </c>
       <c r="AN35" t="n">
-        <v>19712</v>
+        <v>38410</v>
       </c>
       <c r="AO35" t="n">
-        <v>33449</v>
+        <v>344059</v>
       </c>
       <c r="AP35" t="n">
-        <v>344059</v>
+        <v>72268</v>
       </c>
       <c r="AQ35" t="n">
-        <v>79391</v>
+        <v>1295845</v>
       </c>
       <c r="AR35" t="n">
-        <v>1295845</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>77707</v>
-      </c>
+        <v>36418</v>
+      </c>
+      <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="inlineStr"/>
       <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="inlineStr"/>
@@ -5922,8 +5816,7 @@
       <c r="AZ35" t="inlineStr"/>
       <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr"/>
-      <c r="BD35" t="n">
+      <c r="BC35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6039,51 +5932,48 @@
         <v>1</v>
       </c>
       <c r="AK36" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL36" t="n">
-        <v>10800</v>
+        <v>46559</v>
       </c>
       <c r="AM36" t="n">
-        <v>15345</v>
+        <v>75149</v>
       </c>
       <c r="AN36" t="n">
-        <v>75149</v>
+        <v>48732</v>
       </c>
       <c r="AO36" t="n">
-        <v>21633</v>
+        <v>398850</v>
       </c>
       <c r="AP36" t="n">
-        <v>398850</v>
+        <v>36650</v>
       </c>
       <c r="AQ36" t="n">
-        <v>22328</v>
+        <v>916617</v>
       </c>
       <c r="AR36" t="n">
-        <v>916617</v>
+        <v>19200</v>
       </c>
       <c r="AS36" t="n">
-        <v>12735</v>
+        <v>1435977</v>
       </c>
       <c r="AT36" t="n">
-        <v>1435977</v>
+        <v>8759</v>
       </c>
       <c r="AU36" t="n">
-        <v>14406</v>
+        <v>2129285</v>
       </c>
       <c r="AV36" t="n">
-        <v>2129285</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>4432</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="inlineStr"/>
       <c r="AY36" t="inlineStr"/>
       <c r="AZ36" t="inlineStr"/>
       <c r="BA36" t="inlineStr"/>
       <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr"/>
-      <c r="BD36" t="n">
+      <c r="BC36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6199,38 +6089,36 @@
         <v>1</v>
       </c>
       <c r="AK37" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL37" t="n">
-        <v>10800</v>
+        <v>27600</v>
       </c>
       <c r="AM37" t="n">
-        <v>16707</v>
+        <v>142204</v>
       </c>
       <c r="AN37" t="n">
-        <v>142204</v>
+        <v>63344</v>
       </c>
       <c r="AO37" t="n">
-        <v>35116</v>
+        <v>316015</v>
       </c>
       <c r="AP37" t="n">
-        <v>316015</v>
+        <v>208646</v>
       </c>
       <c r="AQ37" t="n">
-        <v>4992</v>
+        <v>826571</v>
       </c>
       <c r="AR37" t="n">
-        <v>826571</v>
+        <v>54405</v>
       </c>
       <c r="AS37" t="n">
-        <v>26813</v>
+        <v>1353212</v>
       </c>
       <c r="AT37" t="n">
-        <v>1353212</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>19245</v>
-      </c>
+        <v>11717</v>
+      </c>
+      <c r="AU37" t="inlineStr"/>
       <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="inlineStr"/>
@@ -6238,8 +6126,7 @@
       <c r="AZ37" t="inlineStr"/>
       <c r="BA37" t="inlineStr"/>
       <c r="BB37" t="inlineStr"/>
-      <c r="BC37" t="inlineStr"/>
-      <c r="BD37" t="n">
+      <c r="BC37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6355,38 +6242,36 @@
         <v>1</v>
       </c>
       <c r="AK38" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL38" t="n">
-        <v>7200</v>
+        <v>40530</v>
       </c>
       <c r="AM38" t="n">
-        <v>19961</v>
+        <v>56092</v>
       </c>
       <c r="AN38" t="n">
-        <v>56092</v>
+        <v>43598</v>
       </c>
       <c r="AO38" t="n">
-        <v>40092</v>
+        <v>560499</v>
       </c>
       <c r="AP38" t="n">
-        <v>560499</v>
+        <v>39485</v>
       </c>
       <c r="AQ38" t="n">
-        <v>66059</v>
+        <v>1943395</v>
       </c>
       <c r="AR38" t="n">
-        <v>1943395</v>
+        <v>8455</v>
       </c>
       <c r="AS38" t="n">
-        <v>51755</v>
+        <v>3771331</v>
       </c>
       <c r="AT38" t="n">
-        <v>3771331</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>10000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="inlineStr"/>
       <c r="AX38" t="inlineStr"/>
@@ -6394,8 +6279,7 @@
       <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr"/>
       <c r="BB38" t="inlineStr"/>
-      <c r="BC38" t="inlineStr"/>
-      <c r="BD38" t="n">
+      <c r="BC38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6511,38 +6395,36 @@
         <v>1</v>
       </c>
       <c r="AK39" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL39" t="n">
-        <v>3600</v>
+        <v>16117</v>
       </c>
       <c r="AM39" t="n">
-        <v>4386</v>
+        <v>56913</v>
       </c>
       <c r="AN39" t="n">
-        <v>56913</v>
+        <v>22588</v>
       </c>
       <c r="AO39" t="n">
-        <v>10710</v>
+        <v>488091</v>
       </c>
       <c r="AP39" t="n">
-        <v>488091</v>
+        <v>23625</v>
       </c>
       <c r="AQ39" t="n">
-        <v>30637</v>
+        <v>1092583</v>
       </c>
       <c r="AR39" t="n">
-        <v>1092583</v>
+        <v>13695</v>
       </c>
       <c r="AS39" t="n">
-        <v>33686</v>
+        <v>1873555</v>
       </c>
       <c r="AT39" t="n">
-        <v>1873555</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>28862</v>
-      </c>
+        <v>4796</v>
+      </c>
+      <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="inlineStr"/>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="inlineStr"/>
@@ -6550,8 +6432,7 @@
       <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="inlineStr"/>
-      <c r="BC39" t="inlineStr"/>
-      <c r="BD39" t="n">
+      <c r="BC39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6667,55 +6548,52 @@
         <v>1</v>
       </c>
       <c r="AK40" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL40" t="n">
-        <v>7200</v>
+        <v>33279</v>
       </c>
       <c r="AM40" t="n">
-        <v>16139</v>
+        <v>105034</v>
       </c>
       <c r="AN40" t="n">
-        <v>105034</v>
+        <v>44046</v>
       </c>
       <c r="AO40" t="n">
-        <v>28012</v>
+        <v>152989</v>
       </c>
       <c r="AP40" t="n">
-        <v>152989</v>
+        <v>41906</v>
       </c>
       <c r="AQ40" t="n">
-        <v>45743</v>
+        <v>490562</v>
       </c>
       <c r="AR40" t="n">
-        <v>490562</v>
+        <v>39458</v>
       </c>
       <c r="AS40" t="n">
-        <v>63043</v>
+        <v>1026043</v>
       </c>
       <c r="AT40" t="n">
-        <v>1026043</v>
+        <v>13163</v>
       </c>
       <c r="AU40" t="n">
-        <v>127535</v>
+        <v>1703260</v>
       </c>
       <c r="AV40" t="n">
-        <v>1703260</v>
+        <v>5997</v>
       </c>
       <c r="AW40" t="n">
-        <v>115761</v>
+        <v>3510348</v>
       </c>
       <c r="AX40" t="n">
-        <v>3510348</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>8307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AY40" t="inlineStr"/>
       <c r="AZ40" t="inlineStr"/>
       <c r="BA40" t="inlineStr"/>
       <c r="BB40" t="inlineStr"/>
-      <c r="BC40" t="inlineStr"/>
-      <c r="BD40" t="n">
+      <c r="BC40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6831,51 +6709,48 @@
         <v>1</v>
       </c>
       <c r="AK41" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL41" t="n">
-        <v>3600</v>
+        <v>25248</v>
       </c>
       <c r="AM41" t="n">
-        <v>4401</v>
+        <v>42061</v>
       </c>
       <c r="AN41" t="n">
-        <v>42061</v>
+        <v>29761</v>
       </c>
       <c r="AO41" t="n">
-        <v>16232</v>
+        <v>216371</v>
       </c>
       <c r="AP41" t="n">
-        <v>216371</v>
+        <v>27649</v>
       </c>
       <c r="AQ41" t="n">
-        <v>34542</v>
+        <v>734734</v>
       </c>
       <c r="AR41" t="n">
-        <v>734734</v>
+        <v>11397</v>
       </c>
       <c r="AS41" t="n">
-        <v>39826</v>
+        <v>1251423</v>
       </c>
       <c r="AT41" t="n">
-        <v>1251423</v>
+        <v>3837</v>
       </c>
       <c r="AU41" t="n">
-        <v>97468</v>
+        <v>2376268</v>
       </c>
       <c r="AV41" t="n">
-        <v>2376268</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>51033</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AW41" t="inlineStr"/>
       <c r="AX41" t="inlineStr"/>
       <c r="AY41" t="inlineStr"/>
       <c r="AZ41" t="inlineStr"/>
       <c r="BA41" t="inlineStr"/>
       <c r="BB41" t="inlineStr"/>
-      <c r="BC41" t="inlineStr"/>
-      <c r="BD41" t="n">
+      <c r="BC41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6991,32 +6866,30 @@
         <v>1</v>
       </c>
       <c r="AK42" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL42" t="n">
-        <v>3600</v>
+        <v>23783</v>
       </c>
       <c r="AM42" t="n">
-        <v>5169</v>
+        <v>21382</v>
       </c>
       <c r="AN42" t="n">
-        <v>21382</v>
+        <v>23037</v>
       </c>
       <c r="AO42" t="n">
-        <v>6081</v>
+        <v>431172</v>
       </c>
       <c r="AP42" t="n">
-        <v>431172</v>
+        <v>22946</v>
       </c>
       <c r="AQ42" t="n">
-        <v>19447</v>
+        <v>2058840</v>
       </c>
       <c r="AR42" t="n">
-        <v>2058840</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>2735</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AS42" t="inlineStr"/>
       <c r="AT42" t="inlineStr"/>
       <c r="AU42" t="inlineStr"/>
       <c r="AV42" t="inlineStr"/>
@@ -7026,8 +6899,7 @@
       <c r="AZ42" t="inlineStr"/>
       <c r="BA42" t="inlineStr"/>
       <c r="BB42" t="inlineStr"/>
-      <c r="BC42" t="inlineStr"/>
-      <c r="BD42" t="n">
+      <c r="BC42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7143,32 +7015,30 @@
         <v>1</v>
       </c>
       <c r="AK43" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL43" t="n">
-        <v>7200</v>
+        <v>20899</v>
       </c>
       <c r="AM43" t="n">
-        <v>12949</v>
+        <v>93380</v>
       </c>
       <c r="AN43" t="n">
-        <v>93380</v>
+        <v>18454</v>
       </c>
       <c r="AO43" t="n">
-        <v>20132</v>
+        <v>1132337</v>
       </c>
       <c r="AP43" t="n">
-        <v>1132337</v>
+        <v>5904</v>
       </c>
       <c r="AQ43" t="n">
-        <v>3744</v>
+        <v>2773900</v>
       </c>
       <c r="AR43" t="n">
-        <v>2773900</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AS43" t="inlineStr"/>
       <c r="AT43" t="inlineStr"/>
       <c r="AU43" t="inlineStr"/>
       <c r="AV43" t="inlineStr"/>
@@ -7178,8 +7048,7 @@
       <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="inlineStr"/>
       <c r="BB43" t="inlineStr"/>
-      <c r="BC43" t="inlineStr"/>
-      <c r="BD43" t="n">
+      <c r="BC43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7295,32 +7164,30 @@
         <v>1</v>
       </c>
       <c r="AK44" t="n">
-        <v>9</v>
+        <v>32400</v>
       </c>
       <c r="AL44" t="n">
-        <v>32400</v>
+        <v>52090</v>
       </c>
       <c r="AM44" t="n">
-        <v>20931</v>
+        <v>120550</v>
       </c>
       <c r="AN44" t="n">
-        <v>120550</v>
+        <v>55393</v>
       </c>
       <c r="AO44" t="n">
-        <v>28785</v>
+        <v>209091</v>
       </c>
       <c r="AP44" t="n">
-        <v>209091</v>
+        <v>41346</v>
       </c>
       <c r="AQ44" t="n">
-        <v>23317</v>
+        <v>642988</v>
       </c>
       <c r="AR44" t="n">
-        <v>642988</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>21325</v>
-      </c>
+        <v>15064</v>
+      </c>
+      <c r="AS44" t="inlineStr"/>
       <c r="AT44" t="inlineStr"/>
       <c r="AU44" t="inlineStr"/>
       <c r="AV44" t="inlineStr"/>
@@ -7330,8 +7197,7 @@
       <c r="AZ44" t="inlineStr"/>
       <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="inlineStr"/>
-      <c r="BC44" t="inlineStr"/>
-      <c r="BD44" t="n">
+      <c r="BC44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7447,51 +7313,48 @@
         <v>1</v>
       </c>
       <c r="AK45" t="n">
-        <v>6</v>
+        <v>21600</v>
       </c>
       <c r="AL45" t="n">
-        <v>21600</v>
+        <v>44231</v>
       </c>
       <c r="AM45" t="n">
-        <v>26140</v>
+        <v>112267</v>
       </c>
       <c r="AN45" t="n">
-        <v>112267</v>
+        <v>41749</v>
       </c>
       <c r="AO45" t="n">
-        <v>39633</v>
+        <v>198767</v>
       </c>
       <c r="AP45" t="n">
-        <v>198767</v>
+        <v>40058</v>
       </c>
       <c r="AQ45" t="n">
-        <v>58778</v>
+        <v>722957</v>
       </c>
       <c r="AR45" t="n">
-        <v>722957</v>
+        <v>36100</v>
       </c>
       <c r="AS45" t="n">
-        <v>81670</v>
+        <v>1929737</v>
       </c>
       <c r="AT45" t="n">
-        <v>1929737</v>
+        <v>10542</v>
       </c>
       <c r="AU45" t="n">
-        <v>58161</v>
+        <v>13425513</v>
       </c>
       <c r="AV45" t="n">
-        <v>13425513</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AW45" t="inlineStr"/>
       <c r="AX45" t="inlineStr"/>
       <c r="AY45" t="inlineStr"/>
       <c r="AZ45" t="inlineStr"/>
       <c r="BA45" t="inlineStr"/>
       <c r="BB45" t="inlineStr"/>
-      <c r="BC45" t="inlineStr"/>
-      <c r="BD45" t="n">
+      <c r="BC45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7607,32 +7470,30 @@
         <v>1</v>
       </c>
       <c r="AK46" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL46" t="n">
-        <v>7200</v>
+        <v>13981</v>
       </c>
       <c r="AM46" t="n">
-        <v>6480</v>
+        <v>54663</v>
       </c>
       <c r="AN46" t="n">
-        <v>54663</v>
+        <v>13899</v>
       </c>
       <c r="AO46" t="n">
-        <v>9541</v>
+        <v>1001261</v>
       </c>
       <c r="AP46" t="n">
-        <v>1001261</v>
+        <v>6154</v>
       </c>
       <c r="AQ46" t="n">
-        <v>38180</v>
+        <v>1431445</v>
       </c>
       <c r="AR46" t="n">
-        <v>1431445</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>34625</v>
-      </c>
+        <v>2323</v>
+      </c>
+      <c r="AS46" t="inlineStr"/>
       <c r="AT46" t="inlineStr"/>
       <c r="AU46" t="inlineStr"/>
       <c r="AV46" t="inlineStr"/>
@@ -7642,8 +7503,7 @@
       <c r="AZ46" t="inlineStr"/>
       <c r="BA46" t="inlineStr"/>
       <c r="BB46" t="inlineStr"/>
-      <c r="BC46" t="inlineStr"/>
-      <c r="BD46" t="n">
+      <c r="BC46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7759,26 +7619,24 @@
         <v>1</v>
       </c>
       <c r="AK47" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL47" t="n">
-        <v>3600</v>
+        <v>74163</v>
       </c>
       <c r="AM47" t="n">
-        <v>37663</v>
+        <v>531439</v>
       </c>
       <c r="AN47" t="n">
-        <v>531439</v>
+        <v>61094</v>
       </c>
       <c r="AO47" t="n">
-        <v>50652</v>
+        <v>1745759</v>
       </c>
       <c r="AP47" t="n">
-        <v>1745759</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>40598</v>
-      </c>
+        <v>35725</v>
+      </c>
+      <c r="AQ47" t="inlineStr"/>
       <c r="AR47" t="inlineStr"/>
       <c r="AS47" t="inlineStr"/>
       <c r="AT47" t="inlineStr"/>
@@ -7790,8 +7648,7 @@
       <c r="AZ47" t="inlineStr"/>
       <c r="BA47" t="inlineStr"/>
       <c r="BB47" t="inlineStr"/>
-      <c r="BC47" t="inlineStr"/>
-      <c r="BD47" t="n">
+      <c r="BC47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7907,32 +7764,30 @@
         <v>1</v>
       </c>
       <c r="AK48" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL48" t="n">
-        <v>7200</v>
+        <v>19340</v>
       </c>
       <c r="AM48" t="n">
-        <v>5848</v>
+        <v>74965</v>
       </c>
       <c r="AN48" t="n">
-        <v>74965</v>
+        <v>20850</v>
       </c>
       <c r="AO48" t="n">
-        <v>9150</v>
+        <v>349550</v>
       </c>
       <c r="AP48" t="n">
-        <v>349550</v>
+        <v>19186</v>
       </c>
       <c r="AQ48" t="n">
-        <v>18251</v>
+        <v>3441678</v>
       </c>
       <c r="AR48" t="n">
-        <v>3441678</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>633</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="AS48" t="inlineStr"/>
       <c r="AT48" t="inlineStr"/>
       <c r="AU48" t="inlineStr"/>
       <c r="AV48" t="inlineStr"/>
@@ -7942,8 +7797,7 @@
       <c r="AZ48" t="inlineStr"/>
       <c r="BA48" t="inlineStr"/>
       <c r="BB48" t="inlineStr"/>
-      <c r="BC48" t="inlineStr"/>
-      <c r="BD48" t="n">
+      <c r="BC48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8059,32 +7913,30 @@
         <v>1</v>
       </c>
       <c r="AK49" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL49" t="n">
-        <v>3600</v>
+        <v>37213</v>
       </c>
       <c r="AM49" t="n">
-        <v>4473</v>
+        <v>46299</v>
       </c>
       <c r="AN49" t="n">
-        <v>46299</v>
+        <v>49586</v>
       </c>
       <c r="AO49" t="n">
-        <v>30752</v>
+        <v>230275</v>
       </c>
       <c r="AP49" t="n">
-        <v>230275</v>
+        <v>46998</v>
       </c>
       <c r="AQ49" t="n">
-        <v>43374</v>
+        <v>834205</v>
       </c>
       <c r="AR49" t="n">
-        <v>834205</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>69692</v>
-      </c>
+        <v>22914</v>
+      </c>
+      <c r="AS49" t="inlineStr"/>
       <c r="AT49" t="inlineStr"/>
       <c r="AU49" t="inlineStr"/>
       <c r="AV49" t="inlineStr"/>
@@ -8094,8 +7946,7 @@
       <c r="AZ49" t="inlineStr"/>
       <c r="BA49" t="inlineStr"/>
       <c r="BB49" t="inlineStr"/>
-      <c r="BC49" t="inlineStr"/>
-      <c r="BD49" t="n">
+      <c r="BC49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8211,32 +8062,30 @@
         <v>1</v>
       </c>
       <c r="AK50" t="n">
-        <v>10</v>
+        <v>36000</v>
       </c>
       <c r="AL50" t="n">
-        <v>36000</v>
+        <v>13586</v>
       </c>
       <c r="AM50" t="n">
-        <v>3955</v>
+        <v>95712</v>
       </c>
       <c r="AN50" t="n">
-        <v>95712</v>
+        <v>11109</v>
       </c>
       <c r="AO50" t="n">
-        <v>4024</v>
+        <v>451514</v>
       </c>
       <c r="AP50" t="n">
-        <v>451514</v>
+        <v>8783</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2946</v>
+        <v>961000</v>
       </c>
       <c r="AR50" t="n">
-        <v>961000</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>189</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AS50" t="inlineStr"/>
       <c r="AT50" t="inlineStr"/>
       <c r="AU50" t="inlineStr"/>
       <c r="AV50" t="inlineStr"/>
@@ -8246,8 +8095,7 @@
       <c r="AZ50" t="inlineStr"/>
       <c r="BA50" t="inlineStr"/>
       <c r="BB50" t="inlineStr"/>
-      <c r="BC50" t="inlineStr"/>
-      <c r="BD50" t="n">
+      <c r="BC50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8363,26 +8211,24 @@
         <v>1</v>
       </c>
       <c r="AK51" t="n">
-        <v>9.5</v>
+        <v>34200</v>
       </c>
       <c r="AL51" t="n">
-        <v>34200</v>
+        <v>9145</v>
       </c>
       <c r="AM51" t="n">
-        <v>8814</v>
+        <v>176774</v>
       </c>
       <c r="AN51" t="n">
-        <v>176774</v>
+        <v>8317</v>
       </c>
       <c r="AO51" t="n">
-        <v>12524</v>
+        <v>1048743</v>
       </c>
       <c r="AP51" t="n">
-        <v>1048743</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>20041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AQ51" t="inlineStr"/>
       <c r="AR51" t="inlineStr"/>
       <c r="AS51" t="inlineStr"/>
       <c r="AT51" t="inlineStr"/>
@@ -8394,8 +8240,7 @@
       <c r="AZ51" t="inlineStr"/>
       <c r="BA51" t="inlineStr"/>
       <c r="BB51" t="inlineStr"/>
-      <c r="BC51" t="inlineStr"/>
-      <c r="BD51" t="n">
+      <c r="BC51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8511,38 +8356,36 @@
         <v>1</v>
       </c>
       <c r="AK52" t="n">
-        <v>5</v>
+        <v>18000</v>
       </c>
       <c r="AL52" t="n">
-        <v>18000</v>
+        <v>52431</v>
       </c>
       <c r="AM52" t="n">
-        <v>16801</v>
+        <v>156692</v>
       </c>
       <c r="AN52" t="n">
-        <v>156692</v>
+        <v>49955</v>
       </c>
       <c r="AO52" t="n">
-        <v>27870</v>
+        <v>1366631</v>
       </c>
       <c r="AP52" t="n">
-        <v>1366631</v>
+        <v>19990</v>
       </c>
       <c r="AQ52" t="n">
-        <v>13138</v>
+        <v>1970211</v>
       </c>
       <c r="AR52" t="n">
-        <v>1970211</v>
+        <v>8118</v>
       </c>
       <c r="AS52" t="n">
-        <v>6400</v>
+        <v>4489359</v>
       </c>
       <c r="AT52" t="n">
-        <v>4489359</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AU52" t="inlineStr"/>
       <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="inlineStr"/>
       <c r="AX52" t="inlineStr"/>
@@ -8550,8 +8393,7 @@
       <c r="AZ52" t="inlineStr"/>
       <c r="BA52" t="inlineStr"/>
       <c r="BB52" t="inlineStr"/>
-      <c r="BC52" t="inlineStr"/>
-      <c r="BD52" t="n">
+      <c r="BC52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8667,51 +8509,48 @@
         <v>1</v>
       </c>
       <c r="AK53" t="n">
-        <v>4</v>
+        <v>14400</v>
       </c>
       <c r="AL53" t="n">
-        <v>14400</v>
+        <v>17975</v>
       </c>
       <c r="AM53" t="n">
-        <v>7036</v>
+        <v>176054</v>
       </c>
       <c r="AN53" t="n">
-        <v>176054</v>
+        <v>54465</v>
       </c>
       <c r="AO53" t="n">
-        <v>45266</v>
+        <v>1040845</v>
       </c>
       <c r="AP53" t="n">
-        <v>1040845</v>
+        <v>32393</v>
       </c>
       <c r="AQ53" t="n">
-        <v>79961</v>
+        <v>2175618</v>
       </c>
       <c r="AR53" t="n">
-        <v>2175618</v>
+        <v>10219</v>
       </c>
       <c r="AS53" t="n">
-        <v>70743</v>
+        <v>6389871</v>
       </c>
       <c r="AT53" t="n">
-        <v>6389871</v>
+        <v>0</v>
       </c>
       <c r="AU53" t="n">
-        <v>0</v>
+        <v>16327159</v>
       </c>
       <c r="AV53" t="n">
-        <v>16327159</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AW53" t="inlineStr"/>
       <c r="AX53" t="inlineStr"/>
       <c r="AY53" t="inlineStr"/>
       <c r="AZ53" t="inlineStr"/>
       <c r="BA53" t="inlineStr"/>
       <c r="BB53" t="inlineStr"/>
-      <c r="BC53" t="inlineStr"/>
-      <c r="BD53" t="n">
+      <c r="BC53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8827,32 +8666,30 @@
         <v>1</v>
       </c>
       <c r="AK54" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL54" t="n">
-        <v>7200</v>
+        <v>22144</v>
       </c>
       <c r="AM54" t="n">
-        <v>16764</v>
+        <v>107258</v>
       </c>
       <c r="AN54" t="n">
-        <v>107258</v>
+        <v>21393</v>
       </c>
       <c r="AO54" t="n">
-        <v>22536</v>
+        <v>955504</v>
       </c>
       <c r="AP54" t="n">
-        <v>955504</v>
+        <v>8373</v>
       </c>
       <c r="AQ54" t="n">
-        <v>52101</v>
+        <v>2789798</v>
       </c>
       <c r="AR54" t="n">
-        <v>2789798</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>10340</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AS54" t="inlineStr"/>
       <c r="AT54" t="inlineStr"/>
       <c r="AU54" t="inlineStr"/>
       <c r="AV54" t="inlineStr"/>
@@ -8862,8 +8699,7 @@
       <c r="AZ54" t="inlineStr"/>
       <c r="BA54" t="inlineStr"/>
       <c r="BB54" t="inlineStr"/>
-      <c r="BC54" t="inlineStr"/>
-      <c r="BD54" t="n">
+      <c r="BC54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8979,32 +8815,30 @@
         <v>1</v>
       </c>
       <c r="AK55" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL55" t="n">
-        <v>3600</v>
+        <v>41820</v>
       </c>
       <c r="AM55" t="n">
-        <v>12628</v>
+        <v>58410</v>
       </c>
       <c r="AN55" t="n">
-        <v>58410</v>
+        <v>53987</v>
       </c>
       <c r="AO55" t="n">
-        <v>16033</v>
+        <v>678832</v>
       </c>
       <c r="AP55" t="n">
-        <v>678832</v>
+        <v>26683</v>
       </c>
       <c r="AQ55" t="n">
-        <v>24644</v>
+        <v>1442772</v>
       </c>
       <c r="AR55" t="n">
-        <v>1442772</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>26006</v>
-      </c>
+        <v>11914</v>
+      </c>
+      <c r="AS55" t="inlineStr"/>
       <c r="AT55" t="inlineStr"/>
       <c r="AU55" t="inlineStr"/>
       <c r="AV55" t="inlineStr"/>
@@ -9014,8 +8848,7 @@
       <c r="AZ55" t="inlineStr"/>
       <c r="BA55" t="inlineStr"/>
       <c r="BB55" t="inlineStr"/>
-      <c r="BC55" t="inlineStr"/>
-      <c r="BD55" t="n">
+      <c r="BC55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9131,26 +8964,24 @@
         <v>1</v>
       </c>
       <c r="AK56" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL56" t="n">
-        <v>3600</v>
+        <v>43195</v>
       </c>
       <c r="AM56" t="n">
-        <v>15417</v>
+        <v>143772</v>
       </c>
       <c r="AN56" t="n">
-        <v>143772</v>
+        <v>48361</v>
       </c>
       <c r="AO56" t="n">
-        <v>37897</v>
+        <v>503086</v>
       </c>
       <c r="AP56" t="n">
-        <v>503086</v>
-      </c>
-      <c r="AQ56" t="n">
-        <v>47195</v>
-      </c>
+        <v>44779</v>
+      </c>
+      <c r="AQ56" t="inlineStr"/>
       <c r="AR56" t="inlineStr"/>
       <c r="AS56" t="inlineStr"/>
       <c r="AT56" t="inlineStr"/>
@@ -9162,8 +8993,7 @@
       <c r="AZ56" t="inlineStr"/>
       <c r="BA56" t="inlineStr"/>
       <c r="BB56" t="inlineStr"/>
-      <c r="BC56" t="inlineStr"/>
-      <c r="BD56" t="n">
+      <c r="BC56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9279,63 +9109,60 @@
         <v>1</v>
       </c>
       <c r="AK57" t="n">
-        <v>1.5</v>
+        <v>5400</v>
       </c>
       <c r="AL57" t="n">
-        <v>5400</v>
+        <v>35656</v>
       </c>
       <c r="AM57" t="n">
-        <v>29701</v>
+        <v>32505</v>
       </c>
       <c r="AN57" t="n">
-        <v>32505</v>
+        <v>31705</v>
       </c>
       <c r="AO57" t="n">
-        <v>32460</v>
+        <v>91939</v>
       </c>
       <c r="AP57" t="n">
-        <v>91939</v>
+        <v>28310</v>
       </c>
       <c r="AQ57" t="n">
-        <v>34017</v>
+        <v>188947</v>
       </c>
       <c r="AR57" t="n">
-        <v>188947</v>
+        <v>21018</v>
       </c>
       <c r="AS57" t="n">
-        <v>28165</v>
+        <v>355554</v>
       </c>
       <c r="AT57" t="n">
-        <v>355554</v>
+        <v>15060</v>
       </c>
       <c r="AU57" t="n">
-        <v>21854</v>
+        <v>525668</v>
       </c>
       <c r="AV57" t="n">
-        <v>525668</v>
+        <v>9906</v>
       </c>
       <c r="AW57" t="n">
-        <v>25712</v>
+        <v>874011</v>
       </c>
       <c r="AX57" t="n">
-        <v>874011</v>
+        <v>0</v>
       </c>
       <c r="AY57" t="n">
-        <v>3504</v>
+        <v>1043905</v>
       </c>
       <c r="AZ57" t="n">
-        <v>1043905</v>
+        <v>145</v>
       </c>
       <c r="BA57" t="n">
-        <v>656</v>
+        <v>1647423</v>
       </c>
       <c r="BB57" t="n">
-        <v>1647423</v>
+        <v>0</v>
       </c>
       <c r="BC57" t="n">
-        <v>75</v>
-      </c>
-      <c r="BD57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9451,26 +9278,24 @@
         <v>1</v>
       </c>
       <c r="AK58" t="n">
-        <v>0.25</v>
+        <v>900</v>
       </c>
       <c r="AL58" t="n">
-        <v>900</v>
+        <v>26198</v>
       </c>
       <c r="AM58" t="n">
-        <v>8044</v>
+        <v>52617</v>
       </c>
       <c r="AN58" t="n">
-        <v>52617</v>
+        <v>41315</v>
       </c>
       <c r="AO58" t="n">
-        <v>8452</v>
+        <v>1106297</v>
       </c>
       <c r="AP58" t="n">
-        <v>1106297</v>
-      </c>
-      <c r="AQ58" t="n">
-        <v>9374</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AQ58" t="inlineStr"/>
       <c r="AR58" t="inlineStr"/>
       <c r="AS58" t="inlineStr"/>
       <c r="AT58" t="inlineStr"/>
@@ -9482,8 +9307,7 @@
       <c r="AZ58" t="inlineStr"/>
       <c r="BA58" t="inlineStr"/>
       <c r="BB58" t="inlineStr"/>
-      <c r="BC58" t="inlineStr"/>
-      <c r="BD58" t="n">
+      <c r="BC58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9599,26 +9423,24 @@
         <v>1</v>
       </c>
       <c r="AK59" t="n">
-        <v>10</v>
+        <v>36000</v>
       </c>
       <c r="AL59" t="n">
-        <v>36000</v>
+        <v>67858</v>
       </c>
       <c r="AM59" t="n">
-        <v>11479</v>
+        <v>77976</v>
       </c>
       <c r="AN59" t="n">
-        <v>77976</v>
+        <v>68579</v>
       </c>
       <c r="AO59" t="n">
-        <v>18889</v>
+        <v>218824</v>
       </c>
       <c r="AP59" t="n">
-        <v>218824</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>16984</v>
-      </c>
+        <v>57677</v>
+      </c>
+      <c r="AQ59" t="inlineStr"/>
       <c r="AR59" t="inlineStr"/>
       <c r="AS59" t="inlineStr"/>
       <c r="AT59" t="inlineStr"/>
@@ -9630,8 +9452,7 @@
       <c r="AZ59" t="inlineStr"/>
       <c r="BA59" t="inlineStr"/>
       <c r="BB59" t="inlineStr"/>
-      <c r="BC59" t="inlineStr"/>
-      <c r="BD59" t="n">
+      <c r="BC59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9747,26 +9568,24 @@
         <v>1</v>
       </c>
       <c r="AK60" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL60" t="n">
-        <v>3600</v>
+        <v>26891</v>
       </c>
       <c r="AM60" t="n">
-        <v>1396</v>
+        <v>166001</v>
       </c>
       <c r="AN60" t="n">
-        <v>166001</v>
+        <v>21224</v>
       </c>
       <c r="AO60" t="n">
-        <v>3226</v>
+        <v>857187</v>
       </c>
       <c r="AP60" t="n">
-        <v>857187</v>
-      </c>
-      <c r="AQ60" t="n">
-        <v>1488</v>
-      </c>
+        <v>16409</v>
+      </c>
+      <c r="AQ60" t="inlineStr"/>
       <c r="AR60" t="inlineStr"/>
       <c r="AS60" t="inlineStr"/>
       <c r="AT60" t="inlineStr"/>
@@ -9778,8 +9597,7 @@
       <c r="AZ60" t="inlineStr"/>
       <c r="BA60" t="inlineStr"/>
       <c r="BB60" t="inlineStr"/>
-      <c r="BC60" t="inlineStr"/>
-      <c r="BD60" t="n">
+      <c r="BC60" t="n">
         <v>2</v>
       </c>
     </row>
@@ -9895,63 +9713,60 @@
         <v>1</v>
       </c>
       <c r="AK61" t="n">
-        <v>0.5</v>
+        <v>1800</v>
       </c>
       <c r="AL61" t="n">
-        <v>1800</v>
+        <v>38762</v>
       </c>
       <c r="AM61" t="n">
-        <v>33604</v>
+        <v>85414</v>
       </c>
       <c r="AN61" t="n">
-        <v>85414</v>
+        <v>66224</v>
       </c>
       <c r="AO61" t="n">
-        <v>44899</v>
+        <v>176480</v>
       </c>
       <c r="AP61" t="n">
-        <v>176480</v>
+        <v>64215</v>
       </c>
       <c r="AQ61" t="n">
-        <v>40634</v>
+        <v>346644</v>
       </c>
       <c r="AR61" t="n">
-        <v>346644</v>
+        <v>64458</v>
       </c>
       <c r="AS61" t="n">
-        <v>39878</v>
+        <v>428026</v>
       </c>
       <c r="AT61" t="n">
-        <v>428026</v>
+        <v>62895</v>
       </c>
       <c r="AU61" t="n">
-        <v>37116</v>
+        <v>458762</v>
       </c>
       <c r="AV61" t="n">
-        <v>458762</v>
+        <v>63492</v>
       </c>
       <c r="AW61" t="n">
-        <v>39921</v>
+        <v>864399</v>
       </c>
       <c r="AX61" t="n">
-        <v>864399</v>
+        <v>54492</v>
       </c>
       <c r="AY61" t="n">
-        <v>33087</v>
+        <v>1059868</v>
       </c>
       <c r="AZ61" t="n">
-        <v>1059868</v>
+        <v>44671</v>
       </c>
       <c r="BA61" t="n">
-        <v>22092</v>
+        <v>1472438</v>
       </c>
       <c r="BB61" t="n">
-        <v>1472438</v>
+        <v>24492</v>
       </c>
       <c r="BC61" t="n">
-        <v>20720</v>
-      </c>
-      <c r="BD61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10067,51 +9882,48 @@
         <v>1</v>
       </c>
       <c r="AK62" t="n">
-        <v>0.5</v>
+        <v>1800</v>
       </c>
       <c r="AL62" t="n">
-        <v>1800</v>
+        <v>42206</v>
       </c>
       <c r="AM62" t="n">
-        <v>15164</v>
+        <v>23550</v>
       </c>
       <c r="AN62" t="n">
-        <v>23550</v>
+        <v>51155</v>
       </c>
       <c r="AO62" t="n">
-        <v>21082</v>
+        <v>93564</v>
       </c>
       <c r="AP62" t="n">
-        <v>93564</v>
+        <v>55501</v>
       </c>
       <c r="AQ62" t="n">
-        <v>53924</v>
+        <v>258731</v>
       </c>
       <c r="AR62" t="n">
-        <v>258731</v>
+        <v>53730</v>
       </c>
       <c r="AS62" t="n">
-        <v>69798</v>
+        <v>690727</v>
       </c>
       <c r="AT62" t="n">
-        <v>690727</v>
+        <v>54880</v>
       </c>
       <c r="AU62" t="n">
-        <v>89272</v>
+        <v>1380998</v>
       </c>
       <c r="AV62" t="n">
-        <v>1380998</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>115006</v>
-      </c>
+        <v>32883</v>
+      </c>
+      <c r="AW62" t="inlineStr"/>
       <c r="AX62" t="inlineStr"/>
       <c r="AY62" t="inlineStr"/>
       <c r="AZ62" t="inlineStr"/>
       <c r="BA62" t="inlineStr"/>
       <c r="BB62" t="inlineStr"/>
-      <c r="BC62" t="inlineStr"/>
-      <c r="BD62" t="n">
+      <c r="BC62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10227,26 +10039,24 @@
         <v>1</v>
       </c>
       <c r="AK63" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL63" t="n">
-        <v>10800</v>
+        <v>20550</v>
       </c>
       <c r="AM63" t="n">
-        <v>10197</v>
+        <v>65858</v>
       </c>
       <c r="AN63" t="n">
-        <v>65858</v>
+        <v>14427</v>
       </c>
       <c r="AO63" t="n">
-        <v>13043</v>
+        <v>650704</v>
       </c>
       <c r="AP63" t="n">
-        <v>650704</v>
-      </c>
-      <c r="AQ63" t="n">
-        <v>21970</v>
-      </c>
+        <v>9075</v>
+      </c>
+      <c r="AQ63" t="inlineStr"/>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
       <c r="AT63" t="inlineStr"/>
@@ -10258,8 +10068,7 @@
       <c r="AZ63" t="inlineStr"/>
       <c r="BA63" t="inlineStr"/>
       <c r="BB63" t="inlineStr"/>
-      <c r="BC63" t="inlineStr"/>
-      <c r="BD63" t="n">
+      <c r="BC63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10375,59 +10184,56 @@
         <v>1</v>
       </c>
       <c r="AK64" t="n">
-        <v>10</v>
+        <v>36000</v>
       </c>
       <c r="AL64" t="n">
-        <v>36000</v>
+        <v>10231</v>
       </c>
       <c r="AM64" t="n">
-        <v>7625</v>
+        <v>99942</v>
       </c>
       <c r="AN64" t="n">
-        <v>99942</v>
+        <v>11007</v>
       </c>
       <c r="AO64" t="n">
-        <v>9134</v>
+        <v>204732</v>
       </c>
       <c r="AP64" t="n">
-        <v>204732</v>
+        <v>35730</v>
       </c>
       <c r="AQ64" t="n">
-        <v>20963</v>
+        <v>533816</v>
       </c>
       <c r="AR64" t="n">
-        <v>533816</v>
+        <v>24504</v>
       </c>
       <c r="AS64" t="n">
-        <v>54349</v>
+        <v>977710</v>
       </c>
       <c r="AT64" t="n">
-        <v>977710</v>
+        <v>21547</v>
       </c>
       <c r="AU64" t="n">
-        <v>61937</v>
+        <v>1562664</v>
       </c>
       <c r="AV64" t="n">
-        <v>1562664</v>
+        <v>7331</v>
       </c>
       <c r="AW64" t="n">
-        <v>49420</v>
+        <v>3486045</v>
       </c>
       <c r="AX64" t="n">
-        <v>3486045</v>
+        <v>43</v>
       </c>
       <c r="AY64" t="n">
-        <v>117530</v>
+        <v>3520848</v>
       </c>
       <c r="AZ64" t="n">
-        <v>3520848</v>
-      </c>
-      <c r="BA64" t="n">
-        <v>47223</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="BA64" t="inlineStr"/>
       <c r="BB64" t="inlineStr"/>
-      <c r="BC64" t="inlineStr"/>
-      <c r="BD64" t="n">
+      <c r="BC64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10543,51 +10349,48 @@
         <v>1</v>
       </c>
       <c r="AK65" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL65" t="n">
-        <v>3600</v>
+        <v>27984</v>
       </c>
       <c r="AM65" t="n">
-        <v>7239</v>
+        <v>29000</v>
       </c>
       <c r="AN65" t="n">
-        <v>29000</v>
+        <v>23168</v>
       </c>
       <c r="AO65" t="n">
-        <v>4015</v>
+        <v>197594</v>
       </c>
       <c r="AP65" t="n">
-        <v>197594</v>
+        <v>8939</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1169</v>
+        <v>1123304</v>
       </c>
       <c r="AR65" t="n">
-        <v>1123304</v>
+        <v>2420</v>
       </c>
       <c r="AS65" t="n">
-        <v>1736</v>
+        <v>2246219</v>
       </c>
       <c r="AT65" t="n">
-        <v>2246219</v>
+        <v>0</v>
       </c>
       <c r="AU65" t="n">
-        <v>32</v>
+        <v>3458355</v>
       </c>
       <c r="AV65" t="n">
-        <v>3458355</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AW65" t="inlineStr"/>
       <c r="AX65" t="inlineStr"/>
       <c r="AY65" t="inlineStr"/>
       <c r="AZ65" t="inlineStr"/>
       <c r="BA65" t="inlineStr"/>
       <c r="BB65" t="inlineStr"/>
-      <c r="BC65" t="inlineStr"/>
-      <c r="BD65" t="n">
+      <c r="BC65" t="n">
         <v>3</v>
       </c>
     </row>
@@ -10703,32 +10506,30 @@
         <v>1</v>
       </c>
       <c r="AK66" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL66" t="n">
-        <v>7200</v>
+        <v>80714</v>
       </c>
       <c r="AM66" t="n">
-        <v>45074</v>
+        <v>63760</v>
       </c>
       <c r="AN66" t="n">
-        <v>63760</v>
+        <v>81289</v>
       </c>
       <c r="AO66" t="n">
-        <v>38474</v>
+        <v>428011</v>
       </c>
       <c r="AP66" t="n">
-        <v>428011</v>
+        <v>76135</v>
       </c>
       <c r="AQ66" t="n">
-        <v>47084</v>
+        <v>1900883</v>
       </c>
       <c r="AR66" t="n">
-        <v>1900883</v>
-      </c>
-      <c r="AS66" t="n">
-        <v>50230</v>
-      </c>
+        <v>29411</v>
+      </c>
+      <c r="AS66" t="inlineStr"/>
       <c r="AT66" t="inlineStr"/>
       <c r="AU66" t="inlineStr"/>
       <c r="AV66" t="inlineStr"/>
@@ -10738,8 +10539,7 @@
       <c r="AZ66" t="inlineStr"/>
       <c r="BA66" t="inlineStr"/>
       <c r="BB66" t="inlineStr"/>
-      <c r="BC66" t="inlineStr"/>
-      <c r="BD66" t="n">
+      <c r="BC66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10855,38 +10655,36 @@
         <v>1</v>
       </c>
       <c r="AK67" t="n">
-        <v>8</v>
+        <v>28800</v>
       </c>
       <c r="AL67" t="n">
-        <v>28800</v>
+        <v>59392</v>
       </c>
       <c r="AM67" t="n">
-        <v>20309</v>
+        <v>44719</v>
       </c>
       <c r="AN67" t="n">
-        <v>44719</v>
+        <v>56944</v>
       </c>
       <c r="AO67" t="n">
-        <v>39676</v>
+        <v>179616</v>
       </c>
       <c r="AP67" t="n">
-        <v>179616</v>
+        <v>51984</v>
       </c>
       <c r="AQ67" t="n">
-        <v>34176</v>
+        <v>443144</v>
       </c>
       <c r="AR67" t="n">
-        <v>443144</v>
+        <v>41685</v>
       </c>
       <c r="AS67" t="n">
-        <v>25422</v>
+        <v>889779</v>
       </c>
       <c r="AT67" t="n">
-        <v>889779</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>11795</v>
-      </c>
+        <v>16826</v>
+      </c>
+      <c r="AU67" t="inlineStr"/>
       <c r="AV67" t="inlineStr"/>
       <c r="AW67" t="inlineStr"/>
       <c r="AX67" t="inlineStr"/>
@@ -10894,8 +10692,7 @@
       <c r="AZ67" t="inlineStr"/>
       <c r="BA67" t="inlineStr"/>
       <c r="BB67" t="inlineStr"/>
-      <c r="BC67" t="inlineStr"/>
-      <c r="BD67" t="n">
+      <c r="BC67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11011,26 +10808,24 @@
         <v>1</v>
       </c>
       <c r="AK68" t="n">
-        <v>4</v>
+        <v>14400</v>
       </c>
       <c r="AL68" t="n">
-        <v>14400</v>
+        <v>27422</v>
       </c>
       <c r="AM68" t="n">
-        <v>4242</v>
+        <v>101930</v>
       </c>
       <c r="AN68" t="n">
-        <v>101930</v>
+        <v>26999</v>
       </c>
       <c r="AO68" t="n">
-        <v>5065</v>
+        <v>459139</v>
       </c>
       <c r="AP68" t="n">
-        <v>459139</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>11560</v>
-      </c>
+        <v>27031</v>
+      </c>
+      <c r="AQ68" t="inlineStr"/>
       <c r="AR68" t="inlineStr"/>
       <c r="AS68" t="inlineStr"/>
       <c r="AT68" t="inlineStr"/>
@@ -11042,8 +10837,7 @@
       <c r="AZ68" t="inlineStr"/>
       <c r="BA68" t="inlineStr"/>
       <c r="BB68" t="inlineStr"/>
-      <c r="BC68" t="inlineStr"/>
-      <c r="BD68" t="n">
+      <c r="BC68" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11159,59 +10953,56 @@
         <v>1</v>
       </c>
       <c r="AK69" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL69" t="n">
-        <v>7200</v>
+        <v>31318</v>
       </c>
       <c r="AM69" t="n">
-        <v>14681</v>
+        <v>108085</v>
       </c>
       <c r="AN69" t="n">
-        <v>108085</v>
+        <v>29434</v>
       </c>
       <c r="AO69" t="n">
-        <v>22769</v>
+        <v>534785</v>
       </c>
       <c r="AP69" t="n">
-        <v>534785</v>
+        <v>26073</v>
       </c>
       <c r="AQ69" t="n">
-        <v>50903</v>
+        <v>1572424</v>
       </c>
       <c r="AR69" t="n">
-        <v>1572424</v>
+        <v>4194</v>
       </c>
       <c r="AS69" t="n">
-        <v>56544</v>
+        <v>1901762</v>
       </c>
       <c r="AT69" t="n">
-        <v>1901762</v>
+        <v>137</v>
       </c>
       <c r="AU69" t="n">
-        <v>55916</v>
+        <v>6576186</v>
       </c>
       <c r="AV69" t="n">
-        <v>6576186</v>
+        <v>43</v>
       </c>
       <c r="AW69" t="n">
-        <v>162</v>
+        <v>9511190</v>
       </c>
       <c r="AX69" t="n">
-        <v>9511190</v>
+        <v>105</v>
       </c>
       <c r="AY69" t="n">
-        <v>451</v>
+        <v>17284394</v>
       </c>
       <c r="AZ69" t="n">
-        <v>17284394</v>
-      </c>
-      <c r="BA69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BA69" t="inlineStr"/>
       <c r="BB69" t="inlineStr"/>
-      <c r="BC69" t="inlineStr"/>
-      <c r="BD69" t="n">
+      <c r="BC69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11327,38 +11118,36 @@
         <v>1</v>
       </c>
       <c r="AK70" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL70" t="n">
-        <v>7200</v>
+        <v>107467</v>
       </c>
       <c r="AM70" t="n">
-        <v>41370</v>
+        <v>162995</v>
       </c>
       <c r="AN70" t="n">
-        <v>162995</v>
+        <v>72096</v>
       </c>
       <c r="AO70" t="n">
-        <v>44764</v>
+        <v>706202</v>
       </c>
       <c r="AP70" t="n">
-        <v>706202</v>
+        <v>37476</v>
       </c>
       <c r="AQ70" t="n">
-        <v>30013</v>
+        <v>1222218</v>
       </c>
       <c r="AR70" t="n">
-        <v>1222218</v>
+        <v>22614</v>
       </c>
       <c r="AS70" t="n">
-        <v>20900</v>
+        <v>1889738</v>
       </c>
       <c r="AT70" t="n">
-        <v>1889738</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>11519</v>
-      </c>
+        <v>11865</v>
+      </c>
+      <c r="AU70" t="inlineStr"/>
       <c r="AV70" t="inlineStr"/>
       <c r="AW70" t="inlineStr"/>
       <c r="AX70" t="inlineStr"/>
@@ -11366,8 +11155,7 @@
       <c r="AZ70" t="inlineStr"/>
       <c r="BA70" t="inlineStr"/>
       <c r="BB70" t="inlineStr"/>
-      <c r="BC70" t="inlineStr"/>
-      <c r="BD70" t="n">
+      <c r="BC70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11483,26 +11271,24 @@
         <v>1</v>
       </c>
       <c r="AK71" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL71" t="n">
-        <v>10800</v>
+        <v>8430</v>
       </c>
       <c r="AM71" t="n">
-        <v>8178</v>
+        <v>34752</v>
       </c>
       <c r="AN71" t="n">
-        <v>34752</v>
+        <v>12318</v>
       </c>
       <c r="AO71" t="n">
-        <v>10374</v>
+        <v>1072648</v>
       </c>
       <c r="AP71" t="n">
-        <v>1072648</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>15157</v>
-      </c>
+        <v>8877</v>
+      </c>
+      <c r="AQ71" t="inlineStr"/>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
       <c r="AT71" t="inlineStr"/>
@@ -11514,8 +11300,7 @@
       <c r="AZ71" t="inlineStr"/>
       <c r="BA71" t="inlineStr"/>
       <c r="BB71" t="inlineStr"/>
-      <c r="BC71" t="inlineStr"/>
-      <c r="BD71" t="n">
+      <c r="BC71" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11631,51 +11416,48 @@
         <v>1</v>
       </c>
       <c r="AK72" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL72" t="n">
-        <v>7200</v>
+        <v>37339</v>
       </c>
       <c r="AM72" t="n">
-        <v>27830</v>
+        <v>58536</v>
       </c>
       <c r="AN72" t="n">
-        <v>58536</v>
+        <v>41093</v>
       </c>
       <c r="AO72" t="n">
-        <v>33546</v>
+        <v>161753</v>
       </c>
       <c r="AP72" t="n">
-        <v>161753</v>
+        <v>42889</v>
       </c>
       <c r="AQ72" t="n">
-        <v>7538</v>
+        <v>749449</v>
       </c>
       <c r="AR72" t="n">
-        <v>749449</v>
+        <v>34260</v>
       </c>
       <c r="AS72" t="n">
-        <v>66089</v>
+        <v>925171</v>
       </c>
       <c r="AT72" t="n">
-        <v>925171</v>
+        <v>22823</v>
       </c>
       <c r="AU72" t="n">
-        <v>70518</v>
+        <v>3342602</v>
       </c>
       <c r="AV72" t="n">
-        <v>3342602</v>
-      </c>
-      <c r="AW72" t="n">
-        <v>487</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AW72" t="inlineStr"/>
       <c r="AX72" t="inlineStr"/>
       <c r="AY72" t="inlineStr"/>
       <c r="AZ72" t="inlineStr"/>
       <c r="BA72" t="inlineStr"/>
       <c r="BB72" t="inlineStr"/>
-      <c r="BC72" t="inlineStr"/>
-      <c r="BD72" t="n">
+      <c r="BC72" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11791,26 +11573,24 @@
         <v>1</v>
       </c>
       <c r="AK73" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL73" t="n">
-        <v>7200</v>
+        <v>12829</v>
       </c>
       <c r="AM73" t="n">
-        <v>10390</v>
+        <v>70749</v>
       </c>
       <c r="AN73" t="n">
-        <v>70749</v>
+        <v>13604</v>
       </c>
       <c r="AO73" t="n">
-        <v>18574</v>
+        <v>670489</v>
       </c>
       <c r="AP73" t="n">
-        <v>670489</v>
-      </c>
-      <c r="AQ73" t="n">
-        <v>16510</v>
-      </c>
+        <v>14134</v>
+      </c>
+      <c r="AQ73" t="inlineStr"/>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
       <c r="AT73" t="inlineStr"/>
@@ -11822,8 +11602,7 @@
       <c r="AZ73" t="inlineStr"/>
       <c r="BA73" t="inlineStr"/>
       <c r="BB73" t="inlineStr"/>
-      <c r="BC73" t="inlineStr"/>
-      <c r="BD73" t="n">
+      <c r="BC73" t="n">
         <v>3</v>
       </c>
     </row>
@@ -11939,26 +11718,24 @@
         <v>1</v>
       </c>
       <c r="AK74" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL74" t="n">
-        <v>7200</v>
+        <v>18092</v>
       </c>
       <c r="AM74" t="n">
-        <v>3974</v>
+        <v>96460</v>
       </c>
       <c r="AN74" t="n">
-        <v>96460</v>
+        <v>15103</v>
       </c>
       <c r="AO74" t="n">
-        <v>6752</v>
+        <v>526460</v>
       </c>
       <c r="AP74" t="n">
-        <v>526460</v>
-      </c>
-      <c r="AQ74" t="n">
-        <v>7129</v>
-      </c>
+        <v>8688</v>
+      </c>
+      <c r="AQ74" t="inlineStr"/>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
       <c r="AT74" t="inlineStr"/>
@@ -11970,8 +11747,7 @@
       <c r="AZ74" t="inlineStr"/>
       <c r="BA74" t="inlineStr"/>
       <c r="BB74" t="inlineStr"/>
-      <c r="BC74" t="inlineStr"/>
-      <c r="BD74" t="n">
+      <c r="BC74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12087,51 +11863,48 @@
         <v>1</v>
       </c>
       <c r="AK75" t="n">
-        <v>1.5</v>
+        <v>5400</v>
       </c>
       <c r="AL75" t="n">
+        <v>36954</v>
+      </c>
+      <c r="AM75" t="n">
         <v>5400</v>
       </c>
-      <c r="AM75" t="n">
-        <v>29318</v>
-      </c>
       <c r="AN75" t="n">
-        <v>5400</v>
+        <v>36351</v>
       </c>
       <c r="AO75" t="n">
-        <v>40785</v>
+        <v>91618</v>
       </c>
       <c r="AP75" t="n">
-        <v>91618</v>
+        <v>37303</v>
       </c>
       <c r="AQ75" t="n">
-        <v>55014</v>
+        <v>350282</v>
       </c>
       <c r="AR75" t="n">
-        <v>350282</v>
+        <v>36621</v>
       </c>
       <c r="AS75" t="n">
-        <v>77423</v>
+        <v>609508</v>
       </c>
       <c r="AT75" t="n">
-        <v>609508</v>
+        <v>31780</v>
       </c>
       <c r="AU75" t="n">
-        <v>94712</v>
+        <v>2407357</v>
       </c>
       <c r="AV75" t="n">
-        <v>2407357</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>67780</v>
-      </c>
+        <v>1851</v>
+      </c>
+      <c r="AW75" t="inlineStr"/>
       <c r="AX75" t="inlineStr"/>
       <c r="AY75" t="inlineStr"/>
       <c r="AZ75" t="inlineStr"/>
       <c r="BA75" t="inlineStr"/>
       <c r="BB75" t="inlineStr"/>
-      <c r="BC75" t="inlineStr"/>
-      <c r="BD75" t="n">
+      <c r="BC75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12247,38 +12020,36 @@
         <v>1</v>
       </c>
       <c r="AK76" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL76" t="n">
-        <v>10800</v>
+        <v>17480</v>
       </c>
       <c r="AM76" t="n">
-        <v>17633</v>
+        <v>49198</v>
       </c>
       <c r="AN76" t="n">
-        <v>49198</v>
+        <v>17449</v>
       </c>
       <c r="AO76" t="n">
-        <v>13297</v>
+        <v>311051</v>
       </c>
       <c r="AP76" t="n">
-        <v>311051</v>
+        <v>18302</v>
       </c>
       <c r="AQ76" t="n">
-        <v>42038</v>
+        <v>750969</v>
       </c>
       <c r="AR76" t="n">
-        <v>750969</v>
+        <v>13907</v>
       </c>
       <c r="AS76" t="n">
-        <v>34310</v>
+        <v>3339255</v>
       </c>
       <c r="AT76" t="n">
-        <v>3339255</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>11202</v>
-      </c>
+        <v>1108</v>
+      </c>
+      <c r="AU76" t="inlineStr"/>
       <c r="AV76" t="inlineStr"/>
       <c r="AW76" t="inlineStr"/>
       <c r="AX76" t="inlineStr"/>
@@ -12286,8 +12057,7 @@
       <c r="AZ76" t="inlineStr"/>
       <c r="BA76" t="inlineStr"/>
       <c r="BB76" t="inlineStr"/>
-      <c r="BC76" t="inlineStr"/>
-      <c r="BD76" t="n">
+      <c r="BC76" t="n">
         <v>3</v>
       </c>
     </row>
@@ -12403,38 +12173,36 @@
         <v>1</v>
       </c>
       <c r="AK77" t="n">
-        <v>1.5</v>
+        <v>5400</v>
       </c>
       <c r="AL77" t="n">
-        <v>5400</v>
+        <v>16400</v>
       </c>
       <c r="AM77" t="n">
-        <v>10154</v>
+        <v>57577</v>
       </c>
       <c r="AN77" t="n">
-        <v>57577</v>
+        <v>26479</v>
       </c>
       <c r="AO77" t="n">
-        <v>12104</v>
+        <v>229962</v>
       </c>
       <c r="AP77" t="n">
-        <v>229962</v>
+        <v>25120</v>
       </c>
       <c r="AQ77" t="n">
-        <v>11581</v>
+        <v>744294</v>
       </c>
       <c r="AR77" t="n">
-        <v>744294</v>
+        <v>18291</v>
       </c>
       <c r="AS77" t="n">
-        <v>14763</v>
+        <v>1377103</v>
       </c>
       <c r="AT77" t="n">
-        <v>1377103</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>7061</v>
-      </c>
+        <v>3967</v>
+      </c>
+      <c r="AU77" t="inlineStr"/>
       <c r="AV77" t="inlineStr"/>
       <c r="AW77" t="inlineStr"/>
       <c r="AX77" t="inlineStr"/>
@@ -12442,8 +12210,7 @@
       <c r="AZ77" t="inlineStr"/>
       <c r="BA77" t="inlineStr"/>
       <c r="BB77" t="inlineStr"/>
-      <c r="BC77" t="inlineStr"/>
-      <c r="BD77" t="n">
+      <c r="BC77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12559,38 +12326,36 @@
         <v>1</v>
       </c>
       <c r="AK78" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL78" t="n">
-        <v>7200</v>
+        <v>87595</v>
       </c>
       <c r="AM78" t="n">
-        <v>9003</v>
+        <v>50830</v>
       </c>
       <c r="AN78" t="n">
-        <v>50830</v>
+        <v>124215</v>
       </c>
       <c r="AO78" t="n">
-        <v>31618</v>
+        <v>421350</v>
       </c>
       <c r="AP78" t="n">
-        <v>421350</v>
+        <v>95964</v>
       </c>
       <c r="AQ78" t="n">
-        <v>27787</v>
+        <v>596581</v>
       </c>
       <c r="AR78" t="n">
-        <v>596581</v>
+        <v>83228</v>
       </c>
       <c r="AS78" t="n">
-        <v>45271</v>
+        <v>2237049</v>
       </c>
       <c r="AT78" t="n">
-        <v>2237049</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>38415</v>
-      </c>
+        <v>16443</v>
+      </c>
+      <c r="AU78" t="inlineStr"/>
       <c r="AV78" t="inlineStr"/>
       <c r="AW78" t="inlineStr"/>
       <c r="AX78" t="inlineStr"/>
@@ -12598,8 +12363,7 @@
       <c r="AZ78" t="inlineStr"/>
       <c r="BA78" t="inlineStr"/>
       <c r="BB78" t="inlineStr"/>
-      <c r="BC78" t="inlineStr"/>
-      <c r="BD78" t="n">
+      <c r="BC78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12715,26 +12479,24 @@
         <v>1</v>
       </c>
       <c r="AK79" t="n">
-        <v>5</v>
+        <v>18000</v>
       </c>
       <c r="AL79" t="n">
-        <v>18000</v>
+        <v>2481</v>
       </c>
       <c r="AM79" t="n">
-        <v>2679</v>
+        <v>112463</v>
       </c>
       <c r="AN79" t="n">
-        <v>112463</v>
+        <v>1798</v>
       </c>
       <c r="AO79" t="n">
-        <v>552</v>
+        <v>721156</v>
       </c>
       <c r="AP79" t="n">
-        <v>721156</v>
-      </c>
-      <c r="AQ79" t="n">
-        <v>2378</v>
-      </c>
+        <v>1616</v>
+      </c>
+      <c r="AQ79" t="inlineStr"/>
       <c r="AR79" t="inlineStr"/>
       <c r="AS79" t="inlineStr"/>
       <c r="AT79" t="inlineStr"/>
@@ -12746,8 +12508,7 @@
       <c r="AZ79" t="inlineStr"/>
       <c r="BA79" t="inlineStr"/>
       <c r="BB79" t="inlineStr"/>
-      <c r="BC79" t="inlineStr"/>
-      <c r="BD79" t="n">
+      <c r="BC79" t="n">
         <v>2</v>
       </c>
     </row>
@@ -12863,38 +12624,36 @@
         <v>1</v>
       </c>
       <c r="AK80" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL80" t="n">
-        <v>3600</v>
+        <v>6543</v>
       </c>
       <c r="AM80" t="n">
-        <v>7317</v>
+        <v>100250</v>
       </c>
       <c r="AN80" t="n">
-        <v>100250</v>
+        <v>12694</v>
       </c>
       <c r="AO80" t="n">
-        <v>6525</v>
+        <v>787286</v>
       </c>
       <c r="AP80" t="n">
-        <v>787286</v>
+        <v>7980</v>
       </c>
       <c r="AQ80" t="n">
-        <v>9754</v>
+        <v>1157675</v>
       </c>
       <c r="AR80" t="n">
-        <v>1157675</v>
+        <v>1079</v>
       </c>
       <c r="AS80" t="n">
-        <v>1794</v>
+        <v>4158689</v>
       </c>
       <c r="AT80" t="n">
-        <v>4158689</v>
-      </c>
-      <c r="AU80" t="n">
-        <v>53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AU80" t="inlineStr"/>
       <c r="AV80" t="inlineStr"/>
       <c r="AW80" t="inlineStr"/>
       <c r="AX80" t="inlineStr"/>
@@ -12902,8 +12661,7 @@
       <c r="AZ80" t="inlineStr"/>
       <c r="BA80" t="inlineStr"/>
       <c r="BB80" t="inlineStr"/>
-      <c r="BC80" t="inlineStr"/>
-      <c r="BD80" t="n">
+      <c r="BC80" t="n">
         <v>2</v>
       </c>
     </row>
@@ -13019,26 +12777,24 @@
         <v>1</v>
       </c>
       <c r="AK81" t="n">
-        <v>4</v>
+        <v>14400</v>
       </c>
       <c r="AL81" t="n">
-        <v>14400</v>
+        <v>66355</v>
       </c>
       <c r="AM81" t="n">
-        <v>12087</v>
+        <v>74064</v>
       </c>
       <c r="AN81" t="n">
-        <v>74064</v>
+        <v>74841</v>
       </c>
       <c r="AO81" t="n">
-        <v>13771</v>
+        <v>994970</v>
       </c>
       <c r="AP81" t="n">
-        <v>994970</v>
-      </c>
-      <c r="AQ81" t="n">
-        <v>5810</v>
-      </c>
+        <v>20078</v>
+      </c>
+      <c r="AQ81" t="inlineStr"/>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
       <c r="AT81" t="inlineStr"/>
@@ -13050,8 +12806,7 @@
       <c r="AZ81" t="inlineStr"/>
       <c r="BA81" t="inlineStr"/>
       <c r="BB81" t="inlineStr"/>
-      <c r="BC81" t="inlineStr"/>
-      <c r="BD81" t="n">
+      <c r="BC81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13167,38 +12922,36 @@
         <v>1</v>
       </c>
       <c r="AK82" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL82" t="n">
-        <v>10800</v>
+        <v>41688</v>
       </c>
       <c r="AM82" t="n">
-        <v>1091</v>
+        <v>98718</v>
       </c>
       <c r="AN82" t="n">
-        <v>98718</v>
+        <v>56986</v>
       </c>
       <c r="AO82" t="n">
-        <v>11074</v>
+        <v>464437</v>
       </c>
       <c r="AP82" t="n">
-        <v>464437</v>
+        <v>52785</v>
       </c>
       <c r="AQ82" t="n">
-        <v>15033</v>
+        <v>1151747</v>
       </c>
       <c r="AR82" t="n">
-        <v>1151747</v>
+        <v>19137</v>
       </c>
       <c r="AS82" t="n">
-        <v>8175</v>
+        <v>15507261</v>
       </c>
       <c r="AT82" t="n">
-        <v>15507261</v>
-      </c>
-      <c r="AU82" t="n">
-        <v>72247</v>
-      </c>
+        <v>219382</v>
+      </c>
+      <c r="AU82" t="inlineStr"/>
       <c r="AV82" t="inlineStr"/>
       <c r="AW82" t="inlineStr"/>
       <c r="AX82" t="inlineStr"/>
@@ -13206,8 +12959,7 @@
       <c r="AZ82" t="inlineStr"/>
       <c r="BA82" t="inlineStr"/>
       <c r="BB82" t="inlineStr"/>
-      <c r="BC82" t="inlineStr"/>
-      <c r="BD82" t="n">
+      <c r="BC82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13323,26 +13075,24 @@
         <v>1</v>
       </c>
       <c r="AK83" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL83" t="n">
-        <v>3600</v>
+        <v>46320</v>
       </c>
       <c r="AM83" t="n">
-        <v>33837</v>
+        <v>86019</v>
       </c>
       <c r="AN83" t="n">
-        <v>86019</v>
+        <v>41919</v>
       </c>
       <c r="AO83" t="n">
-        <v>28344</v>
+        <v>686112</v>
       </c>
       <c r="AP83" t="n">
-        <v>686112</v>
-      </c>
-      <c r="AQ83" t="n">
-        <v>30438</v>
-      </c>
+        <v>25531</v>
+      </c>
+      <c r="AQ83" t="inlineStr"/>
       <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr"/>
       <c r="AT83" t="inlineStr"/>
@@ -13354,8 +13104,7 @@
       <c r="AZ83" t="inlineStr"/>
       <c r="BA83" t="inlineStr"/>
       <c r="BB83" t="inlineStr"/>
-      <c r="BC83" t="inlineStr"/>
-      <c r="BD83" t="n">
+      <c r="BC83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13471,26 +13220,24 @@
         <v>1</v>
       </c>
       <c r="AK84" t="n">
-        <v>10</v>
+        <v>36000</v>
       </c>
       <c r="AL84" t="n">
-        <v>36000</v>
+        <v>23493</v>
       </c>
       <c r="AM84" t="n">
-        <v>23326</v>
+        <v>130853</v>
       </c>
       <c r="AN84" t="n">
-        <v>130853</v>
+        <v>22029</v>
       </c>
       <c r="AO84" t="n">
-        <v>39556</v>
+        <v>457147</v>
       </c>
       <c r="AP84" t="n">
-        <v>457147</v>
-      </c>
-      <c r="AQ84" t="n">
-        <v>47580</v>
-      </c>
+        <v>20468</v>
+      </c>
+      <c r="AQ84" t="inlineStr"/>
       <c r="AR84" t="inlineStr"/>
       <c r="AS84" t="inlineStr"/>
       <c r="AT84" t="inlineStr"/>
@@ -13502,8 +13249,7 @@
       <c r="AZ84" t="inlineStr"/>
       <c r="BA84" t="inlineStr"/>
       <c r="BB84" t="inlineStr"/>
-      <c r="BC84" t="inlineStr"/>
-      <c r="BD84" t="n">
+      <c r="BC84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13619,38 +13365,36 @@
         <v>1</v>
       </c>
       <c r="AK85" t="n">
-        <v>1.5</v>
+        <v>5400</v>
       </c>
       <c r="AL85" t="n">
-        <v>5400</v>
+        <v>25871</v>
       </c>
       <c r="AM85" t="n">
-        <v>3216</v>
+        <v>48393</v>
       </c>
       <c r="AN85" t="n">
-        <v>48393</v>
+        <v>27422</v>
       </c>
       <c r="AO85" t="n">
-        <v>11371</v>
+        <v>135856</v>
       </c>
       <c r="AP85" t="n">
-        <v>135856</v>
+        <v>25628</v>
       </c>
       <c r="AQ85" t="n">
-        <v>21244</v>
+        <v>307485</v>
       </c>
       <c r="AR85" t="n">
-        <v>307485</v>
+        <v>24692</v>
       </c>
       <c r="AS85" t="n">
-        <v>30080</v>
+        <v>652621</v>
       </c>
       <c r="AT85" t="n">
-        <v>652621</v>
-      </c>
-      <c r="AU85" t="n">
-        <v>39377</v>
-      </c>
+        <v>13690</v>
+      </c>
+      <c r="AU85" t="inlineStr"/>
       <c r="AV85" t="inlineStr"/>
       <c r="AW85" t="inlineStr"/>
       <c r="AX85" t="inlineStr"/>
@@ -13658,8 +13402,7 @@
       <c r="AZ85" t="inlineStr"/>
       <c r="BA85" t="inlineStr"/>
       <c r="BB85" t="inlineStr"/>
-      <c r="BC85" t="inlineStr"/>
-      <c r="BD85" t="n">
+      <c r="BC85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13775,51 +13518,48 @@
         <v>1</v>
       </c>
       <c r="AK86" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL86" t="n">
-        <v>3600</v>
+        <v>74106</v>
       </c>
       <c r="AM86" t="n">
-        <v>53627</v>
+        <v>7907</v>
       </c>
       <c r="AN86" t="n">
-        <v>7907</v>
+        <v>65004</v>
       </c>
       <c r="AO86" t="n">
-        <v>46988</v>
+        <v>56208</v>
       </c>
       <c r="AP86" t="n">
-        <v>56208</v>
+        <v>79374</v>
       </c>
       <c r="AQ86" t="n">
-        <v>58358</v>
+        <v>416863</v>
       </c>
       <c r="AR86" t="n">
-        <v>416863</v>
+        <v>52431</v>
       </c>
       <c r="AS86" t="n">
-        <v>53073</v>
+        <v>746391</v>
       </c>
       <c r="AT86" t="n">
-        <v>746391</v>
+        <v>37517</v>
       </c>
       <c r="AU86" t="n">
-        <v>18619</v>
+        <v>1192490</v>
       </c>
       <c r="AV86" t="n">
-        <v>1192490</v>
-      </c>
-      <c r="AW86" t="n">
-        <v>15428</v>
-      </c>
+        <v>18276</v>
+      </c>
+      <c r="AW86" t="inlineStr"/>
       <c r="AX86" t="inlineStr"/>
       <c r="AY86" t="inlineStr"/>
       <c r="AZ86" t="inlineStr"/>
       <c r="BA86" t="inlineStr"/>
       <c r="BB86" t="inlineStr"/>
-      <c r="BC86" t="inlineStr"/>
-      <c r="BD86" t="n">
+      <c r="BC86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13935,32 +13675,30 @@
         <v>1</v>
       </c>
       <c r="AK87" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL87" t="n">
-        <v>10800</v>
+        <v>11027</v>
       </c>
       <c r="AM87" t="n">
-        <v>3327</v>
+        <v>66281</v>
       </c>
       <c r="AN87" t="n">
-        <v>66281</v>
+        <v>9567</v>
       </c>
       <c r="AO87" t="n">
-        <v>1154</v>
+        <v>645797</v>
       </c>
       <c r="AP87" t="n">
-        <v>645797</v>
+        <v>7630</v>
       </c>
       <c r="AQ87" t="n">
-        <v>6076</v>
+        <v>1253871</v>
       </c>
       <c r="AR87" t="n">
-        <v>1253871</v>
-      </c>
-      <c r="AS87" t="n">
-        <v>2490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AS87" t="inlineStr"/>
       <c r="AT87" t="inlineStr"/>
       <c r="AU87" t="inlineStr"/>
       <c r="AV87" t="inlineStr"/>
@@ -13970,8 +13708,7 @@
       <c r="AZ87" t="inlineStr"/>
       <c r="BA87" t="inlineStr"/>
       <c r="BB87" t="inlineStr"/>
-      <c r="BC87" t="inlineStr"/>
-      <c r="BD87" t="n">
+      <c r="BC87" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14087,38 +13824,36 @@
         <v>1</v>
       </c>
       <c r="AK88" t="n">
-        <v>1.5</v>
+        <v>5400</v>
       </c>
       <c r="AL88" t="n">
-        <v>5400</v>
+        <v>31627</v>
       </c>
       <c r="AM88" t="n">
-        <v>398</v>
+        <v>59575</v>
       </c>
       <c r="AN88" t="n">
-        <v>59575</v>
+        <v>34170</v>
       </c>
       <c r="AO88" t="n">
-        <v>1776</v>
+        <v>1009614</v>
       </c>
       <c r="AP88" t="n">
-        <v>1009614</v>
+        <v>27105</v>
       </c>
       <c r="AQ88" t="n">
-        <v>4054</v>
+        <v>1613771</v>
       </c>
       <c r="AR88" t="n">
-        <v>1613771</v>
+        <v>18048</v>
       </c>
       <c r="AS88" t="n">
-        <v>4603</v>
+        <v>9909519</v>
       </c>
       <c r="AT88" t="n">
-        <v>9909519</v>
-      </c>
-      <c r="AU88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AU88" t="inlineStr"/>
       <c r="AV88" t="inlineStr"/>
       <c r="AW88" t="inlineStr"/>
       <c r="AX88" t="inlineStr"/>
@@ -14126,8 +13861,7 @@
       <c r="AZ88" t="inlineStr"/>
       <c r="BA88" t="inlineStr"/>
       <c r="BB88" t="inlineStr"/>
-      <c r="BC88" t="inlineStr"/>
-      <c r="BD88" t="n">
+      <c r="BC88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14243,26 +13977,24 @@
         <v>1</v>
       </c>
       <c r="AK89" t="n">
-        <v>10</v>
+        <v>36000</v>
       </c>
       <c r="AL89" t="n">
-        <v>36000</v>
+        <v>9913</v>
       </c>
       <c r="AM89" t="n">
-        <v>23528</v>
+        <v>125127</v>
       </c>
       <c r="AN89" t="n">
-        <v>125127</v>
+        <v>11529</v>
       </c>
       <c r="AO89" t="n">
-        <v>13051</v>
+        <v>407161</v>
       </c>
       <c r="AP89" t="n">
-        <v>407161</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>29340</v>
-      </c>
+        <v>15745</v>
+      </c>
+      <c r="AQ89" t="inlineStr"/>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
       <c r="AT89" t="inlineStr"/>
@@ -14274,8 +14006,7 @@
       <c r="AZ89" t="inlineStr"/>
       <c r="BA89" t="inlineStr"/>
       <c r="BB89" t="inlineStr"/>
-      <c r="BC89" t="inlineStr"/>
-      <c r="BD89" t="n">
+      <c r="BC89" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14391,32 +14122,30 @@
         <v>1</v>
       </c>
       <c r="AK90" t="n">
-        <v>1.5</v>
+        <v>5400</v>
       </c>
       <c r="AL90" t="n">
-        <v>5400</v>
+        <v>17293</v>
       </c>
       <c r="AM90" t="n">
-        <v>9695</v>
+        <v>77090</v>
       </c>
       <c r="AN90" t="n">
-        <v>77090</v>
+        <v>17301</v>
       </c>
       <c r="AO90" t="n">
-        <v>17750</v>
+        <v>1021947</v>
       </c>
       <c r="AP90" t="n">
-        <v>1021947</v>
+        <v>2392</v>
       </c>
       <c r="AQ90" t="n">
-        <v>67976</v>
+        <v>1951591</v>
       </c>
       <c r="AR90" t="n">
-        <v>1951591</v>
-      </c>
-      <c r="AS90" t="n">
-        <v>21797</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AS90" t="inlineStr"/>
       <c r="AT90" t="inlineStr"/>
       <c r="AU90" t="inlineStr"/>
       <c r="AV90" t="inlineStr"/>
@@ -14426,8 +14155,7 @@
       <c r="AZ90" t="inlineStr"/>
       <c r="BA90" t="inlineStr"/>
       <c r="BB90" t="inlineStr"/>
-      <c r="BC90" t="inlineStr"/>
-      <c r="BD90" t="n">
+      <c r="BC90" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14543,32 +14271,30 @@
         <v>1</v>
       </c>
       <c r="AK91" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL91" t="n">
-        <v>7200</v>
+        <v>74353</v>
       </c>
       <c r="AM91" t="n">
-        <v>29614</v>
+        <v>47426</v>
       </c>
       <c r="AN91" t="n">
-        <v>47426</v>
+        <v>69496</v>
       </c>
       <c r="AO91" t="n">
-        <v>76322</v>
+        <v>569611</v>
       </c>
       <c r="AP91" t="n">
-        <v>569611</v>
+        <v>24960</v>
       </c>
       <c r="AQ91" t="n">
-        <v>16378</v>
+        <v>828342</v>
       </c>
       <c r="AR91" t="n">
-        <v>828342</v>
-      </c>
-      <c r="AS91" t="n">
-        <v>4787</v>
-      </c>
+        <v>13990</v>
+      </c>
+      <c r="AS91" t="inlineStr"/>
       <c r="AT91" t="inlineStr"/>
       <c r="AU91" t="inlineStr"/>
       <c r="AV91" t="inlineStr"/>
@@ -14578,8 +14304,7 @@
       <c r="AZ91" t="inlineStr"/>
       <c r="BA91" t="inlineStr"/>
       <c r="BB91" t="inlineStr"/>
-      <c r="BC91" t="inlineStr"/>
-      <c r="BD91" t="n">
+      <c r="BC91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14695,32 +14420,30 @@
         <v>1</v>
       </c>
       <c r="AK92" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL92" t="n">
-        <v>10800</v>
+        <v>11929</v>
       </c>
       <c r="AM92" t="n">
-        <v>5318</v>
+        <v>93912</v>
       </c>
       <c r="AN92" t="n">
-        <v>93912</v>
+        <v>13305</v>
       </c>
       <c r="AO92" t="n">
-        <v>11482</v>
+        <v>522173</v>
       </c>
       <c r="AP92" t="n">
-        <v>522173</v>
+        <v>13681</v>
       </c>
       <c r="AQ92" t="n">
-        <v>11741</v>
+        <v>1733098</v>
       </c>
       <c r="AR92" t="n">
-        <v>1733098</v>
-      </c>
-      <c r="AS92" t="n">
-        <v>10975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AS92" t="inlineStr"/>
       <c r="AT92" t="inlineStr"/>
       <c r="AU92" t="inlineStr"/>
       <c r="AV92" t="inlineStr"/>
@@ -14730,8 +14453,7 @@
       <c r="AZ92" t="inlineStr"/>
       <c r="BA92" t="inlineStr"/>
       <c r="BB92" t="inlineStr"/>
-      <c r="BC92" t="inlineStr"/>
-      <c r="BD92" t="n">
+      <c r="BC92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14847,32 +14569,30 @@
         <v>1</v>
       </c>
       <c r="AK93" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL93" t="n">
-        <v>7200</v>
+        <v>15928</v>
       </c>
       <c r="AM93" t="n">
-        <v>1084</v>
+        <v>42929</v>
       </c>
       <c r="AN93" t="n">
-        <v>42929</v>
+        <v>64619</v>
       </c>
       <c r="AO93" t="n">
-        <v>711</v>
+        <v>283580</v>
       </c>
       <c r="AP93" t="n">
-        <v>283580</v>
+        <v>138940</v>
       </c>
       <c r="AQ93" t="n">
-        <v>38232</v>
+        <v>624867</v>
       </c>
       <c r="AR93" t="n">
-        <v>624867</v>
-      </c>
-      <c r="AS93" t="n">
-        <v>52388</v>
-      </c>
+        <v>98105</v>
+      </c>
+      <c r="AS93" t="inlineStr"/>
       <c r="AT93" t="inlineStr"/>
       <c r="AU93" t="inlineStr"/>
       <c r="AV93" t="inlineStr"/>
@@ -14882,8 +14602,7 @@
       <c r="AZ93" t="inlineStr"/>
       <c r="BA93" t="inlineStr"/>
       <c r="BB93" t="inlineStr"/>
-      <c r="BC93" t="inlineStr"/>
-      <c r="BD93" t="n">
+      <c r="BC93" t="n">
         <v>3</v>
       </c>
     </row>
@@ -14999,38 +14718,36 @@
         <v>1</v>
       </c>
       <c r="AK94" t="n">
-        <v>0.5</v>
+        <v>1800</v>
       </c>
       <c r="AL94" t="n">
-        <v>1800</v>
+        <v>17823</v>
       </c>
       <c r="AM94" t="n">
-        <v>4923</v>
+        <v>12880</v>
       </c>
       <c r="AN94" t="n">
-        <v>12880</v>
+        <v>17359</v>
       </c>
       <c r="AO94" t="n">
-        <v>3943</v>
+        <v>91730</v>
       </c>
       <c r="AP94" t="n">
-        <v>91730</v>
+        <v>16066</v>
       </c>
       <c r="AQ94" t="n">
-        <v>6974</v>
+        <v>177628</v>
       </c>
       <c r="AR94" t="n">
-        <v>177628</v>
+        <v>14406</v>
       </c>
       <c r="AS94" t="n">
-        <v>9355</v>
+        <v>976218</v>
       </c>
       <c r="AT94" t="n">
-        <v>976218</v>
-      </c>
-      <c r="AU94" t="n">
-        <v>3258</v>
-      </c>
+        <v>8230</v>
+      </c>
+      <c r="AU94" t="inlineStr"/>
       <c r="AV94" t="inlineStr"/>
       <c r="AW94" t="inlineStr"/>
       <c r="AX94" t="inlineStr"/>
@@ -15038,8 +14755,7 @@
       <c r="AZ94" t="inlineStr"/>
       <c r="BA94" t="inlineStr"/>
       <c r="BB94" t="inlineStr"/>
-      <c r="BC94" t="inlineStr"/>
-      <c r="BD94" t="n">
+      <c r="BC94" t="n">
         <v>2</v>
       </c>
     </row>
@@ -15155,38 +14871,36 @@
         <v>1</v>
       </c>
       <c r="AK95" t="n">
-        <v>5</v>
+        <v>18000</v>
       </c>
       <c r="AL95" t="n">
-        <v>18000</v>
+        <v>40501</v>
       </c>
       <c r="AM95" t="n">
-        <v>7667</v>
+        <v>104079</v>
       </c>
       <c r="AN95" t="n">
-        <v>104079</v>
+        <v>29244</v>
       </c>
       <c r="AO95" t="n">
-        <v>15664</v>
+        <v>363066</v>
       </c>
       <c r="AP95" t="n">
-        <v>363066</v>
+        <v>18421</v>
       </c>
       <c r="AQ95" t="n">
-        <v>18164</v>
+        <v>949664</v>
       </c>
       <c r="AR95" t="n">
-        <v>949664</v>
+        <v>5937</v>
       </c>
       <c r="AS95" t="n">
-        <v>8693</v>
+        <v>15577264</v>
       </c>
       <c r="AT95" t="n">
-        <v>15577264</v>
-      </c>
-      <c r="AU95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AU95" t="inlineStr"/>
       <c r="AV95" t="inlineStr"/>
       <c r="AW95" t="inlineStr"/>
       <c r="AX95" t="inlineStr"/>
@@ -15194,8 +14908,7 @@
       <c r="AZ95" t="inlineStr"/>
       <c r="BA95" t="inlineStr"/>
       <c r="BB95" t="inlineStr"/>
-      <c r="BC95" t="inlineStr"/>
-      <c r="BD95" t="n">
+      <c r="BC95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15311,38 +15024,36 @@
         <v>1</v>
       </c>
       <c r="AK96" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL96" t="n">
-        <v>3600</v>
+        <v>18252</v>
       </c>
       <c r="AM96" t="n">
-        <v>13198</v>
+        <v>26754</v>
       </c>
       <c r="AN96" t="n">
-        <v>26754</v>
+        <v>35759</v>
       </c>
       <c r="AO96" t="n">
-        <v>82848</v>
+        <v>338913</v>
       </c>
       <c r="AP96" t="n">
-        <v>338913</v>
+        <v>35004</v>
       </c>
       <c r="AQ96" t="n">
-        <v>99131</v>
+        <v>1118711</v>
       </c>
       <c r="AR96" t="n">
-        <v>1118711</v>
+        <v>13489</v>
       </c>
       <c r="AS96" t="n">
-        <v>168138</v>
+        <v>2002074</v>
       </c>
       <c r="AT96" t="n">
-        <v>2002074</v>
-      </c>
-      <c r="AU96" t="n">
-        <v>125247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AU96" t="inlineStr"/>
       <c r="AV96" t="inlineStr"/>
       <c r="AW96" t="inlineStr"/>
       <c r="AX96" t="inlineStr"/>
@@ -15350,8 +15061,7 @@
       <c r="AZ96" t="inlineStr"/>
       <c r="BA96" t="inlineStr"/>
       <c r="BB96" t="inlineStr"/>
-      <c r="BC96" t="inlineStr"/>
-      <c r="BD96" t="n">
+      <c r="BC96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15467,51 +15177,48 @@
         <v>1</v>
       </c>
       <c r="AK97" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL97" t="n">
-        <v>3600</v>
+        <v>9114</v>
       </c>
       <c r="AM97" t="n">
-        <v>5951</v>
+        <v>49541</v>
       </c>
       <c r="AN97" t="n">
-        <v>49541</v>
+        <v>9030</v>
       </c>
       <c r="AO97" t="n">
-        <v>6094</v>
+        <v>316729</v>
       </c>
       <c r="AP97" t="n">
-        <v>316729</v>
+        <v>8631</v>
       </c>
       <c r="AQ97" t="n">
-        <v>9911</v>
+        <v>918429</v>
       </c>
       <c r="AR97" t="n">
-        <v>918429</v>
+        <v>6573</v>
       </c>
       <c r="AS97" t="n">
-        <v>11687</v>
+        <v>1524604</v>
       </c>
       <c r="AT97" t="n">
-        <v>1524604</v>
+        <v>492</v>
       </c>
       <c r="AU97" t="n">
-        <v>231</v>
+        <v>2144314</v>
       </c>
       <c r="AV97" t="n">
-        <v>2144314</v>
-      </c>
-      <c r="AW97" t="n">
-        <v>0</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="AW97" t="inlineStr"/>
       <c r="AX97" t="inlineStr"/>
       <c r="AY97" t="inlineStr"/>
       <c r="AZ97" t="inlineStr"/>
       <c r="BA97" t="inlineStr"/>
       <c r="BB97" t="inlineStr"/>
-      <c r="BC97" t="inlineStr"/>
-      <c r="BD97" t="n">
+      <c r="BC97" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15627,26 +15334,24 @@
         <v>1</v>
       </c>
       <c r="AK98" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL98" t="n">
-        <v>10800</v>
+        <v>10806</v>
       </c>
       <c r="AM98" t="n">
-        <v>10227</v>
+        <v>114932</v>
       </c>
       <c r="AN98" t="n">
-        <v>114932</v>
+        <v>12517</v>
       </c>
       <c r="AO98" t="n">
-        <v>8635</v>
+        <v>617041</v>
       </c>
       <c r="AP98" t="n">
-        <v>617041</v>
-      </c>
-      <c r="AQ98" t="n">
-        <v>1316</v>
-      </c>
+        <v>9929</v>
+      </c>
+      <c r="AQ98" t="inlineStr"/>
       <c r="AR98" t="inlineStr"/>
       <c r="AS98" t="inlineStr"/>
       <c r="AT98" t="inlineStr"/>
@@ -15658,8 +15363,7 @@
       <c r="AZ98" t="inlineStr"/>
       <c r="BA98" t="inlineStr"/>
       <c r="BB98" t="inlineStr"/>
-      <c r="BC98" t="inlineStr"/>
-      <c r="BD98" t="n">
+      <c r="BC98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15775,38 +15479,36 @@
         <v>1</v>
       </c>
       <c r="AK99" t="n">
-        <v>2.5</v>
+        <v>9000</v>
       </c>
       <c r="AL99" t="n">
-        <v>9000</v>
+        <v>188134</v>
       </c>
       <c r="AM99" t="n">
-        <v>39868</v>
+        <v>153924</v>
       </c>
       <c r="AN99" t="n">
-        <v>153924</v>
+        <v>214629</v>
       </c>
       <c r="AO99" t="n">
-        <v>29007</v>
+        <v>675565</v>
       </c>
       <c r="AP99" t="n">
-        <v>675565</v>
+        <v>178037</v>
       </c>
       <c r="AQ99" t="n">
-        <v>26426</v>
+        <v>2053789</v>
       </c>
       <c r="AR99" t="n">
-        <v>2053789</v>
+        <v>111107</v>
       </c>
       <c r="AS99" t="n">
-        <v>40666</v>
+        <v>3252126</v>
       </c>
       <c r="AT99" t="n">
-        <v>3252126</v>
-      </c>
-      <c r="AU99" t="n">
-        <v>17288</v>
-      </c>
+        <v>75878</v>
+      </c>
+      <c r="AU99" t="inlineStr"/>
       <c r="AV99" t="inlineStr"/>
       <c r="AW99" t="inlineStr"/>
       <c r="AX99" t="inlineStr"/>
@@ -15814,8 +15516,7 @@
       <c r="AZ99" t="inlineStr"/>
       <c r="BA99" t="inlineStr"/>
       <c r="BB99" t="inlineStr"/>
-      <c r="BC99" t="inlineStr"/>
-      <c r="BD99" t="n">
+      <c r="BC99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15931,26 +15632,24 @@
         <v>1</v>
       </c>
       <c r="AK100" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL100" t="n">
-        <v>10800</v>
+        <v>37309</v>
       </c>
       <c r="AM100" t="n">
-        <v>9653</v>
+        <v>63622</v>
       </c>
       <c r="AN100" t="n">
-        <v>63622</v>
+        <v>58149</v>
       </c>
       <c r="AO100" t="n">
-        <v>19517</v>
+        <v>153106</v>
       </c>
       <c r="AP100" t="n">
-        <v>153106</v>
-      </c>
-      <c r="AQ100" t="n">
-        <v>30933</v>
-      </c>
+        <v>52350</v>
+      </c>
+      <c r="AQ100" t="inlineStr"/>
       <c r="AR100" t="inlineStr"/>
       <c r="AS100" t="inlineStr"/>
       <c r="AT100" t="inlineStr"/>
@@ -15962,8 +15661,7 @@
       <c r="AZ100" t="inlineStr"/>
       <c r="BA100" t="inlineStr"/>
       <c r="BB100" t="inlineStr"/>
-      <c r="BC100" t="inlineStr"/>
-      <c r="BD100" t="n">
+      <c r="BC100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16079,26 +15777,24 @@
         <v>1</v>
       </c>
       <c r="AK101" t="n">
-        <v>0.5</v>
+        <v>1800</v>
       </c>
       <c r="AL101" t="n">
-        <v>1800</v>
+        <v>14659</v>
       </c>
       <c r="AM101" t="n">
-        <v>7367</v>
+        <v>125032</v>
       </c>
       <c r="AN101" t="n">
-        <v>125032</v>
+        <v>16176</v>
       </c>
       <c r="AO101" t="n">
-        <v>6033</v>
+        <v>710052</v>
       </c>
       <c r="AP101" t="n">
-        <v>710052</v>
-      </c>
-      <c r="AQ101" t="n">
-        <v>3191</v>
-      </c>
+        <v>7459</v>
+      </c>
+      <c r="AQ101" t="inlineStr"/>
       <c r="AR101" t="inlineStr"/>
       <c r="AS101" t="inlineStr"/>
       <c r="AT101" t="inlineStr"/>
@@ -16110,8 +15806,7 @@
       <c r="AZ101" t="inlineStr"/>
       <c r="BA101" t="inlineStr"/>
       <c r="BB101" t="inlineStr"/>
-      <c r="BC101" t="inlineStr"/>
-      <c r="BD101" t="n">
+      <c r="BC101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16227,14 +15922,12 @@
         <v>1</v>
       </c>
       <c r="AK102" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL102" t="n">
-        <v>7200</v>
-      </c>
-      <c r="AM102" t="n">
-        <v>9700</v>
-      </c>
+        <v>33529</v>
+      </c>
+      <c r="AM102" t="inlineStr"/>
       <c r="AN102" t="inlineStr"/>
       <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr"/>
@@ -16250,8 +15943,7 @@
       <c r="AZ102" t="inlineStr"/>
       <c r="BA102" t="inlineStr"/>
       <c r="BB102" t="inlineStr"/>
-      <c r="BC102" t="inlineStr"/>
-      <c r="BD102" t="n">
+      <c r="BC102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16367,20 +16059,18 @@
         <v>0</v>
       </c>
       <c r="AK103" t="n">
-        <v>1</v>
+        <v>3600</v>
       </c>
       <c r="AL103" t="n">
-        <v>3600</v>
+        <v>174411</v>
       </c>
       <c r="AM103" t="n">
-        <v>7300</v>
+        <v>1976285</v>
       </c>
       <c r="AN103" t="n">
-        <v>1976285</v>
-      </c>
-      <c r="AO103" t="n">
-        <v>17429</v>
-      </c>
+        <v>110256</v>
+      </c>
+      <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="inlineStr"/>
       <c r="AQ103" t="inlineStr"/>
       <c r="AR103" t="inlineStr"/>
@@ -16394,8 +16084,7 @@
       <c r="AZ103" t="inlineStr"/>
       <c r="BA103" t="inlineStr"/>
       <c r="BB103" t="inlineStr"/>
-      <c r="BC103" t="inlineStr"/>
-      <c r="BD103" t="n">
+      <c r="BC103" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16511,38 +16200,36 @@
         <v>1</v>
       </c>
       <c r="AK104" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL104" t="n">
-        <v>10800</v>
+        <v>22415</v>
       </c>
       <c r="AM104" t="n">
-        <v>18639</v>
+        <v>96833</v>
       </c>
       <c r="AN104" t="n">
-        <v>96833</v>
+        <v>22304</v>
       </c>
       <c r="AO104" t="n">
-        <v>17583</v>
+        <v>443254</v>
       </c>
       <c r="AP104" t="n">
-        <v>443254</v>
+        <v>19826</v>
       </c>
       <c r="AQ104" t="n">
-        <v>22400</v>
+        <v>782610</v>
       </c>
       <c r="AR104" t="n">
-        <v>782610</v>
+        <v>17989</v>
       </c>
       <c r="AS104" t="n">
-        <v>22437</v>
+        <v>4502367</v>
       </c>
       <c r="AT104" t="n">
-        <v>4502367</v>
-      </c>
-      <c r="AU104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AU104" t="inlineStr"/>
       <c r="AV104" t="inlineStr"/>
       <c r="AW104" t="inlineStr"/>
       <c r="AX104" t="inlineStr"/>
@@ -16550,8 +16237,7 @@
       <c r="AZ104" t="inlineStr"/>
       <c r="BA104" t="inlineStr"/>
       <c r="BB104" t="inlineStr"/>
-      <c r="BC104" t="inlineStr"/>
-      <c r="BD104" t="n">
+      <c r="BC104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16667,26 +16353,24 @@
         <v>0</v>
       </c>
       <c r="AK105" t="n">
-        <v>5</v>
+        <v>18000</v>
       </c>
       <c r="AL105" t="n">
-        <v>18000</v>
+        <v>33707</v>
       </c>
       <c r="AM105" t="n">
-        <v>11179</v>
+        <v>73269</v>
       </c>
       <c r="AN105" t="n">
-        <v>73269</v>
+        <v>33604</v>
       </c>
       <c r="AO105" t="n">
-        <v>11453</v>
+        <v>764146</v>
       </c>
       <c r="AP105" t="n">
-        <v>764146</v>
-      </c>
-      <c r="AQ105" t="n">
-        <v>3342</v>
-      </c>
+        <v>19704</v>
+      </c>
+      <c r="AQ105" t="inlineStr"/>
       <c r="AR105" t="inlineStr"/>
       <c r="AS105" t="inlineStr"/>
       <c r="AT105" t="inlineStr"/>
@@ -16698,8 +16382,7 @@
       <c r="AZ105" t="inlineStr"/>
       <c r="BA105" t="inlineStr"/>
       <c r="BB105" t="inlineStr"/>
-      <c r="BC105" t="inlineStr"/>
-      <c r="BD105" t="n">
+      <c r="BC105" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16815,38 +16498,36 @@
         <v>1</v>
       </c>
       <c r="AK106" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL106" t="n">
-        <v>7200</v>
+        <v>34495</v>
       </c>
       <c r="AM106" t="n">
-        <v>3661</v>
+        <v>17804</v>
       </c>
       <c r="AN106" t="n">
-        <v>17804</v>
+        <v>25881</v>
       </c>
       <c r="AO106" t="n">
-        <v>7003</v>
+        <v>251311</v>
       </c>
       <c r="AP106" t="n">
-        <v>251311</v>
+        <v>26740</v>
       </c>
       <c r="AQ106" t="n">
-        <v>12213</v>
+        <v>402001</v>
       </c>
       <c r="AR106" t="n">
-        <v>402001</v>
+        <v>32034</v>
       </c>
       <c r="AS106" t="n">
-        <v>12485</v>
+        <v>749301</v>
       </c>
       <c r="AT106" t="n">
-        <v>749301</v>
-      </c>
-      <c r="AU106" t="n">
-        <v>6365</v>
-      </c>
+        <v>26780</v>
+      </c>
+      <c r="AU106" t="inlineStr"/>
       <c r="AV106" t="inlineStr"/>
       <c r="AW106" t="inlineStr"/>
       <c r="AX106" t="inlineStr"/>
@@ -16854,8 +16535,7 @@
       <c r="AZ106" t="inlineStr"/>
       <c r="BA106" t="inlineStr"/>
       <c r="BB106" t="inlineStr"/>
-      <c r="BC106" t="inlineStr"/>
-      <c r="BD106" t="n">
+      <c r="BC106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16971,32 +16651,30 @@
         <v>1</v>
       </c>
       <c r="AK107" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL107" t="n">
-        <v>7200</v>
+        <v>10723</v>
       </c>
       <c r="AM107" t="n">
-        <v>10084</v>
+        <v>69750</v>
       </c>
       <c r="AN107" t="n">
-        <v>69750</v>
+        <v>36611</v>
       </c>
       <c r="AO107" t="n">
-        <v>32322</v>
+        <v>396071</v>
       </c>
       <c r="AP107" t="n">
-        <v>396071</v>
+        <v>35408</v>
       </c>
       <c r="AQ107" t="n">
-        <v>42163</v>
+        <v>1711140</v>
       </c>
       <c r="AR107" t="n">
-        <v>1711140</v>
-      </c>
-      <c r="AS107" t="n">
-        <v>88306</v>
-      </c>
+        <v>4051</v>
+      </c>
+      <c r="AS107" t="inlineStr"/>
       <c r="AT107" t="inlineStr"/>
       <c r="AU107" t="inlineStr"/>
       <c r="AV107" t="inlineStr"/>
@@ -17006,8 +16684,7 @@
       <c r="AZ107" t="inlineStr"/>
       <c r="BA107" t="inlineStr"/>
       <c r="BB107" t="inlineStr"/>
-      <c r="BC107" t="inlineStr"/>
-      <c r="BD107" t="n">
+      <c r="BC107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17123,26 +16800,24 @@
         <v>0</v>
       </c>
       <c r="AK108" t="n">
-        <v>24</v>
+        <v>86400</v>
       </c>
       <c r="AL108" t="n">
-        <v>86400</v>
+        <v>10541</v>
       </c>
       <c r="AM108" t="n">
-        <v>4101</v>
+        <v>151055</v>
       </c>
       <c r="AN108" t="n">
-        <v>151055</v>
+        <v>10085</v>
       </c>
       <c r="AO108" t="n">
-        <v>6057</v>
+        <v>747817</v>
       </c>
       <c r="AP108" t="n">
-        <v>747817</v>
-      </c>
-      <c r="AQ108" t="n">
-        <v>3202</v>
-      </c>
+        <v>7998</v>
+      </c>
+      <c r="AQ108" t="inlineStr"/>
       <c r="AR108" t="inlineStr"/>
       <c r="AS108" t="inlineStr"/>
       <c r="AT108" t="inlineStr"/>
@@ -17154,8 +16829,7 @@
       <c r="AZ108" t="inlineStr"/>
       <c r="BA108" t="inlineStr"/>
       <c r="BB108" t="inlineStr"/>
-      <c r="BC108" t="inlineStr"/>
-      <c r="BD108" t="n">
+      <c r="BC108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17271,32 +16945,30 @@
         <v>1</v>
       </c>
       <c r="AK109" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL109" t="n">
-        <v>10800</v>
+        <v>5353</v>
       </c>
       <c r="AM109" t="n">
-        <v>762</v>
+        <v>42391</v>
       </c>
       <c r="AN109" t="n">
-        <v>42391</v>
+        <v>5427</v>
       </c>
       <c r="AO109" t="n">
-        <v>1644</v>
+        <v>103777</v>
       </c>
       <c r="AP109" t="n">
-        <v>103777</v>
+        <v>5270</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1763</v>
+        <v>363948</v>
       </c>
       <c r="AR109" t="n">
-        <v>363948</v>
-      </c>
-      <c r="AS109" t="n">
-        <v>4605</v>
-      </c>
+        <v>5461</v>
+      </c>
+      <c r="AS109" t="inlineStr"/>
       <c r="AT109" t="inlineStr"/>
       <c r="AU109" t="inlineStr"/>
       <c r="AV109" t="inlineStr"/>
@@ -17306,8 +16978,7 @@
       <c r="AZ109" t="inlineStr"/>
       <c r="BA109" t="inlineStr"/>
       <c r="BB109" t="inlineStr"/>
-      <c r="BC109" t="inlineStr"/>
-      <c r="BD109" t="n">
+      <c r="BC109" t="n">
         <v>2</v>
       </c>
     </row>
@@ -17423,38 +17094,36 @@
         <v>1</v>
       </c>
       <c r="AK110" t="n">
-        <v>4.5</v>
+        <v>16200</v>
       </c>
       <c r="AL110" t="n">
-        <v>16200</v>
+        <v>31112</v>
       </c>
       <c r="AM110" t="n">
-        <v>13402</v>
+        <v>49822</v>
       </c>
       <c r="AN110" t="n">
-        <v>49822</v>
+        <v>84069</v>
       </c>
       <c r="AO110" t="n">
-        <v>54354</v>
+        <v>128845</v>
       </c>
       <c r="AP110" t="n">
-        <v>128845</v>
+        <v>87657</v>
       </c>
       <c r="AQ110" t="n">
-        <v>71265</v>
+        <v>491058</v>
       </c>
       <c r="AR110" t="n">
-        <v>491058</v>
+        <v>84723</v>
       </c>
       <c r="AS110" t="n">
-        <v>57072</v>
+        <v>1011895</v>
       </c>
       <c r="AT110" t="n">
-        <v>1011895</v>
-      </c>
-      <c r="AU110" t="n">
-        <v>51239</v>
-      </c>
+        <v>76241</v>
+      </c>
+      <c r="AU110" t="inlineStr"/>
       <c r="AV110" t="inlineStr"/>
       <c r="AW110" t="inlineStr"/>
       <c r="AX110" t="inlineStr"/>
@@ -17462,8 +17131,7 @@
       <c r="AZ110" t="inlineStr"/>
       <c r="BA110" t="inlineStr"/>
       <c r="BB110" t="inlineStr"/>
-      <c r="BC110" t="inlineStr"/>
-      <c r="BD110" t="n">
+      <c r="BC110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17579,32 +17247,30 @@
         <v>1</v>
       </c>
       <c r="AK111" t="n">
-        <v>0.33</v>
+        <v>1188</v>
       </c>
       <c r="AL111" t="n">
-        <v>1188</v>
+        <v>5350</v>
       </c>
       <c r="AM111" t="n">
-        <v>3497</v>
+        <v>61567</v>
       </c>
       <c r="AN111" t="n">
-        <v>61567</v>
+        <v>4242</v>
       </c>
       <c r="AO111" t="n">
-        <v>6618</v>
+        <v>422626</v>
       </c>
       <c r="AP111" t="n">
-        <v>422626</v>
+        <v>3435</v>
       </c>
       <c r="AQ111" t="n">
-        <v>11664</v>
+        <v>771931</v>
       </c>
       <c r="AR111" t="n">
-        <v>771931</v>
-      </c>
-      <c r="AS111" t="n">
-        <v>10201</v>
-      </c>
+        <v>3473</v>
+      </c>
+      <c r="AS111" t="inlineStr"/>
       <c r="AT111" t="inlineStr"/>
       <c r="AU111" t="inlineStr"/>
       <c r="AV111" t="inlineStr"/>
@@ -17614,8 +17280,7 @@
       <c r="AZ111" t="inlineStr"/>
       <c r="BA111" t="inlineStr"/>
       <c r="BB111" t="inlineStr"/>
-      <c r="BC111" t="inlineStr"/>
-      <c r="BD111" t="n">
+      <c r="BC111" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17731,26 +17396,24 @@
         <v>1</v>
       </c>
       <c r="AK112" t="n">
-        <v>14</v>
+        <v>50400</v>
       </c>
       <c r="AL112" t="n">
-        <v>50400</v>
+        <v>44147</v>
       </c>
       <c r="AM112" t="n">
-        <v>33501</v>
+        <v>179057</v>
       </c>
       <c r="AN112" t="n">
-        <v>179057</v>
+        <v>44665</v>
       </c>
       <c r="AO112" t="n">
-        <v>34596</v>
+        <v>435228</v>
       </c>
       <c r="AP112" t="n">
-        <v>435228</v>
-      </c>
-      <c r="AQ112" t="n">
-        <v>60482</v>
-      </c>
+        <v>40967</v>
+      </c>
+      <c r="AQ112" t="inlineStr"/>
       <c r="AR112" t="inlineStr"/>
       <c r="AS112" t="inlineStr"/>
       <c r="AT112" t="inlineStr"/>
@@ -17762,8 +17425,7 @@
       <c r="AZ112" t="inlineStr"/>
       <c r="BA112" t="inlineStr"/>
       <c r="BB112" t="inlineStr"/>
-      <c r="BC112" t="inlineStr"/>
-      <c r="BD112" t="n">
+      <c r="BC112" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17879,38 +17541,36 @@
         <v>1</v>
       </c>
       <c r="AK113" t="n">
-        <v>1.5</v>
+        <v>5400</v>
       </c>
       <c r="AL113" t="n">
-        <v>5400</v>
+        <v>47240</v>
       </c>
       <c r="AM113" t="n">
-        <v>38120</v>
+        <v>37041</v>
       </c>
       <c r="AN113" t="n">
-        <v>37041</v>
+        <v>72389</v>
       </c>
       <c r="AO113" t="n">
-        <v>63495</v>
+        <v>131107</v>
       </c>
       <c r="AP113" t="n">
-        <v>131107</v>
+        <v>81584</v>
       </c>
       <c r="AQ113" t="n">
-        <v>57174</v>
+        <v>637973</v>
       </c>
       <c r="AR113" t="n">
-        <v>637973</v>
+        <v>65787</v>
       </c>
       <c r="AS113" t="n">
-        <v>116414</v>
+        <v>1048209</v>
       </c>
       <c r="AT113" t="n">
-        <v>1048209</v>
-      </c>
-      <c r="AU113" t="n">
-        <v>14664</v>
-      </c>
+        <v>32697</v>
+      </c>
+      <c r="AU113" t="inlineStr"/>
       <c r="AV113" t="inlineStr"/>
       <c r="AW113" t="inlineStr"/>
       <c r="AX113" t="inlineStr"/>
@@ -17918,8 +17578,7 @@
       <c r="AZ113" t="inlineStr"/>
       <c r="BA113" t="inlineStr"/>
       <c r="BB113" t="inlineStr"/>
-      <c r="BC113" t="inlineStr"/>
-      <c r="BD113" t="n">
+      <c r="BC113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18035,38 +17694,36 @@
         <v>1</v>
       </c>
       <c r="AK114" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL114" t="n">
-        <v>10800</v>
+        <v>28400</v>
       </c>
       <c r="AM114" t="n">
-        <v>25806</v>
+        <v>82745</v>
       </c>
       <c r="AN114" t="n">
-        <v>82745</v>
+        <v>29375</v>
       </c>
       <c r="AO114" t="n">
-        <v>27125</v>
+        <v>238653</v>
       </c>
       <c r="AP114" t="n">
-        <v>238653</v>
+        <v>23377</v>
       </c>
       <c r="AQ114" t="n">
-        <v>32672</v>
+        <v>427848</v>
       </c>
       <c r="AR114" t="n">
-        <v>427848</v>
+        <v>23150</v>
       </c>
       <c r="AS114" t="n">
-        <v>26229</v>
+        <v>1466000</v>
       </c>
       <c r="AT114" t="n">
-        <v>1466000</v>
-      </c>
-      <c r="AU114" t="n">
-        <v>4034</v>
-      </c>
+        <v>2379</v>
+      </c>
+      <c r="AU114" t="inlineStr"/>
       <c r="AV114" t="inlineStr"/>
       <c r="AW114" t="inlineStr"/>
       <c r="AX114" t="inlineStr"/>
@@ -18074,8 +17731,7 @@
       <c r="AZ114" t="inlineStr"/>
       <c r="BA114" t="inlineStr"/>
       <c r="BB114" t="inlineStr"/>
-      <c r="BC114" t="inlineStr"/>
-      <c r="BD114" t="n">
+      <c r="BC114" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18191,51 +17847,48 @@
         <v>1</v>
       </c>
       <c r="AK115" t="n">
-        <v>1.5</v>
+        <v>5400</v>
       </c>
       <c r="AL115" t="n">
-        <v>5400</v>
+        <v>33686</v>
       </c>
       <c r="AM115" t="n">
-        <v>28944</v>
+        <v>98818</v>
       </c>
       <c r="AN115" t="n">
-        <v>98818</v>
+        <v>34173</v>
       </c>
       <c r="AO115" t="n">
-        <v>34246</v>
+        <v>354557</v>
       </c>
       <c r="AP115" t="n">
-        <v>354557</v>
+        <v>37949</v>
       </c>
       <c r="AQ115" t="n">
-        <v>16214</v>
+        <v>1151763</v>
       </c>
       <c r="AR115" t="n">
-        <v>1151763</v>
+        <v>38071</v>
       </c>
       <c r="AS115" t="n">
-        <v>6968</v>
+        <v>2258722</v>
       </c>
       <c r="AT115" t="n">
-        <v>2258722</v>
+        <v>919</v>
       </c>
       <c r="AU115" t="n">
-        <v>5123</v>
+        <v>29042775</v>
       </c>
       <c r="AV115" t="n">
-        <v>29042775</v>
-      </c>
-      <c r="AW115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AW115" t="inlineStr"/>
       <c r="AX115" t="inlineStr"/>
       <c r="AY115" t="inlineStr"/>
       <c r="AZ115" t="inlineStr"/>
       <c r="BA115" t="inlineStr"/>
       <c r="BB115" t="inlineStr"/>
-      <c r="BC115" t="inlineStr"/>
-      <c r="BD115" t="n">
+      <c r="BC115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18351,26 +18004,24 @@
         <v>0</v>
       </c>
       <c r="AK116" t="n">
-        <v>12</v>
+        <v>43200</v>
       </c>
       <c r="AL116" t="n">
-        <v>43200</v>
+        <v>13431</v>
       </c>
       <c r="AM116" t="n">
-        <v>1097</v>
+        <v>183563</v>
       </c>
       <c r="AN116" t="n">
-        <v>183563</v>
+        <v>11980</v>
       </c>
       <c r="AO116" t="n">
-        <v>5288</v>
+        <v>695654</v>
       </c>
       <c r="AP116" t="n">
-        <v>695654</v>
-      </c>
-      <c r="AQ116" t="n">
-        <v>404</v>
-      </c>
+        <v>6894</v>
+      </c>
+      <c r="AQ116" t="inlineStr"/>
       <c r="AR116" t="inlineStr"/>
       <c r="AS116" t="inlineStr"/>
       <c r="AT116" t="inlineStr"/>
@@ -18382,8 +18033,7 @@
       <c r="AZ116" t="inlineStr"/>
       <c r="BA116" t="inlineStr"/>
       <c r="BB116" t="inlineStr"/>
-      <c r="BC116" t="inlineStr"/>
-      <c r="BD116" t="n">
+      <c r="BC116" t="n">
         <v>2</v>
       </c>
     </row>
@@ -18499,51 +18149,48 @@
         <v>1</v>
       </c>
       <c r="AK117" t="n">
-        <v>1.5</v>
+        <v>5400</v>
       </c>
       <c r="AL117" t="n">
-        <v>5400</v>
+        <v>1314</v>
       </c>
       <c r="AM117" t="n">
-        <v>118</v>
+        <v>27929</v>
       </c>
       <c r="AN117" t="n">
-        <v>27929</v>
+        <v>1357</v>
       </c>
       <c r="AO117" t="n">
-        <v>38</v>
+        <v>77924</v>
       </c>
       <c r="AP117" t="n">
-        <v>77924</v>
+        <v>1257</v>
       </c>
       <c r="AQ117" t="n">
-        <v>81</v>
+        <v>679220</v>
       </c>
       <c r="AR117" t="n">
-        <v>679220</v>
+        <v>336</v>
       </c>
       <c r="AS117" t="n">
-        <v>98</v>
+        <v>1630447</v>
       </c>
       <c r="AT117" t="n">
-        <v>1630447</v>
+        <v>0</v>
       </c>
       <c r="AU117" t="n">
-        <v>0</v>
+        <v>5262989</v>
       </c>
       <c r="AV117" t="n">
-        <v>5262989</v>
-      </c>
-      <c r="AW117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AW117" t="inlineStr"/>
       <c r="AX117" t="inlineStr"/>
       <c r="AY117" t="inlineStr"/>
       <c r="AZ117" t="inlineStr"/>
       <c r="BA117" t="inlineStr"/>
       <c r="BB117" t="inlineStr"/>
-      <c r="BC117" t="inlineStr"/>
-      <c r="BD117" t="n">
+      <c r="BC117" t="n">
         <v>2</v>
       </c>
     </row>
@@ -18659,32 +18306,30 @@
         <v>1</v>
       </c>
       <c r="AK118" t="n">
-        <v>0.3</v>
+        <v>1080</v>
       </c>
       <c r="AL118" t="n">
-        <v>1080</v>
+        <v>28457</v>
       </c>
       <c r="AM118" t="n">
-        <v>9837</v>
+        <v>31907</v>
       </c>
       <c r="AN118" t="n">
-        <v>31907</v>
+        <v>50143</v>
       </c>
       <c r="AO118" t="n">
-        <v>32668</v>
+        <v>83358</v>
       </c>
       <c r="AP118" t="n">
-        <v>83358</v>
+        <v>50191</v>
       </c>
       <c r="AQ118" t="n">
-        <v>39708</v>
+        <v>255329</v>
       </c>
       <c r="AR118" t="n">
-        <v>255329</v>
-      </c>
-      <c r="AS118" t="n">
-        <v>46431</v>
-      </c>
+        <v>46665</v>
+      </c>
+      <c r="AS118" t="inlineStr"/>
       <c r="AT118" t="inlineStr"/>
       <c r="AU118" t="inlineStr"/>
       <c r="AV118" t="inlineStr"/>
@@ -18694,8 +18339,7 @@
       <c r="AZ118" t="inlineStr"/>
       <c r="BA118" t="inlineStr"/>
       <c r="BB118" t="inlineStr"/>
-      <c r="BC118" t="inlineStr"/>
-      <c r="BD118" t="n">
+      <c r="BC118" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18811,32 +18455,30 @@
         <v>1</v>
       </c>
       <c r="AK119" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL119" t="n">
-        <v>7200</v>
+        <v>23003</v>
       </c>
       <c r="AM119" t="n">
-        <v>4137</v>
+        <v>186863</v>
       </c>
       <c r="AN119" t="n">
-        <v>186863</v>
+        <v>20625</v>
       </c>
       <c r="AO119" t="n">
-        <v>8607</v>
+        <v>787645</v>
       </c>
       <c r="AP119" t="n">
-        <v>787645</v>
+        <v>13463</v>
       </c>
       <c r="AQ119" t="n">
-        <v>4721</v>
+        <v>2339803</v>
       </c>
       <c r="AR119" t="n">
-        <v>2339803</v>
-      </c>
-      <c r="AS119" t="n">
-        <v>14902</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AS119" t="inlineStr"/>
       <c r="AT119" t="inlineStr"/>
       <c r="AU119" t="inlineStr"/>
       <c r="AV119" t="inlineStr"/>
@@ -18846,8 +18488,7 @@
       <c r="AZ119" t="inlineStr"/>
       <c r="BA119" t="inlineStr"/>
       <c r="BB119" t="inlineStr"/>
-      <c r="BC119" t="inlineStr"/>
-      <c r="BD119" t="n">
+      <c r="BC119" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18963,20 +18604,18 @@
         <v>1</v>
       </c>
       <c r="AK120" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL120" t="n">
-        <v>10800</v>
+        <v>53622</v>
       </c>
       <c r="AM120" t="n">
-        <v>12928</v>
+        <v>31789</v>
       </c>
       <c r="AN120" t="n">
-        <v>31789</v>
-      </c>
-      <c r="AO120" t="n">
-        <v>8780</v>
-      </c>
+        <v>41796</v>
+      </c>
+      <c r="AO120" t="inlineStr"/>
       <c r="AP120" t="inlineStr"/>
       <c r="AQ120" t="inlineStr"/>
       <c r="AR120" t="inlineStr"/>
@@ -18990,8 +18629,7 @@
       <c r="AZ120" t="inlineStr"/>
       <c r="BA120" t="inlineStr"/>
       <c r="BB120" t="inlineStr"/>
-      <c r="BC120" t="inlineStr"/>
-      <c r="BD120" t="n">
+      <c r="BC120" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19107,20 +18745,18 @@
         <v>1</v>
       </c>
       <c r="AK121" t="n">
-        <v>24</v>
+        <v>86400</v>
       </c>
       <c r="AL121" t="n">
-        <v>86400</v>
+        <v>8248</v>
       </c>
       <c r="AM121" t="n">
-        <v>7909</v>
+        <v>170319</v>
       </c>
       <c r="AN121" t="n">
-        <v>170319</v>
-      </c>
-      <c r="AO121" t="n">
-        <v>8207</v>
-      </c>
+        <v>7618</v>
+      </c>
+      <c r="AO121" t="inlineStr"/>
       <c r="AP121" t="inlineStr"/>
       <c r="AQ121" t="inlineStr"/>
       <c r="AR121" t="inlineStr"/>
@@ -19134,8 +18770,7 @@
       <c r="AZ121" t="inlineStr"/>
       <c r="BA121" t="inlineStr"/>
       <c r="BB121" t="inlineStr"/>
-      <c r="BC121" t="inlineStr"/>
-      <c r="BD121" t="n">
+      <c r="BC121" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19251,26 +18886,24 @@
         <v>1</v>
       </c>
       <c r="AK122" t="n">
-        <v>2</v>
+        <v>7200</v>
       </c>
       <c r="AL122" t="n">
-        <v>7200</v>
+        <v>57608</v>
       </c>
       <c r="AM122" t="n">
-        <v>25187</v>
+        <v>29629</v>
       </c>
       <c r="AN122" t="n">
-        <v>29629</v>
+        <v>105657</v>
       </c>
       <c r="AO122" t="n">
-        <v>33038</v>
+        <v>112169</v>
       </c>
       <c r="AP122" t="n">
-        <v>112169</v>
-      </c>
-      <c r="AQ122" t="n">
-        <v>32200</v>
-      </c>
+        <v>90919</v>
+      </c>
+      <c r="AQ122" t="inlineStr"/>
       <c r="AR122" t="inlineStr"/>
       <c r="AS122" t="inlineStr"/>
       <c r="AT122" t="inlineStr"/>
@@ -19282,8 +18915,7 @@
       <c r="AZ122" t="inlineStr"/>
       <c r="BA122" t="inlineStr"/>
       <c r="BB122" t="inlineStr"/>
-      <c r="BC122" t="inlineStr"/>
-      <c r="BD122" t="n">
+      <c r="BC122" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19399,26 +19031,24 @@
         <v>1</v>
       </c>
       <c r="AK123" t="n">
-        <v>4</v>
+        <v>14400</v>
       </c>
       <c r="AL123" t="n">
-        <v>14400</v>
+        <v>121434</v>
       </c>
       <c r="AM123" t="n">
-        <v>21341</v>
+        <v>68462</v>
       </c>
       <c r="AN123" t="n">
-        <v>68462</v>
+        <v>10582</v>
       </c>
       <c r="AO123" t="n">
-        <v>9073</v>
+        <v>678219</v>
       </c>
       <c r="AP123" t="n">
-        <v>678219</v>
-      </c>
-      <c r="AQ123" t="n">
-        <v>22191</v>
-      </c>
+        <v>8137</v>
+      </c>
+      <c r="AQ123" t="inlineStr"/>
       <c r="AR123" t="inlineStr"/>
       <c r="AS123" t="inlineStr"/>
       <c r="AT123" t="inlineStr"/>
@@ -19430,8 +19060,7 @@
       <c r="AZ123" t="inlineStr"/>
       <c r="BA123" t="inlineStr"/>
       <c r="BB123" t="inlineStr"/>
-      <c r="BC123" t="inlineStr"/>
-      <c r="BD123" t="n">
+      <c r="BC123" t="n">
         <v>3</v>
       </c>
     </row>
@@ -19547,26 +19176,24 @@
         <v>1</v>
       </c>
       <c r="AK124" t="n">
-        <v>7</v>
+        <v>25200</v>
       </c>
       <c r="AL124" t="n">
-        <v>25200</v>
+        <v>81478</v>
       </c>
       <c r="AM124" t="n">
-        <v>56109</v>
+        <v>154504</v>
       </c>
       <c r="AN124" t="n">
-        <v>154504</v>
+        <v>82506</v>
       </c>
       <c r="AO124" t="n">
-        <v>37111</v>
+        <v>231913</v>
       </c>
       <c r="AP124" t="n">
-        <v>231913</v>
-      </c>
-      <c r="AQ124" t="n">
-        <v>59082</v>
-      </c>
+        <v>76857</v>
+      </c>
+      <c r="AQ124" t="inlineStr"/>
       <c r="AR124" t="inlineStr"/>
       <c r="AS124" t="inlineStr"/>
       <c r="AT124" t="inlineStr"/>
@@ -19578,8 +19205,7 @@
       <c r="AZ124" t="inlineStr"/>
       <c r="BA124" t="inlineStr"/>
       <c r="BB124" t="inlineStr"/>
-      <c r="BC124" t="inlineStr"/>
-      <c r="BD124" t="n">
+      <c r="BC124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19695,38 +19321,36 @@
         <v>1</v>
       </c>
       <c r="AK125" t="n">
-        <v>21</v>
+        <v>75600</v>
       </c>
       <c r="AL125" t="n">
-        <v>75600</v>
+        <v>22194</v>
       </c>
       <c r="AM125" t="n">
-        <v>11576</v>
+        <v>233339</v>
       </c>
       <c r="AN125" t="n">
-        <v>233339</v>
+        <v>20597</v>
       </c>
       <c r="AO125" t="n">
-        <v>19641</v>
+        <v>510536</v>
       </c>
       <c r="AP125" t="n">
-        <v>510536</v>
+        <v>20853</v>
       </c>
       <c r="AQ125" t="n">
-        <v>21113</v>
+        <v>673664</v>
       </c>
       <c r="AR125" t="n">
-        <v>673664</v>
+        <v>15529</v>
       </c>
       <c r="AS125" t="n">
-        <v>13895</v>
+        <v>1291780</v>
       </c>
       <c r="AT125" t="n">
-        <v>1291780</v>
-      </c>
-      <c r="AU125" t="n">
-        <v>61733</v>
-      </c>
+        <v>1601</v>
+      </c>
+      <c r="AU125" t="inlineStr"/>
       <c r="AV125" t="inlineStr"/>
       <c r="AW125" t="inlineStr"/>
       <c r="AX125" t="inlineStr"/>
@@ -19734,8 +19358,7 @@
       <c r="AZ125" t="inlineStr"/>
       <c r="BA125" t="inlineStr"/>
       <c r="BB125" t="inlineStr"/>
-      <c r="BC125" t="inlineStr"/>
-      <c r="BD125" t="n">
+      <c r="BC125" t="n">
         <v>2</v>
       </c>
     </row>
@@ -19851,51 +19474,48 @@
         <v>1</v>
       </c>
       <c r="AK126" t="n">
-        <v>3.3</v>
+        <v>11880</v>
       </c>
       <c r="AL126" t="n">
-        <v>11880</v>
+        <v>39872</v>
       </c>
       <c r="AM126" t="n">
-        <v>25699</v>
+        <v>124139</v>
       </c>
       <c r="AN126" t="n">
-        <v>124139</v>
+        <v>43120</v>
       </c>
       <c r="AO126" t="n">
-        <v>52007</v>
+        <v>735039</v>
       </c>
       <c r="AP126" t="n">
-        <v>735039</v>
+        <v>24418</v>
       </c>
       <c r="AQ126" t="n">
-        <v>97158</v>
+        <v>1335092</v>
       </c>
       <c r="AR126" t="n">
-        <v>1335092</v>
+        <v>12215</v>
       </c>
       <c r="AS126" t="n">
-        <v>114352</v>
+        <v>1678275</v>
       </c>
       <c r="AT126" t="n">
-        <v>1678275</v>
+        <v>8717</v>
       </c>
       <c r="AU126" t="n">
-        <v>109019</v>
+        <v>9285528</v>
       </c>
       <c r="AV126" t="n">
-        <v>9285528</v>
-      </c>
-      <c r="AW126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AW126" t="inlineStr"/>
       <c r="AX126" t="inlineStr"/>
       <c r="AY126" t="inlineStr"/>
       <c r="AZ126" t="inlineStr"/>
       <c r="BA126" t="inlineStr"/>
       <c r="BB126" t="inlineStr"/>
-      <c r="BC126" t="inlineStr"/>
-      <c r="BD126" t="n">
+      <c r="BC126" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20011,32 +19631,30 @@
         <v>1</v>
       </c>
       <c r="AK127" t="n">
-        <v>5.5</v>
+        <v>19800</v>
       </c>
       <c r="AL127" t="n">
-        <v>19800</v>
+        <v>32559</v>
       </c>
       <c r="AM127" t="n">
-        <v>8968</v>
+        <v>89575</v>
       </c>
       <c r="AN127" t="n">
-        <v>89575</v>
+        <v>35138</v>
       </c>
       <c r="AO127" t="n">
-        <v>12860</v>
+        <v>452217</v>
       </c>
       <c r="AP127" t="n">
-        <v>452217</v>
+        <v>34241</v>
       </c>
       <c r="AQ127" t="n">
-        <v>13716</v>
+        <v>1055942</v>
       </c>
       <c r="AR127" t="n">
-        <v>1055942</v>
-      </c>
-      <c r="AS127" t="n">
-        <v>12709</v>
-      </c>
+        <v>14377</v>
+      </c>
+      <c r="AS127" t="inlineStr"/>
       <c r="AT127" t="inlineStr"/>
       <c r="AU127" t="inlineStr"/>
       <c r="AV127" t="inlineStr"/>
@@ -20046,8 +19664,7 @@
       <c r="AZ127" t="inlineStr"/>
       <c r="BA127" t="inlineStr"/>
       <c r="BB127" t="inlineStr"/>
-      <c r="BC127" t="inlineStr"/>
-      <c r="BD127" t="n">
+      <c r="BC127" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20163,32 +19780,30 @@
         <v>1</v>
       </c>
       <c r="AK128" t="n">
-        <v>0.5</v>
+        <v>1800</v>
       </c>
       <c r="AL128" t="n">
-        <v>1800</v>
+        <v>18150</v>
       </c>
       <c r="AM128" t="n">
-        <v>409</v>
+        <v>4920</v>
       </c>
       <c r="AN128" t="n">
-        <v>4920</v>
+        <v>37650</v>
       </c>
       <c r="AO128" t="n">
-        <v>3742</v>
+        <v>25620</v>
       </c>
       <c r="AP128" t="n">
-        <v>25620</v>
+        <v>140688</v>
       </c>
       <c r="AQ128" t="n">
-        <v>53311</v>
+        <v>72240</v>
       </c>
       <c r="AR128" t="n">
-        <v>72240</v>
-      </c>
-      <c r="AS128" t="n">
-        <v>29545</v>
-      </c>
+        <v>123926</v>
+      </c>
+      <c r="AS128" t="inlineStr"/>
       <c r="AT128" t="inlineStr"/>
       <c r="AU128" t="inlineStr"/>
       <c r="AV128" t="inlineStr"/>
@@ -20198,8 +19813,7 @@
       <c r="AZ128" t="inlineStr"/>
       <c r="BA128" t="inlineStr"/>
       <c r="BB128" t="inlineStr"/>
-      <c r="BC128" t="inlineStr"/>
-      <c r="BD128" t="n">
+      <c r="BC128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20315,32 +19929,30 @@
         <v>1</v>
       </c>
       <c r="AK129" t="n">
-        <v>2.8</v>
+        <v>10080</v>
       </c>
       <c r="AL129" t="n">
-        <v>10080</v>
+        <v>27969</v>
       </c>
       <c r="AM129" t="n">
-        <v>17948</v>
+        <v>66180</v>
       </c>
       <c r="AN129" t="n">
-        <v>66180</v>
+        <v>27071</v>
       </c>
       <c r="AO129" t="n">
-        <v>21099</v>
+        <v>256680</v>
       </c>
       <c r="AP129" t="n">
-        <v>256680</v>
+        <v>24119</v>
       </c>
       <c r="AQ129" t="n">
-        <v>44069</v>
+        <v>1111140</v>
       </c>
       <c r="AR129" t="n">
-        <v>1111140</v>
-      </c>
-      <c r="AS129" t="n">
-        <v>64243</v>
-      </c>
+        <v>3647</v>
+      </c>
+      <c r="AS129" t="inlineStr"/>
       <c r="AT129" t="inlineStr"/>
       <c r="AU129" t="inlineStr"/>
       <c r="AV129" t="inlineStr"/>
@@ -20350,8 +19962,7 @@
       <c r="AZ129" t="inlineStr"/>
       <c r="BA129" t="inlineStr"/>
       <c r="BB129" t="inlineStr"/>
-      <c r="BC129" t="inlineStr"/>
-      <c r="BD129" t="n">
+      <c r="BC129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20467,20 +20078,18 @@
         <v>1</v>
       </c>
       <c r="AK130" t="n">
-        <v>3</v>
+        <v>10800</v>
       </c>
       <c r="AL130" t="n">
-        <v>10800</v>
+        <v>53154</v>
       </c>
       <c r="AM130" t="n">
-        <v>14430</v>
+        <v>95520</v>
       </c>
       <c r="AN130" t="n">
-        <v>95520</v>
-      </c>
-      <c r="AO130" t="n">
-        <v>19019</v>
-      </c>
+        <v>126642</v>
+      </c>
+      <c r="AO130" t="inlineStr"/>
       <c r="AP130" t="inlineStr"/>
       <c r="AQ130" t="inlineStr"/>
       <c r="AR130" t="inlineStr"/>
@@ -20494,8 +20103,7 @@
       <c r="AZ130" t="inlineStr"/>
       <c r="BA130" t="inlineStr"/>
       <c r="BB130" t="inlineStr"/>
-      <c r="BC130" t="inlineStr"/>
-      <c r="BD130" t="n">
+      <c r="BC130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20611,20 +20219,18 @@
         <v>1</v>
       </c>
       <c r="AK131" t="n">
-        <v>4</v>
+        <v>14400</v>
       </c>
       <c r="AL131" t="n">
-        <v>14400</v>
+        <v>49019</v>
       </c>
       <c r="AM131" t="n">
-        <v>18622</v>
+        <v>62940</v>
       </c>
       <c r="AN131" t="n">
-        <v>62940</v>
-      </c>
-      <c r="AO131" t="n">
-        <v>28683</v>
-      </c>
+        <v>100470</v>
+      </c>
+      <c r="AO131" t="inlineStr"/>
       <c r="AP131" t="inlineStr"/>
       <c r="AQ131" t="inlineStr"/>
       <c r="AR131" t="inlineStr"/>
@@ -20638,8 +20244,7 @@
       <c r="AZ131" t="inlineStr"/>
       <c r="BA131" t="inlineStr"/>
       <c r="BB131" t="inlineStr"/>
-      <c r="BC131" t="inlineStr"/>
-      <c r="BD131" t="n">
+      <c r="BC131" t="n">
         <v>1</v>
       </c>
     </row>
